--- a/DesignSearch/GA-UTS-XGB/Design.xlsx
+++ b/DesignSearch/GA-UTS-XGB/Design.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\DesignSearch\GA-UTS-XGB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLandAl\TheFinal\DesignSearch\GA-UTS-XGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEBCB8-2111-4EA2-AD8D-0C114741494F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7955D-DA2A-465A-9FC9-8834349CF123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$154</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Si</t>
   </si>
@@ -108,6 +112,21 @@
   <si>
     <t>GA_UTS_AT24_0.5.csv</t>
   </si>
+  <si>
+    <t>GA_UTS_AT24_1.0.csv</t>
+  </si>
+  <si>
+    <t>GA_UTS_AT24_None.csv</t>
+  </si>
+  <si>
+    <t>GA_UTS_AT48_0.5.csv</t>
+  </si>
+  <si>
+    <t>GA_UTS_AT48_1.0.csv</t>
+  </si>
+  <si>
+    <t>GA_UTS_AT48_None.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,10 +212,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,25 +508,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W49"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X36" sqref="X36"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="7.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="3"/>
-    <col min="20" max="20" width="12.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="1"/>
+    <col min="1" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="3"/>
+    <col min="20" max="20" width="12.75" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="1"/>
     <col min="23" max="23" width="22" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="24" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>6.0000000000000002E-6</v>
       </c>
@@ -636,11 +665,11 @@
       <c r="V2" s="4">
         <v>686.43650200000002</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>9.0000000000000002E-6</v>
       </c>
@@ -707,9 +736,9 @@
       <c r="V3" s="2">
         <v>686.10647400000005</v>
       </c>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -776,9 +805,9 @@
       <c r="V4" s="2">
         <v>686.09214199999997</v>
       </c>
-      <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -845,9 +874,9 @@
       <c r="V5" s="1">
         <v>685.15</v>
       </c>
-      <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -871,7 +900,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4.1999999999999998E-5</v>
       </c>
@@ -938,11 +967,11 @@
       <c r="V7" s="4">
         <v>686.62661600000001</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1009,9 +1038,9 @@
       <c r="V8" s="2">
         <v>686.23226699999998</v>
       </c>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1078,9 +1107,9 @@
       <c r="V9" s="1">
         <v>685.17</v>
       </c>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1147,10 +1176,10 @@
       <c r="V10" s="1">
         <v>686.23</v>
       </c>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5.2615000000000002E-2</v>
       </c>
@@ -1217,11 +1246,11 @@
       <c r="V12" s="4">
         <v>690.70461</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>5.2617999999999998E-2</v>
       </c>
@@ -1288,9 +1317,9 @@
       <c r="V13" s="2">
         <v>688.11890700000004</v>
       </c>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5.2613E-2</v>
       </c>
@@ -1357,9 +1386,9 @@
       <c r="V14" s="2">
         <v>686.49708099999998</v>
       </c>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.05</v>
       </c>
@@ -1426,9 +1455,9 @@
       <c r="V15" s="1">
         <v>685.64</v>
       </c>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.05</v>
       </c>
@@ -1495,9 +1524,9 @@
       <c r="V16" s="2">
         <v>687.9</v>
       </c>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5.2621000000000001E-2</v>
       </c>
@@ -1564,9 +1593,9 @@
       <c r="V17" s="2">
         <v>687.69276000000002</v>
       </c>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5.2618999999999999E-2</v>
       </c>
@@ -1633,9 +1662,9 @@
       <c r="V18" s="2">
         <v>687.69275900000002</v>
       </c>
-      <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>5.2617999999999998E-2</v>
       </c>
@@ -1702,9 +1731,9 @@
       <c r="V19" s="2">
         <v>687.93378700000005</v>
       </c>
-      <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.05</v>
       </c>
@@ -1771,9 +1800,9 @@
       <c r="V20" s="2">
         <v>690.7</v>
       </c>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.05</v>
       </c>
@@ -1840,9 +1869,9 @@
       <c r="V21" s="2">
         <v>688.6</v>
       </c>
-      <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.05</v>
       </c>
@@ -1909,9 +1938,9 @@
       <c r="V22" s="1">
         <v>687.54</v>
       </c>
-      <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.05</v>
       </c>
@@ -1978,9 +2007,9 @@
       <c r="V23" s="2">
         <v>690.7</v>
       </c>
-      <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.05</v>
       </c>
@@ -2047,9 +2076,9 @@
       <c r="V24" s="2">
         <v>690.7</v>
       </c>
-      <c r="W24" s="9"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.05</v>
       </c>
@@ -2116,10 +2145,10 @@
       <c r="V25" s="1">
         <v>687.09</v>
       </c>
-      <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5.1479999999999998E-2</v>
       </c>
@@ -2186,11 +2215,11 @@
       <c r="V27" s="4">
         <v>717.41967799999998</v>
       </c>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -2257,9 +2286,9 @@
       <c r="V28" s="2">
         <v>703.24273700000003</v>
       </c>
-      <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5.0388000000000002E-2</v>
       </c>
@@ -2326,9 +2355,9 @@
       <c r="V29" s="2">
         <v>687.94140600000003</v>
       </c>
-      <c r="W29" s="9"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>5.1241000000000002E-2</v>
       </c>
@@ -2386,7 +2415,7 @@
       <c r="S30" s="3">
         <v>459.92282799999998</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="9">
         <v>106.733816</v>
       </c>
       <c r="U30" s="7">
@@ -2395,9 +2424,9 @@
       <c r="V30" s="2">
         <v>710.19641100000001</v>
       </c>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>5.0911999999999999E-2</v>
       </c>
@@ -2464,9 +2493,9 @@
       <c r="V31" s="2">
         <v>706.401611</v>
       </c>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>5.1499999999999997E-2</v>
       </c>
@@ -2533,9 +2562,9 @@
       <c r="V32" s="2">
         <v>699.63421600000004</v>
       </c>
-      <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>4.4500999999999999E-2</v>
       </c>
@@ -2602,9 +2631,9 @@
       <c r="V33" s="2">
         <v>700.52093500000001</v>
       </c>
-      <c r="W33" s="9"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>5.1312000000000003E-2</v>
       </c>
@@ -2671,9 +2700,9 @@
       <c r="V34" s="2">
         <v>715.15045199999997</v>
       </c>
-      <c r="W34" s="9"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>5.0408000000000001E-2</v>
       </c>
@@ -2740,9 +2769,9 @@
       <c r="V35" s="2">
         <v>707.70446800000002</v>
       </c>
-      <c r="W35" s="9"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>5.0972000000000003E-2</v>
       </c>
@@ -2809,9 +2838,9 @@
       <c r="V36" s="2">
         <v>702.60620100000006</v>
       </c>
-      <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W36" s="10"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>5.1408000000000002E-2</v>
       </c>
@@ -2878,9 +2907,9 @@
       <c r="V37" s="2">
         <v>706.77069100000006</v>
       </c>
-      <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W37" s="10"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>4.9584999999999997E-2</v>
       </c>
@@ -2947,9 +2976,9 @@
       <c r="V38" s="2">
         <v>691.74273700000003</v>
       </c>
-      <c r="W38" s="9"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>5.0374000000000002E-2</v>
       </c>
@@ -3016,9 +3045,9 @@
       <c r="V39" s="2">
         <v>701.92218000000003</v>
       </c>
-      <c r="W39" s="9"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W39" s="10"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>5.1207000000000003E-2</v>
       </c>
@@ -3085,9 +3114,9 @@
       <c r="V40" s="2">
         <v>709.80765599999995</v>
       </c>
-      <c r="W40" s="9"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W40" s="10"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>5.1392E-2</v>
       </c>
@@ -3154,9 +3183,9 @@
       <c r="V41" s="2">
         <v>690.00891100000001</v>
       </c>
-      <c r="W41" s="9"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W41" s="10"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>5.1175999999999999E-2</v>
       </c>
@@ -3223,9 +3252,9 @@
       <c r="V42" s="2">
         <v>697.94988999999998</v>
       </c>
-      <c r="W42" s="9"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W42" s="10"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>5.1457000000000003E-2</v>
       </c>
@@ -3292,9 +3321,9 @@
       <c r="V43" s="2">
         <v>689.31573500000002</v>
       </c>
-      <c r="W43" s="9"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W43" s="10"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>5.1421000000000001E-2</v>
       </c>
@@ -3361,9 +3390,9 @@
       <c r="V44" s="2">
         <v>704.74652100000003</v>
       </c>
-      <c r="W44" s="9"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W44" s="10"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>3.2703999999999997E-2</v>
       </c>
@@ -3430,9 +3459,9 @@
       <c r="V45" s="2">
         <v>687.88610800000004</v>
       </c>
-      <c r="W45" s="9"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>5.1480999999999999E-2</v>
       </c>
@@ -3487,7 +3516,7 @@
       <c r="R46" s="2">
         <v>83.967684000000006</v>
       </c>
-      <c r="S46" s="10">
+      <c r="S46" s="9">
         <v>484.310092</v>
       </c>
       <c r="T46" s="3">
@@ -3499,9 +3528,9 @@
       <c r="V46" s="2">
         <v>695.050476</v>
       </c>
-      <c r="W46" s="9"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>5.0911999999999999E-2</v>
       </c>
@@ -3556,7 +3585,7 @@
       <c r="R47" s="2">
         <v>83.55</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47" s="9">
         <v>406.98765700000001</v>
       </c>
       <c r="T47" s="3">
@@ -3568,9 +3597,9 @@
       <c r="V47" s="2">
         <v>706.401611</v>
       </c>
-      <c r="W47" s="9"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W47" s="10"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>5.1498000000000002E-2</v>
       </c>
@@ -3628,7 +3657,7 @@
       <c r="S48" s="3">
         <v>460.32694600000002</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="9">
         <v>147.18702200000001</v>
       </c>
       <c r="U48" s="7">
@@ -3637,9 +3666,9 @@
       <c r="V48" s="2">
         <v>693.57818599999996</v>
       </c>
-      <c r="W48" s="9"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W48" s="10"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>5.1480999999999999E-2</v>
       </c>
@@ -3706,14 +3735,6956 @@
       <c r="V49" s="2">
         <v>698.13581499999998</v>
       </c>
-      <c r="W49" s="9"/>
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5.262E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2.4846200000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.7405E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5960679999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.190859</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7.113607</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.114297</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1.3965999999999999E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.16923299999999999</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1.202833</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.45936399999999999</v>
+      </c>
+      <c r="M51" s="2">
+        <v>8.5800000000000004E-4</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.20344699999999999</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.14855199999999999</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1.8821999999999998E-2</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0.15238099999999999</v>
+      </c>
+      <c r="R51" s="2">
+        <v>85.019565999999998</v>
+      </c>
+      <c r="S51" s="3">
+        <v>460.824502</v>
+      </c>
+      <c r="T51" s="3">
+        <v>126.43209400000001</v>
+      </c>
+      <c r="U51" s="7">
+        <v>24</v>
+      </c>
+      <c r="V51" s="4">
+        <v>716.50097700000003</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2.9649999999999999E-2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2.4880580000000001</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.6948000000000001E-2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.5939299999999998</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.190611</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7.3550810000000002</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.12545899999999999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1.5956999999999999E-2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.16944799999999999</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1.1962710000000001</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.24176</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1.647E-3</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.19193399999999999</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.14204600000000001</v>
+      </c>
+      <c r="P52" s="2">
+        <v>4.4886000000000002E-2</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0.142015</v>
+      </c>
+      <c r="R52" s="2">
+        <v>85.054299</v>
+      </c>
+      <c r="S52" s="3">
+        <v>468.69809700000002</v>
+      </c>
+      <c r="T52" s="3">
+        <v>126.476854</v>
+      </c>
+      <c r="U52" s="7">
+        <v>24</v>
+      </c>
+      <c r="V52" s="2">
+        <v>708.34973100000002</v>
+      </c>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>3.6766E-2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2.489916</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2.2772000000000001E-2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.594274</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.19054099999999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7.4272520000000002</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.143955</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1.3703999999999999E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.168548</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.95150999999999997</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.69310799999999995</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1.4859999999999999E-3</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.2077</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.144035</v>
+      </c>
+      <c r="P53" s="2">
+        <v>4.0187E-2</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.20954800000000001</v>
+      </c>
+      <c r="R53" s="2">
+        <v>84.664696000000006</v>
+      </c>
+      <c r="S53" s="3">
+        <v>460.25649800000002</v>
+      </c>
+      <c r="T53" s="3">
+        <v>126.427932</v>
+      </c>
+      <c r="U53" s="7">
+        <v>24</v>
+      </c>
+      <c r="V53" s="2">
+        <v>709.37591599999996</v>
+      </c>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.6641999999999998E-2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3.4846159999999999</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.6774000000000001E-2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.593639</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.19048000000000001</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7.3845359999999998</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.13910500000000001</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1.4368000000000001E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.169324</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1.301261</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.54678099999999996</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1.3649999999999999E-3</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.196078</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.142124</v>
+      </c>
+      <c r="P54" s="2">
+        <v>4.1237999999999997E-2</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0.15631999999999999</v>
+      </c>
+      <c r="R54" s="2">
+        <v>83.565348999999998</v>
+      </c>
+      <c r="S54" s="3">
+        <v>460.68852600000002</v>
+      </c>
+      <c r="T54" s="3">
+        <v>126.363722</v>
+      </c>
+      <c r="U54" s="7">
+        <v>24</v>
+      </c>
+      <c r="V54" s="2">
+        <v>700.21893299999999</v>
+      </c>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>3.9828000000000002E-2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.5048E-2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.5506610000000001</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.28425899999999998</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.7122980000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.19044</v>
+      </c>
+      <c r="G55" s="2">
+        <v>6.9652659999999997</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.12873899999999999</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1.4548E-2</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.169457</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1.1287799999999999</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.50787700000000002</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1.109E-3</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.18804100000000001</v>
+      </c>
+      <c r="O55" s="2">
+        <v>4.3612999999999999E-2</v>
+      </c>
+      <c r="P55" s="2">
+        <v>3.2017999999999998E-2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0.152894</v>
+      </c>
+      <c r="R55" s="2">
+        <v>85.835123999999993</v>
+      </c>
+      <c r="S55" s="3">
+        <v>460.15592600000002</v>
+      </c>
+      <c r="T55" s="3">
+        <v>126.381411</v>
+      </c>
+      <c r="U55" s="7">
+        <v>24</v>
+      </c>
+      <c r="V55" s="2">
+        <v>699.95300299999997</v>
+      </c>
+      <c r="W55" s="10"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4.1589000000000001E-2</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2.4873690000000002</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.5952000000000002</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.190695</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7.2412260000000002</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.13168099999999999</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1.3783999999999999E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.16891200000000001</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1.1223529999999999</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.54858399999999996</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1.1739999999999999E-3</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.19820599999999999</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0.15026900000000001</v>
+      </c>
+      <c r="P56" s="2">
+        <v>2.9108999999999999E-2</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0.19108600000000001</v>
+      </c>
+      <c r="R56" s="2">
+        <v>84.834160999999995</v>
+      </c>
+      <c r="S56" s="3">
+        <v>460.49073199999998</v>
+      </c>
+      <c r="T56" s="3">
+        <v>126.430378</v>
+      </c>
+      <c r="U56" s="7">
+        <v>24</v>
+      </c>
+      <c r="V56" s="2">
+        <v>713.81341599999996</v>
+      </c>
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4.0716000000000002E-2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.4141999999999999E-2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.4937740000000002</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3.1607000000000003E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3.429484</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.18610099999999999</v>
+      </c>
+      <c r="G57" s="2">
+        <v>7.3676570000000003</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.131494</v>
+      </c>
+      <c r="I57" s="2">
+        <v>7.6480000000000003E-3</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.18756500000000001</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1.1893469999999999</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.57359499999999997</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1.235E-3</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.14590600000000001</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0.10503999999999999</v>
+      </c>
+      <c r="P57" s="2">
+        <v>6.6267000000000006E-2</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>8.5222999999999993E-2</v>
+      </c>
+      <c r="R57" s="2">
+        <v>83.923197999999999</v>
+      </c>
+      <c r="S57" s="3">
+        <v>455.76649800000001</v>
+      </c>
+      <c r="T57" s="3">
+        <v>123.01005499999999</v>
+      </c>
+      <c r="U57" s="7">
+        <v>24</v>
+      </c>
+      <c r="V57" s="2">
+        <v>704.952271</v>
+      </c>
+      <c r="W57" s="10"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>8.3359999999999997E-3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.3217E-2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2.3438050000000001</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2.3880999999999999E-2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.5941239999999999</v>
+      </c>
+      <c r="F58" s="4">
+        <v>6.3694000000000001E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <v>7.6302760000000003</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.12320299999999999</v>
+      </c>
+      <c r="I58" s="2">
+        <v>9.7889000000000004E-2</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.17566699999999999</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.98941800000000002</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.140734</v>
+      </c>
+      <c r="M58" s="2">
+        <v>7.1900000000000002E-4</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.17704</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.27198299999999997</v>
+      </c>
+      <c r="P58" s="2">
+        <v>7.8241000000000005E-2</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0.14602100000000001</v>
+      </c>
+      <c r="R58" s="2">
+        <v>85.081750999999997</v>
+      </c>
+      <c r="S58" s="3">
+        <v>464.202855</v>
+      </c>
+      <c r="T58" s="3">
+        <v>126.406795</v>
+      </c>
+      <c r="U58" s="7">
+        <v>24</v>
+      </c>
+      <c r="V58" s="2">
+        <v>698.66876200000002</v>
+      </c>
+      <c r="W58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>7.7939999999999997E-3</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2.478599</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5.8695999999999998E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.7549589999999999</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.190055</v>
+      </c>
+      <c r="G59" s="4">
+        <v>8.4497049999999998</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.132966</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.6819999999999999E-3</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.16868</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1.197954</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.40531299999999998</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1.0640000000000001E-3</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.16944899999999999</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="P59" s="2">
+        <v>8.6578000000000002E-2</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0.139013</v>
+      </c>
+      <c r="R59" s="2">
+        <v>83.581992999999997</v>
+      </c>
+      <c r="S59" s="3">
+        <v>462.63487800000001</v>
+      </c>
+      <c r="T59" s="3">
+        <v>126.433998</v>
+      </c>
+      <c r="U59" s="7">
+        <v>23</v>
+      </c>
+      <c r="V59" s="2">
+        <v>697.43650100000002</v>
+      </c>
+      <c r="W59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>4.1596000000000001E-2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.5114000000000003E-2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2.4899</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.7513999999999998E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.5941519999999998</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.190554</v>
+      </c>
+      <c r="G60" s="2">
+        <v>7.3366090000000002</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.14021800000000001</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.49040099999999998</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.16935800000000001</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1.2017880000000001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.406387</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1.3309999999999999E-3</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.189111</v>
+      </c>
+      <c r="O60" s="2">
+        <v>8.8505E-2</v>
+      </c>
+      <c r="P60" s="2">
+        <v>3.1199000000000001E-2</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.120146</v>
+      </c>
+      <c r="R60" s="2">
+        <v>84.436116999999996</v>
+      </c>
+      <c r="S60" s="3">
+        <v>461.01761199999999</v>
+      </c>
+      <c r="T60" s="3">
+        <v>126.43516700000001</v>
+      </c>
+      <c r="U60" s="7">
+        <v>24</v>
+      </c>
+      <c r="V60" s="2">
+        <v>713.85064699999998</v>
+      </c>
+      <c r="W60" s="10"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.2288000000000001E-2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2.4886210000000002</v>
+      </c>
+      <c r="D61" s="2">
+        <v>8.6622000000000005E-2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.5940379999999998</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.19057199999999999</v>
+      </c>
+      <c r="G61" s="2">
+        <v>7.2479019999999998</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.12486700000000001</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.4496E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.16930899999999999</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.52218100000000001</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.37148799999999998</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1.3370000000000001E-3</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.18414800000000001</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.10155</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0.129441</v>
+      </c>
+      <c r="R61" s="2">
+        <v>85.721141000000003</v>
+      </c>
+      <c r="S61" s="3">
+        <v>461.35053099999999</v>
+      </c>
+      <c r="T61" s="3">
+        <v>126.447596</v>
+      </c>
+      <c r="U61" s="7">
+        <v>22</v>
+      </c>
+      <c r="V61" s="2">
+        <v>703.96907199999998</v>
+      </c>
+      <c r="W61" s="10"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>4.1660999999999997E-2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>7.2025000000000006E-2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2.490202</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.6181999999999998E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.5943049999999999</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.190445</v>
+      </c>
+      <c r="G62" s="2">
+        <v>7.3767240000000003</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.14265600000000001</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.4033E-2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.16762199999999999</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1.2009289999999999</v>
+      </c>
+      <c r="L62" s="4">
+        <v>5.6751999999999997E-2</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1.351E-3</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.1938</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0.15037600000000001</v>
+      </c>
+      <c r="P62" s="2">
+        <v>3.7782999999999997E-2</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0.14325199999999999</v>
+      </c>
+      <c r="R62" s="2">
+        <v>85.109902000000005</v>
+      </c>
+      <c r="S62" s="3">
+        <v>460.43803500000001</v>
+      </c>
+      <c r="T62" s="3">
+        <v>126.44143200000001</v>
+      </c>
+      <c r="U62" s="7">
+        <v>24</v>
+      </c>
+      <c r="V62" s="2">
+        <v>704.51916500000004</v>
+      </c>
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4.129E-2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.3011000000000003E-2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.4904839999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.7413000000000001E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.5936210000000002</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.19056400000000001</v>
+      </c>
+      <c r="G63" s="2">
+        <v>7.169613</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.127389</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1.4378E-2</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.16928499999999999</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1.1974929999999999</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.57111500000000004</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.192909</v>
+      </c>
+      <c r="O63" s="4">
+        <v>3.4764999999999997E-2</v>
+      </c>
+      <c r="P63" s="2">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0.102213</v>
+      </c>
+      <c r="R63" s="2">
+        <v>85.026420999999999</v>
+      </c>
+      <c r="S63" s="3">
+        <v>460.52657599999998</v>
+      </c>
+      <c r="T63" s="3">
+        <v>126.412431</v>
+      </c>
+      <c r="U63" s="7">
+        <v>24</v>
+      </c>
+      <c r="V63" s="2">
+        <v>716.50097700000003</v>
+      </c>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5.5065000000000003E-2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.489906</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.6511999999999999E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2.5949610000000001</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.19092300000000001</v>
+      </c>
+      <c r="G64" s="2">
+        <v>7.2483079999999998</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.13154299999999999</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.32212800000000003</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.294908</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1.205506</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.32556299999999999</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1.4139999999999999E-3</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.21324299999999999</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0.15371599999999999</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0.17527000000000001</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.115624</v>
+      </c>
+      <c r="R64" s="2">
+        <v>84.465411000000003</v>
+      </c>
+      <c r="S64" s="3">
+        <v>460.11022200000002</v>
+      </c>
+      <c r="T64" s="3">
+        <v>126.476528</v>
+      </c>
+      <c r="U64" s="7">
+        <v>24</v>
+      </c>
+      <c r="V64" s="2">
+        <v>704.24328600000001</v>
+      </c>
+      <c r="W64" s="10"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>3.8925000000000001E-2</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5.3619E-2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2.499565</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.9907999999999999E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.5986020000000001</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.19075600000000001</v>
+      </c>
+      <c r="G65" s="2">
+        <v>7.5555110000000001</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.13702500000000001</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.4543E-2</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.168296</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1.1996640000000001</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.63164900000000002</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1.335E-3</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.18993399999999999</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.118691</v>
+      </c>
+      <c r="P65" s="2">
+        <v>2.2398000000000001E-2</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>9.5465999999999995E-2</v>
+      </c>
+      <c r="R65" s="2">
+        <v>84.464112999999998</v>
+      </c>
+      <c r="S65" s="9">
+        <v>490.45349599999997</v>
+      </c>
+      <c r="T65" s="3">
+        <v>126.444957</v>
+      </c>
+      <c r="U65" s="7">
+        <v>24</v>
+      </c>
+      <c r="V65" s="2">
+        <v>706.29663100000005</v>
+      </c>
+      <c r="W65" s="10"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>4.0598000000000002E-2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.8472000000000001E-2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2.3977909999999998</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.611872</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.112077</v>
+      </c>
+      <c r="G66" s="2">
+        <v>7.4786229999999998</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.12614</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.0633E-2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.18721199999999999</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1.2074910000000001</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.46279399999999998</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1.1050000000000001E-3</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.200711</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.12614</v>
+      </c>
+      <c r="P66" s="2">
+        <v>4.6323999999999997E-2</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0.113298</v>
+      </c>
+      <c r="R66" s="2">
+        <v>84.828716999999997</v>
+      </c>
+      <c r="S66" s="9">
+        <v>425.997005</v>
+      </c>
+      <c r="T66" s="3">
+        <v>124.695936</v>
+      </c>
+      <c r="U66" s="7">
+        <v>24</v>
+      </c>
+      <c r="V66" s="2">
+        <v>695.96942100000001</v>
+      </c>
+      <c r="W66" s="10"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1.1827000000000001E-2</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5.3782000000000003E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2.4858799999999999</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.7586000000000001E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3.0938729999999999</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.19064600000000001</v>
+      </c>
+      <c r="G67" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.12959499999999999</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1.423E-2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.22845599999999999</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1.200496</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.46127499999999999</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1.616E-3</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.19381699999999999</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0.102212</v>
+      </c>
+      <c r="P67" s="2">
+        <v>2.8407999999999999E-2</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.18057699999999999</v>
+      </c>
+      <c r="R67" s="2">
+        <v>84.385723999999996</v>
+      </c>
+      <c r="S67" s="3">
+        <v>459.34028699999999</v>
+      </c>
+      <c r="T67" s="9">
+        <v>111.11808499999999</v>
+      </c>
+      <c r="U67" s="7">
+        <v>24</v>
+      </c>
+      <c r="V67" s="2">
+        <v>701.42517099999998</v>
+      </c>
+      <c r="W67" s="10"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5.6655999999999998E-2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2.4902259999999998</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.7838E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.5942889999999998</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.190523</v>
+      </c>
+      <c r="G68" s="2">
+        <v>7.3675879999999996</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.15595700000000001</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.434E-2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.16936499999999999</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1.2040709999999999</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.52985000000000004</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1.3669999999999999E-3</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0.192388</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0.14035900000000001</v>
+      </c>
+      <c r="P68" s="2">
+        <v>4.4282000000000002E-2</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0.16209899999999999</v>
+      </c>
+      <c r="R68" s="2">
+        <v>84.668802999999997</v>
+      </c>
+      <c r="S68" s="3">
+        <v>461.28051099999999</v>
+      </c>
+      <c r="T68" s="3">
+        <v>126.42160699999999</v>
+      </c>
+      <c r="U68" s="8">
+        <v>21</v>
+      </c>
+      <c r="V68" s="2">
+        <v>702.95849099999998</v>
+      </c>
+      <c r="W68" s="10"/>
+    </row>
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5.1232E-2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2.4579309999999999</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.2633E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2.5886689999999999</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.19035299999999999</v>
+      </c>
+      <c r="G70" s="2">
+        <v>7.35982</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.13728099999999999</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1.3173000000000001E-2</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.16178300000000001</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1.225155</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.17521500000000001</v>
+      </c>
+      <c r="M70" s="2">
+        <v>7.0399999999999998E-4</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.179956</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.105936</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.17144499999999999</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0.16534699999999999</v>
+      </c>
+      <c r="R70" s="2">
+        <v>84.952821</v>
+      </c>
+      <c r="S70" s="3">
+        <v>460.47576199999997</v>
+      </c>
+      <c r="T70" s="3">
+        <v>127.65687200000001</v>
+      </c>
+      <c r="U70" s="7">
+        <v>24</v>
+      </c>
+      <c r="V70" s="4">
+        <v>717.41967799999998</v>
+      </c>
+      <c r="W70" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5.1422000000000002E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2.4574850000000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.2633999999999999E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2.5900780000000001</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.19034999999999999</v>
+      </c>
+      <c r="G71" s="2">
+        <v>7.3115220000000001</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.145403</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1.6580000000000001E-2</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.16201199999999999</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1.209157</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.109968</v>
+      </c>
+      <c r="M71" s="2">
+        <v>6.2299999999999996E-4</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.120821</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0.26542199999999999</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.15617300000000001</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.106518</v>
+      </c>
+      <c r="R71" s="2">
+        <v>85.093834999999999</v>
+      </c>
+      <c r="S71" s="3">
+        <v>461.810947</v>
+      </c>
+      <c r="T71" s="3">
+        <v>127.6786</v>
+      </c>
+      <c r="U71" s="7">
+        <v>24</v>
+      </c>
+      <c r="V71" s="2">
+        <v>709.86871299999996</v>
+      </c>
+      <c r="W71" s="10"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2.464537</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2.5889989999999998</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.123805</v>
+      </c>
+      <c r="G72" s="2">
+        <v>7.3583730000000003</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.14702399999999999</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1.3181E-2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.16242599999999999</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1.2215069999999999</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.29587000000000002</v>
+      </c>
+      <c r="M72" s="2">
+        <v>6.5600000000000001E-4</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.18024200000000001</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0.10528800000000001</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.19281799999999999</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.160188</v>
+      </c>
+      <c r="R72" s="2">
+        <v>84.934540999999996</v>
+      </c>
+      <c r="S72" s="3">
+        <v>461.60482100000002</v>
+      </c>
+      <c r="T72" s="3">
+        <v>127.67653199999999</v>
+      </c>
+      <c r="U72" s="7">
+        <v>24</v>
+      </c>
+      <c r="V72" s="2">
+        <v>708.22674600000005</v>
+      </c>
+      <c r="W72" s="10"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5.0777999999999997E-2</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3.4661379999999999</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.2430999999999999E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.5975000000000001</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.19033</v>
+      </c>
+      <c r="G73" s="2">
+        <v>7.18546</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.134741</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1.3439E-2</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.16287599999999999</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1.224766</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.28167300000000001</v>
+      </c>
+      <c r="M73" s="2">
+        <v>6.5200000000000002E-4</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.16353999999999999</v>
+      </c>
+      <c r="O73" s="2">
+        <v>9.4523999999999997E-2</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.15620400000000001</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.16448299999999999</v>
+      </c>
+      <c r="R73" s="2">
+        <v>84.100465999999997</v>
+      </c>
+      <c r="S73" s="3">
+        <v>460.67654199999998</v>
+      </c>
+      <c r="T73" s="3">
+        <v>127.444452</v>
+      </c>
+      <c r="U73" s="7">
+        <v>24</v>
+      </c>
+      <c r="V73" s="2">
+        <v>704.65362500000003</v>
+      </c>
+      <c r="W73" s="10"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>4.4232E-2</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4.9007000000000002E-2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1.219322</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.12581000000000001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.5868720000000001</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.19219700000000001</v>
+      </c>
+      <c r="G74" s="2">
+        <v>7.2261939999999996</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.143786</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.117466</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.166655</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1.226137</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.19356300000000001</v>
+      </c>
+      <c r="M74" s="2">
+        <v>8.4699999999999999E-4</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.18015200000000001</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.11548700000000001</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.161021</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0.12939500000000001</v>
+      </c>
+      <c r="R74" s="2">
+        <v>86.121858000000003</v>
+      </c>
+      <c r="S74" s="3">
+        <v>461.99380400000001</v>
+      </c>
+      <c r="T74" s="3">
+        <v>125.779167</v>
+      </c>
+      <c r="U74" s="7">
+        <v>24</v>
+      </c>
+      <c r="V74" s="2">
+        <v>700.92334000000005</v>
+      </c>
+      <c r="W74" s="10"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>4.0743000000000001E-2</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5.1071999999999999E-2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.4970870000000001</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.23394999999999999</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5991499999999998</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.19029099999999999</v>
+      </c>
+      <c r="G75" s="2">
+        <v>7.2266839999999997</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.142929</v>
+      </c>
+      <c r="I75" s="2">
+        <v>4.1089000000000001E-2</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.161828</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1.2382010000000001</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.21160699999999999</v>
+      </c>
+      <c r="M75" s="2">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.16336600000000001</v>
+      </c>
+      <c r="O75" s="2">
+        <v>9.5594999999999999E-2</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.15598899999999999</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0.151812</v>
+      </c>
+      <c r="R75" s="2">
+        <v>85.798002999999994</v>
+      </c>
+      <c r="S75" s="3">
+        <v>460.58707800000002</v>
+      </c>
+      <c r="T75" s="3">
+        <v>127.61410600000001</v>
+      </c>
+      <c r="U75" s="8">
+        <v>20.054777000000001</v>
+      </c>
+      <c r="V75" s="2">
+        <v>698.89419299999997</v>
+      </c>
+      <c r="W75" s="10"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5.1312999999999998E-2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2.4576639999999998</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4.0464E-2</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3.2181670000000002</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.19034999999999999</v>
+      </c>
+      <c r="G76" s="2">
+        <v>7.5063060000000004</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.14644799999999999</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1.5162999999999999E-2</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.16192000000000001</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1.2126300000000001</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.14849100000000001</v>
+      </c>
+      <c r="M76" s="2">
+        <v>2.34E-4</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0.17080400000000001</v>
+      </c>
+      <c r="O76" s="2">
+        <v>9.1320999999999999E-2</v>
+      </c>
+      <c r="P76" s="4">
+        <v>3.3478000000000001E-2</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0.13788300000000001</v>
+      </c>
+      <c r="R76" s="2">
+        <v>84.366820000000004</v>
+      </c>
+      <c r="S76" s="3">
+        <v>460.455939</v>
+      </c>
+      <c r="T76" s="3">
+        <v>127.669466</v>
+      </c>
+      <c r="U76" s="7">
+        <v>23.783491000000001</v>
+      </c>
+      <c r="V76" s="2">
+        <v>710.26479200000006</v>
+      </c>
+      <c r="W76" s="10"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5.1230999999999999E-2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2.458037</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.5740810000000001</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3.4991000000000001E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>7.3597970000000004</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.14011899999999999</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.3173000000000001E-2</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.17402400000000001</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1.2250570000000001</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0.13591200000000001</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1.08E-3</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.17661199999999999</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0.10596899999999999</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.165801</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0.11212900000000001</v>
+      </c>
+      <c r="R77" s="2">
+        <v>85.271986999999996</v>
+      </c>
+      <c r="S77" s="3">
+        <v>462.88994600000001</v>
+      </c>
+      <c r="T77" s="3">
+        <v>127.65719199999999</v>
+      </c>
+      <c r="U77" s="7">
+        <v>23.019469999999998</v>
+      </c>
+      <c r="V77" s="2">
+        <v>700.044715</v>
+      </c>
+      <c r="W77" s="10"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2.4583650000000001</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.2654E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.6584120000000002</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.190355</v>
+      </c>
+      <c r="G78" s="4">
+        <v>8.4084579999999995</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.15059800000000001</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.39186799999999999</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.15667500000000001</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1.122217</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0.183476</v>
+      </c>
+      <c r="M78" s="2">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.168405</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.10581400000000001</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.110883</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0.11984499999999999</v>
+      </c>
+      <c r="R78" s="2">
+        <v>83.710819000000001</v>
+      </c>
+      <c r="S78" s="9">
+        <v>431.99744500000003</v>
+      </c>
+      <c r="T78" s="3">
+        <v>127.65820600000001</v>
+      </c>
+      <c r="U78" s="7">
+        <v>23.944679000000001</v>
+      </c>
+      <c r="V78" s="2">
+        <v>702.36572799999999</v>
+      </c>
+      <c r="W78" s="10"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4.9534000000000002E-2</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4.2021000000000003E-2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2.4573589999999998</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2.003E-3</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2.5904389999999999</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.189913</v>
+      </c>
+      <c r="G79" s="2">
+        <v>7.3228989999999996</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.161578</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1.222003</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.150952</v>
+      </c>
+      <c r="M79" s="2">
+        <v>9.6599999999999995E-4</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0.16201499999999999</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.119425</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.157579</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0.16419600000000001</v>
+      </c>
+      <c r="R79" s="2">
+        <v>85.049119000000005</v>
+      </c>
+      <c r="S79" s="3">
+        <v>432.86150400000002</v>
+      </c>
+      <c r="T79" s="3">
+        <v>127.654405</v>
+      </c>
+      <c r="U79" s="7">
+        <v>24</v>
+      </c>
+      <c r="V79" s="2">
+        <v>712.46575900000005</v>
+      </c>
+      <c r="W79" s="10"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>3.9503999999999997E-2</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2.7129E-2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2.4832429999999999</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.0117E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2.5844969999999998</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.18575700000000001</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7.3411</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.13292100000000001</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.16270799999999999</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1.7569809999999999</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.45927099999999998</v>
+      </c>
+      <c r="M80" s="2">
+        <v>5.7300000000000005E-4</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.20567199999999999</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0.10517899999999999</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.15393999999999999</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0.218941</v>
+      </c>
+      <c r="R80" s="2">
+        <v>84.102467000000004</v>
+      </c>
+      <c r="S80" s="3">
+        <v>461.38485800000001</v>
+      </c>
+      <c r="T80" s="3">
+        <v>123.10388500000001</v>
+      </c>
+      <c r="U80" s="7">
+        <v>24</v>
+      </c>
+      <c r="V80" s="2">
+        <v>704.19219999999996</v>
+      </c>
+      <c r="W80" s="10"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>4.9522999999999998E-2</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2.4548E-2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2.411915</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.118947</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2.590462</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6.4185000000000006E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>7.5276430000000003</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.148455</v>
+      </c>
+      <c r="I81" s="2">
+        <v>4.6011000000000003E-2</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.157467</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0.63246199999999997</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.15220600000000001</v>
+      </c>
+      <c r="M81" s="2">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.25354199999999999</v>
+      </c>
+      <c r="O81" s="2">
+        <v>9.5363000000000003E-2</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.158801</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0.191575</v>
+      </c>
+      <c r="R81" s="2">
+        <v>85.376164000000003</v>
+      </c>
+      <c r="S81" s="3">
+        <v>447.77708000000001</v>
+      </c>
+      <c r="T81" s="3">
+        <v>127.65731599999999</v>
+      </c>
+      <c r="U81" s="7">
+        <v>24</v>
+      </c>
+      <c r="V81" s="2">
+        <v>700.16937299999995</v>
+      </c>
+      <c r="W81" s="10"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>4.9949E-2</v>
+      </c>
+      <c r="B82" s="2">
+        <v>5.0210999999999999E-2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2.468537</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.0873000000000001E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2.62669</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.19024099999999999</v>
+      </c>
+      <c r="G82" s="2">
+        <v>7.3325500000000003</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.134574</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0.161879</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.166961</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1.2245619999999999</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.56998499999999996</v>
+      </c>
+      <c r="M82" s="2">
+        <v>6.1499999999999999E-4</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.17438699999999999</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.15048400000000001</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.120036</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0.14213200000000001</v>
+      </c>
+      <c r="R82" s="2">
+        <v>84.425332999999995</v>
+      </c>
+      <c r="S82" s="3">
+        <v>458.06940200000003</v>
+      </c>
+      <c r="T82" s="3">
+        <v>126.64483</v>
+      </c>
+      <c r="U82" s="7">
+        <v>24</v>
+      </c>
+      <c r="V82" s="2">
+        <v>710.47058100000004</v>
+      </c>
+      <c r="W82" s="10"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4.7293000000000002E-2</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2.3413E-2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2.4578449999999998</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2.5911170000000001</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.18893799999999999</v>
+      </c>
+      <c r="G83" s="2">
+        <v>7.2528360000000003</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.13916799999999999</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1.4770999999999999E-2</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.17364299999999999</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1.2156910000000001</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.180809</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.15148500000000001</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.16305</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0.18234300000000001</v>
+      </c>
+      <c r="R83" s="2">
+        <v>85.217187999999993</v>
+      </c>
+      <c r="S83" s="3">
+        <v>460.728478</v>
+      </c>
+      <c r="T83" s="3">
+        <v>127.657747</v>
+      </c>
+      <c r="U83" s="7">
+        <v>24</v>
+      </c>
+      <c r="V83" s="2">
+        <v>711.63262899999995</v>
+      </c>
+      <c r="W83" s="10"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5.1166999999999997E-2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1.428274</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.2688E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2.5902020000000001</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.19035299999999999</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6.9303619999999997</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.141457</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1.3174E-2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.16183600000000001</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1.378433</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.50754200000000005</v>
+      </c>
+      <c r="M84" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0.161442</v>
+      </c>
+      <c r="O84" s="4">
+        <v>3.4396999999999997E-2</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.154334</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0.13914299999999999</v>
+      </c>
+      <c r="R84" s="2">
+        <v>86.054627999999994</v>
+      </c>
+      <c r="S84" s="3">
+        <v>460.66601200000002</v>
+      </c>
+      <c r="T84" s="3">
+        <v>127.659823</v>
+      </c>
+      <c r="U84" s="7">
+        <v>24</v>
+      </c>
+      <c r="V84" s="2">
+        <v>708.76196300000004</v>
+      </c>
+      <c r="W84" s="10"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4.8791000000000001E-2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2.5583879999999999</v>
+      </c>
+      <c r="D85" s="2">
+        <v>8.4952E-2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.8877760000000001</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.13236200000000001</v>
+      </c>
+      <c r="G85" s="2">
+        <v>7.3490630000000001</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.14698600000000001</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.16678399999999999</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1.1637789999999999</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.28106500000000001</v>
+      </c>
+      <c r="M85" s="2">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.168433</v>
+      </c>
+      <c r="O85" s="2">
+        <v>9.7044000000000005E-2</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0.35582999999999998</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0.13770099999999999</v>
+      </c>
+      <c r="R85" s="2">
+        <v>84.420128000000005</v>
+      </c>
+      <c r="S85" s="3">
+        <v>461.01454100000001</v>
+      </c>
+      <c r="T85" s="3">
+        <v>127.669449</v>
+      </c>
+      <c r="U85" s="7">
+        <v>22.427710999999999</v>
+      </c>
+      <c r="V85" s="2">
+        <v>697.04105100000004</v>
+      </c>
+      <c r="W85" s="10"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5.1232E-2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2.4579930000000001</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5.2189999999999997E-3</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2.58019</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.19035299999999999</v>
+      </c>
+      <c r="G86" s="2">
+        <v>7.359807</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.13922200000000001</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.3173000000000001E-2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.16896700000000001</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.225087</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0.13336700000000001</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1.0039999999999999E-3</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0.177149</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0.10596700000000001</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0.26907999999999999</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0.15969</v>
+      </c>
+      <c r="R86" s="2">
+        <v>84.962501000000003</v>
+      </c>
+      <c r="S86" s="9">
+        <v>475.431445</v>
+      </c>
+      <c r="T86" s="3">
+        <v>127.65706299999999</v>
+      </c>
+      <c r="U86" s="7">
+        <v>24</v>
+      </c>
+      <c r="V86" s="2">
+        <v>700.30865500000004</v>
+      </c>
+      <c r="W86" s="10"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>4.1648999999999999E-2</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4.7253999999999997E-2</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2.4569320000000001</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.111205</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2.3833839999999999</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.182977</v>
+      </c>
+      <c r="G87" s="2">
+        <v>7.1789160000000001</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.14155400000000001</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1.7113E-2</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.17353499999999999</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.1755930000000001</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0.16705100000000001</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0.107228</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0.16352</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0.16021099999999999</v>
+      </c>
+      <c r="R87" s="2">
+        <v>85.491533000000004</v>
+      </c>
+      <c r="S87" s="3">
+        <v>439.527288</v>
+      </c>
+      <c r="T87" s="9">
+        <v>101.479457</v>
+      </c>
+      <c r="U87" s="7">
+        <v>24</v>
+      </c>
+      <c r="V87" s="2">
+        <v>701.07653800000003</v>
+      </c>
+      <c r="W87" s="10"/>
+    </row>
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>5.1276000000000002E-2</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5.4776999999999999E-2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2.5506880000000001</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.5649E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2.590328</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.19067400000000001</v>
+      </c>
+      <c r="G89" s="2">
+        <v>7.1599269999999997</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.14957699999999999</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1.6670999999999998E-2</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.16475799999999999</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.1918770000000001</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0.72975199999999996</v>
+      </c>
+      <c r="M89" s="2">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.20979500000000001</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0.109944</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0.27506199999999997</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0.43692500000000001</v>
+      </c>
+      <c r="R89" s="2">
+        <v>84.101793999999998</v>
+      </c>
+      <c r="S89" s="3">
+        <v>462.06786899999997</v>
+      </c>
+      <c r="T89" s="3">
+        <v>124.636095</v>
+      </c>
+      <c r="U89" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="V89" s="4">
+        <v>717.42202799999995</v>
+      </c>
+      <c r="W89" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2.5374379999999999</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2.5809310000000001</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.19006899999999999</v>
+      </c>
+      <c r="G90" s="2">
+        <v>7.1703669999999997</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.14674100000000001</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.406808</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.16465299999999999</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1.184391</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.88123300000000004</v>
+      </c>
+      <c r="M90" s="2">
+        <v>4.08E-4</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0.23308599999999999</v>
+      </c>
+      <c r="O90" s="2">
+        <v>8.7327000000000002E-2</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0.27551300000000001</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0.53673599999999999</v>
+      </c>
+      <c r="R90" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S90" s="3">
+        <v>452.24628899999999</v>
+      </c>
+      <c r="T90" s="3">
+        <v>125.420175</v>
+      </c>
+      <c r="U90" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="V90" s="2">
+        <v>705.59442899999999</v>
+      </c>
+      <c r="W90" s="10"/>
+    </row>
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>5.1213000000000002E-2</v>
+      </c>
+      <c r="B91" s="4">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2.5442170000000002</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.6879999999999999E-2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2.5912890000000002</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.19053899999999999</v>
+      </c>
+      <c r="G91" s="2">
+        <v>7.1762069999999998</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.14583499999999999</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1.7801999999999998E-2</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.16505900000000001</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1.192399</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0.71694999999999998</v>
+      </c>
+      <c r="M91" s="2">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0.23555499999999999</v>
+      </c>
+      <c r="O91" s="2">
+        <v>2.1082E-2</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0.28231800000000001</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0.53389799999999998</v>
+      </c>
+      <c r="R91" s="2">
+        <v>84.117998</v>
+      </c>
+      <c r="S91" s="3">
+        <v>461.74449800000002</v>
+      </c>
+      <c r="T91" s="3">
+        <v>125.48419800000001</v>
+      </c>
+      <c r="U91" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="V91" s="2">
+        <v>714.15695700000003</v>
+      </c>
+      <c r="W91" s="10"/>
+    </row>
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>4.3701999999999998E-2</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.30712099999999998</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2.4734280000000002</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2.635621</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.18545700000000001</v>
+      </c>
+      <c r="G92" s="2">
+        <v>7.29976</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.131134</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.165904</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1.1325590000000001</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.42721599999999998</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0.20336599999999999</v>
+      </c>
+      <c r="O92" s="2">
+        <v>8.9677999999999994E-2</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0.27906799999999998</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0.51225100000000001</v>
+      </c>
+      <c r="R92" s="2">
+        <v>84.097327000000007</v>
+      </c>
+      <c r="S92" s="3">
+        <v>453.95763799999997</v>
+      </c>
+      <c r="T92" s="3">
+        <v>123.64386399999999</v>
+      </c>
+      <c r="U92" s="7">
+        <v>29</v>
+      </c>
+      <c r="V92" s="2">
+        <v>689.08734900000002</v>
+      </c>
+      <c r="W92" s="10"/>
+    </row>
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>5.0992000000000003E-2</v>
+      </c>
+      <c r="B93" s="2">
+        <v>5.4342000000000001E-2</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1.4185049999999999</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2.5868630000000001</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.190472</v>
+      </c>
+      <c r="G93" s="2">
+        <v>7.2215499999999997</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.39624300000000001</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.15784999999999999</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1.2029730000000001</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.73589899999999997</v>
+      </c>
+      <c r="M93" s="2">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="O93" s="2">
+        <v>7.4408000000000002E-2</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0.27765800000000002</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0.54629300000000003</v>
+      </c>
+      <c r="R93" s="2">
+        <v>84.694159999999997</v>
+      </c>
+      <c r="S93" s="3">
+        <v>461.50621699999999</v>
+      </c>
+      <c r="T93" s="3">
+        <v>124.483244</v>
+      </c>
+      <c r="U93" s="7">
+        <v>28</v>
+      </c>
+      <c r="V93" s="2">
+        <v>705.87248299999999</v>
+      </c>
+      <c r="W93" s="10"/>
+    </row>
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>4.9015999999999997E-2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5.1526000000000002E-2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3.742356</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.2289E-2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2.5924299999999998</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.182563</v>
+      </c>
+      <c r="G94" s="2">
+        <v>6.8863490000000001</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.14099</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.139318</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1.008424</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.69653799999999999</v>
+      </c>
+      <c r="M94" s="2">
+        <v>7.0600000000000003E-4</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0.163829</v>
+      </c>
+      <c r="O94" s="2">
+        <v>3.7617999999999999E-2</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0.27985599999999999</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0.452712</v>
+      </c>
+      <c r="R94" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S94" s="3">
+        <v>466.57198399999999</v>
+      </c>
+      <c r="T94" s="3">
+        <v>124.61261</v>
+      </c>
+      <c r="U94" s="7">
+        <v>28</v>
+      </c>
+      <c r="V94" s="2">
+        <v>689.33830399999999</v>
+      </c>
+      <c r="W94" s="10"/>
+    </row>
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>5.1111999999999998E-2</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2.3932190000000002</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.137767</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2.6945459999999999</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.19278799999999999</v>
+      </c>
+      <c r="G95" s="2">
+        <v>7.1808620000000003</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.14779900000000001</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1.5379E-2</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.213057</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1.1596420000000001</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.53416399999999997</v>
+      </c>
+      <c r="M95" s="2">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0.2344</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.28266200000000002</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0.35794399999999998</v>
+      </c>
+      <c r="R95" s="2">
+        <v>84.404623000000001</v>
+      </c>
+      <c r="S95" s="3">
+        <v>462.11550599999998</v>
+      </c>
+      <c r="T95" s="3">
+        <v>124.676078</v>
+      </c>
+      <c r="U95" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="V95" s="2">
+        <v>701.13791900000001</v>
+      </c>
+      <c r="W95" s="10"/>
+    </row>
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>5.1229999999999998E-2</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5.5129999999999998E-2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2.5542720000000001</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.4484E-2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3.1092900000000001</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.190772</v>
+      </c>
+      <c r="G96" s="2">
+        <v>6.957192</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.146205</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1.5414000000000001E-2</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.16608899999999999</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1.1136779999999999</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.720947</v>
+      </c>
+      <c r="M96" s="2">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="N96" s="4">
+        <v>9.1282000000000002E-2</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0.18045</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0.26166899999999998</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R96" s="2">
+        <v>83.821541999999994</v>
+      </c>
+      <c r="S96" s="3">
+        <v>462.37165599999997</v>
+      </c>
+      <c r="T96" s="3">
+        <v>125.578777</v>
+      </c>
+      <c r="U96" s="7">
+        <v>28</v>
+      </c>
+      <c r="V96" s="2">
+        <v>708.05992200000003</v>
+      </c>
+      <c r="W96" s="10"/>
+    </row>
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>4.8773999999999998E-2</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5.2503000000000001E-2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2.4223270000000001</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.4107E-2</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2.4598360000000001</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.18116199999999999</v>
+      </c>
+      <c r="G97" s="4">
+        <v>8.0737520000000007</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.13042300000000001</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1.4090999999999999E-2</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.156248</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1.1366259999999999</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.69734700000000005</v>
+      </c>
+      <c r="M97" s="2">
+        <v>5.22E-4</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0.22319800000000001</v>
+      </c>
+      <c r="O97" s="2">
+        <v>8.3141999999999994E-2</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0.27837600000000001</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0.47756599999999999</v>
+      </c>
+      <c r="R97" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S97" s="3">
+        <v>462.06796500000002</v>
+      </c>
+      <c r="T97" s="3">
+        <v>124.74138000000001</v>
+      </c>
+      <c r="U97" s="7">
+        <v>28</v>
+      </c>
+      <c r="V97" s="2">
+        <v>699.93882900000006</v>
+      </c>
+      <c r="W97" s="10"/>
+    </row>
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>5.1171000000000001E-2</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4.8884999999999998E-2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2.4932370000000001</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5.3815000000000002E-2</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2.6205569999999998</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.191911</v>
+      </c>
+      <c r="G98" s="4">
+        <v>5.8952239999999998</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.14221800000000001</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1.6499E-2</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.182057</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1.179967</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.72300399999999998</v>
+      </c>
+      <c r="M98" s="2">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0.234241</v>
+      </c>
+      <c r="O98" s="2">
+        <v>4.9119000000000003E-2</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0.27655600000000002</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>0.53894900000000001</v>
+      </c>
+      <c r="R98" s="2">
+        <v>85.302256</v>
+      </c>
+      <c r="S98" s="3">
+        <v>461.82053500000001</v>
+      </c>
+      <c r="T98" s="3">
+        <v>125.12032600000001</v>
+      </c>
+      <c r="U98" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="V98" s="2">
+        <v>685.64190900000006</v>
+      </c>
+      <c r="W98" s="10"/>
+    </row>
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>5.1026000000000002E-2</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5.5183000000000003E-2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.6068249999999999</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.4370000000000001E-2</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2.5888270000000002</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.19076499999999999</v>
+      </c>
+      <c r="G99" s="2">
+        <v>6.6712689999999997</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.14200299999999999</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.69037099999999996</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.14766099999999999</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1.0444549999999999</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0.64118699999999995</v>
+      </c>
+      <c r="M99" s="2">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="N99" s="2">
+        <v>0.23377100000000001</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0.14147999999999999</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0.22900100000000001</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>0.48214600000000002</v>
+      </c>
+      <c r="R99" s="2">
+        <v>85.069299999999998</v>
+      </c>
+      <c r="S99" s="3">
+        <v>462.04677700000002</v>
+      </c>
+      <c r="T99" s="3">
+        <v>126.349783</v>
+      </c>
+      <c r="U99" s="7">
+        <v>28</v>
+      </c>
+      <c r="V99" s="2">
+        <v>692.58531300000004</v>
+      </c>
+      <c r="W99" s="10"/>
+    </row>
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>5.0056000000000003E-2</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5.2879000000000002E-2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2.5055149999999999</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.4454E-2</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2.5375160000000001</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.140737</v>
+      </c>
+      <c r="G100" s="2">
+        <v>7.232297</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.129777</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1.6538000000000001E-2</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.161354</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1.742713</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.72432600000000003</v>
+      </c>
+      <c r="M100" s="2">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0.22673199999999999</v>
+      </c>
+      <c r="O100" s="2">
+        <v>7.9357999999999998E-2</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0.30504399999999998</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>0.52995800000000004</v>
+      </c>
+      <c r="R100" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S100" s="3">
+        <v>461.52423199999998</v>
+      </c>
+      <c r="T100" s="3">
+        <v>124.489097</v>
+      </c>
+      <c r="U100" s="7">
+        <v>28</v>
+      </c>
+      <c r="V100" s="2">
+        <v>693.93437300000005</v>
+      </c>
+      <c r="W100" s="10"/>
+    </row>
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>5.1652999999999998E-2</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5.1658999999999997E-2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2.1745030000000001</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.5275E-2</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2.5887410000000002</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="G101" s="2">
+        <v>6.2855210000000001</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.15007499999999999</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1.5245E-2</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.16439300000000001</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0.25818200000000002</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1.0430379999999999</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1.8200000000000001E-4</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0.22753000000000001</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0.106958</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0.28352899999999998</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>0.442112</v>
+      </c>
+      <c r="R101" s="2">
+        <v>85.951003999999998</v>
+      </c>
+      <c r="S101" s="3">
+        <v>450.79382399999997</v>
+      </c>
+      <c r="T101" s="9">
+        <v>100.746161</v>
+      </c>
+      <c r="U101" s="7">
+        <v>27</v>
+      </c>
+      <c r="V101" s="2">
+        <v>692.77004399999998</v>
+      </c>
+      <c r="W101" s="10"/>
+    </row>
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>4.5727999999999998E-2</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5.2840999999999999E-2</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2.5259239999999998</v>
+      </c>
+      <c r="D102" s="2">
+        <v>6.2606999999999996E-2</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2.6036049999999999</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.192576</v>
+      </c>
+      <c r="G102" s="2">
+        <v>6.8625410000000002</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.14589299999999999</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2.8115000000000001E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.164576</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1.2048369999999999</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1.1879770000000001</v>
+      </c>
+      <c r="M102" s="2">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0.12615599999999999</v>
+      </c>
+      <c r="O102" s="2">
+        <v>6.4426999999999998E-2</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0.284827</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>0.45476</v>
+      </c>
+      <c r="R102" s="2">
+        <v>83.992536999999999</v>
+      </c>
+      <c r="S102" s="3">
+        <v>461.838908</v>
+      </c>
+      <c r="T102" s="3">
+        <v>108.56358899999999</v>
+      </c>
+      <c r="U102" s="7">
+        <v>26</v>
+      </c>
+      <c r="V102" s="2">
+        <v>700.43237599999998</v>
+      </c>
+      <c r="W102" s="10"/>
+    </row>
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>5.0286999999999998E-2</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5.1097999999999998E-2</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2.6207910000000001</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.4494999999999999E-2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2.591675</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.18940899999999999</v>
+      </c>
+      <c r="G103" s="2">
+        <v>7.1958010000000003</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.14222000000000001</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1.7089E-2</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.162996</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0.473331</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1.47E-4</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0.23093</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0.247557</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0.261152</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0.39591799999999999</v>
+      </c>
+      <c r="R103" s="2">
+        <v>84.632104999999996</v>
+      </c>
+      <c r="S103" s="3">
+        <v>462.37507699999998</v>
+      </c>
+      <c r="T103" s="3">
+        <v>124.809246</v>
+      </c>
+      <c r="U103" s="7">
+        <v>28</v>
+      </c>
+      <c r="V103" s="2">
+        <v>711.13987799999995</v>
+      </c>
+      <c r="W103" s="10"/>
+    </row>
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>5.1721000000000003E-2</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4.2678000000000001E-2</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2.4722979999999999</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.5894999999999999E-2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2.8793570000000002</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.18645200000000001</v>
+      </c>
+      <c r="G104" s="2">
+        <v>7.2013290000000003</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.130909</v>
+      </c>
+      <c r="I104" s="2">
+        <v>7.6435000000000003E-2</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.16888700000000001</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1.19486</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.78736600000000001</v>
+      </c>
+      <c r="M104" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0.23158100000000001</v>
+      </c>
+      <c r="O104" s="2">
+        <v>9.5017000000000004E-2</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0.28742800000000002</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0.52298</v>
+      </c>
+      <c r="R104" s="2">
+        <v>83.654793999999995</v>
+      </c>
+      <c r="S104" s="9">
+        <v>416.37919900000003</v>
+      </c>
+      <c r="T104" s="3">
+        <v>124.162879</v>
+      </c>
+      <c r="U104" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="V104" s="2">
+        <v>711.33997999999997</v>
+      </c>
+      <c r="W104" s="10"/>
+    </row>
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>5.1180999999999997E-2</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5.4460000000000001E-2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2.5491790000000001</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1.6043999999999999E-2</v>
+      </c>
+      <c r="E105" s="2">
+        <v>2.5909499999999999</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.19062100000000001</v>
+      </c>
+      <c r="G105" s="2">
+        <v>6.9751950000000003</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.14685400000000001</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1.7340000000000001E-2</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.16491600000000001</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1.1914210000000001</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0.73921000000000003</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0.23411399999999999</v>
+      </c>
+      <c r="O105" s="2">
+        <v>4.5039999999999997E-2</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0.29297899999999999</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0.49794300000000002</v>
+      </c>
+      <c r="R105" s="2">
+        <v>84.242553000000001</v>
+      </c>
+      <c r="S105" s="9">
+        <v>496.35436299999998</v>
+      </c>
+      <c r="T105" s="3">
+        <v>124.62549199999999</v>
+      </c>
+      <c r="U105" s="7">
+        <v>28</v>
+      </c>
+      <c r="V105" s="2">
+        <v>699.340013</v>
+      </c>
+      <c r="W105" s="10"/>
+    </row>
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>5.1399E-2</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5.3268000000000003E-2</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2.5283159999999998</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.4976E-2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>2.5895009999999998</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.18736800000000001</v>
+      </c>
+      <c r="G106" s="2">
+        <v>7.219125</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.15040100000000001</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1.5762999999999999E-2</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.22439100000000001</v>
+      </c>
+      <c r="K106" s="2">
+        <v>1.0501069999999999</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0.77815100000000004</v>
+      </c>
+      <c r="M106" s="2">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0.232763</v>
+      </c>
+      <c r="O106" s="2">
+        <v>9.0015999999999999E-2</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0.368392</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>0.48449799999999998</v>
+      </c>
+      <c r="R106" s="2">
+        <v>83.960935000000006</v>
+      </c>
+      <c r="S106" s="3">
+        <v>461.55521399999998</v>
+      </c>
+      <c r="T106" s="9">
+        <v>148.397209</v>
+      </c>
+      <c r="U106" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="V106" s="2">
+        <v>691.995541</v>
+      </c>
+      <c r="W106" s="10"/>
+    </row>
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>5.0344E-2</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5.8252999999999999E-2</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2.847944</v>
+      </c>
+      <c r="D107" s="2">
+        <v>5.0354999999999997E-2</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2.5998130000000002</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.19065099999999999</v>
+      </c>
+      <c r="G107" s="2">
+        <v>7.1901619999999999</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1.6885000000000001E-2</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.16483200000000001</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1.1920820000000001</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0.67293700000000001</v>
+      </c>
+      <c r="M107" s="2">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0.23120099999999999</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0.29034300000000002</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>0.50664200000000004</v>
+      </c>
+      <c r="R107" s="2">
+        <v>83.779270999999994</v>
+      </c>
+      <c r="S107" s="3">
+        <v>449.97610100000003</v>
+      </c>
+      <c r="T107" s="3">
+        <v>123.098641</v>
+      </c>
+      <c r="U107" s="8">
+        <v>40</v>
+      </c>
+      <c r="V107" s="2">
+        <v>702.34760200000005</v>
+      </c>
+      <c r="W107" s="10"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>5.1062999999999997E-2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>5.3356000000000001E-2</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2.5374650000000001</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.5899E-2</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2.5957159999999999</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.18986900000000001</v>
+      </c>
+      <c r="G108" s="2">
+        <v>7.1218810000000001</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.15557299999999999</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.164849</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1.158115</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0.70306000000000002</v>
+      </c>
+      <c r="M108" s="2">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0.20533999999999999</v>
+      </c>
+      <c r="O108" s="2">
+        <v>2.0858000000000002E-2</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0.36618499999999998</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>0.52782700000000005</v>
+      </c>
+      <c r="R108" s="2">
+        <v>84.132823000000002</v>
+      </c>
+      <c r="S108" s="3">
+        <v>465.38189199999999</v>
+      </c>
+      <c r="T108" s="3">
+        <v>122.94636</v>
+      </c>
+      <c r="U108" s="8">
+        <v>21</v>
+      </c>
+      <c r="V108" s="2">
+        <v>699.68885699999998</v>
+      </c>
+      <c r="W108" s="10"/>
+    </row>
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>5.4432000000000001E-2</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5.4677999999999997E-2</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2.464029</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.3417999999999999E-2</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2.5940099999999999</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.19309799999999999</v>
+      </c>
+      <c r="G110" s="2">
+        <v>7.2188249999999998</v>
+      </c>
+      <c r="H110" s="2">
+        <v>8.1910000000000004E-3</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1.1127E-2</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.163468</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1.194591</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.23688500000000001</v>
+      </c>
+      <c r="M110" s="2">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0.23538999999999999</v>
+      </c>
+      <c r="O110" s="2">
+        <v>0.40669300000000003</v>
+      </c>
+      <c r="P110" s="2">
+        <v>0.28984199999999999</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>0.12735099999999999</v>
+      </c>
+      <c r="R110" s="2">
+        <v>84.733737000000005</v>
+      </c>
+      <c r="S110" s="3">
+        <v>460.86551400000002</v>
+      </c>
+      <c r="T110" s="3">
+        <v>124.016727</v>
+      </c>
+      <c r="U110" s="7">
+        <v>24</v>
+      </c>
+      <c r="V110" s="4">
+        <v>714.22713099999999</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5.1972999999999998E-2</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2.4613429999999998</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.3265000000000001E-2</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2.5940080000000001</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.19451299999999999</v>
+      </c>
+      <c r="G111" s="2">
+        <v>6.9783280000000003</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1.2019999999999999E-3</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1.1145E-2</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0.162607</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1.1851430000000001</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.23049500000000001</v>
+      </c>
+      <c r="M111" s="2">
+        <v>2.31E-4</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0.225076</v>
+      </c>
+      <c r="O111" s="2">
+        <v>0.233291</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0.19977900000000001</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>4.3987999999999999E-2</v>
+      </c>
+      <c r="R111" s="2">
+        <v>85.413612999999998</v>
+      </c>
+      <c r="S111" s="3">
+        <v>460.10846600000002</v>
+      </c>
+      <c r="T111" s="3">
+        <v>124.021126</v>
+      </c>
+      <c r="U111" s="7">
+        <v>21</v>
+      </c>
+      <c r="V111" s="2">
+        <v>698.71009700000002</v>
+      </c>
+      <c r="W111" s="10"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>3.7766000000000001E-2</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2.4453990000000001</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.2635E-2</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2.5630920000000001</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.19278899999999999</v>
+      </c>
+      <c r="G112" s="2">
+        <v>8.2007279999999998</v>
+      </c>
+      <c r="H112" s="2">
+        <v>4.86E-4</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1.1096999999999999E-2</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0.16097500000000001</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1.228483</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0.35573199999999999</v>
+      </c>
+      <c r="M112" s="2">
+        <v>4.06E-4</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0.22703200000000001</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0.33113199999999998</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0.37784400000000001</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>9.5499000000000001E-2</v>
+      </c>
+      <c r="R112" s="2">
+        <v>83.758905999999996</v>
+      </c>
+      <c r="S112" s="3">
+        <v>459.40467799999999</v>
+      </c>
+      <c r="T112" s="3">
+        <v>121.747981</v>
+      </c>
+      <c r="U112" s="7">
+        <v>24</v>
+      </c>
+      <c r="V112" s="2">
+        <v>707.52382299999999</v>
+      </c>
+      <c r="W112" s="10"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>4.2618000000000003E-2</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.236011</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2.4975350000000001</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4.8560000000000001E-3</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2.5846279999999999</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.19355</v>
+      </c>
+      <c r="G113" s="2">
+        <v>6.909313</v>
+      </c>
+      <c r="H113" s="2">
+        <v>4.8700000000000002E-4</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1.1114000000000001E-2</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0.16167200000000001</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1.181211</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0.21124200000000001</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0.22491</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0.3387</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0.32789400000000002</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0.101727</v>
+      </c>
+      <c r="R113" s="2">
+        <v>84.972531000000004</v>
+      </c>
+      <c r="S113" s="3">
+        <v>460.68022999999999</v>
+      </c>
+      <c r="T113" s="3">
+        <v>124.03051000000001</v>
+      </c>
+      <c r="U113" s="7">
+        <v>24</v>
+      </c>
+      <c r="V113" s="2">
+        <v>691.16408200000001</v>
+      </c>
+      <c r="W113" s="10"/>
+    </row>
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>4.052E-2</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5.0422000000000002E-2</v>
+      </c>
+      <c r="C114" s="4">
+        <v>4.4163790000000001</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.257E-2</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2.457068</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.181536</v>
+      </c>
+      <c r="G114" s="2">
+        <v>6.8892740000000003</v>
+      </c>
+      <c r="H114" s="2">
+        <v>2.6840000000000002E-3</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1.0553999999999999E-2</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.15439900000000001</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1.1265989999999999</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0.155333</v>
+      </c>
+      <c r="M114" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0.21657999999999999</v>
+      </c>
+      <c r="O114" s="2">
+        <v>0.329156</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0.30647099999999999</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0.10030600000000001</v>
+      </c>
+      <c r="R114" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S114" s="3">
+        <v>449.23547600000001</v>
+      </c>
+      <c r="T114" s="3">
+        <v>124.120529</v>
+      </c>
+      <c r="U114" s="7">
+        <v>25</v>
+      </c>
+      <c r="V114" s="2">
+        <v>689.32975399999998</v>
+      </c>
+      <c r="W114" s="10"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>3.3050000000000002E-3</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5.1976000000000001E-2</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1.3595980000000001</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1.2244E-2</v>
+      </c>
+      <c r="E115" s="2">
+        <v>2.5936789999999998</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.18899099999999999</v>
+      </c>
+      <c r="G115" s="2">
+        <v>7.2066809999999997</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1.096E-3</v>
+      </c>
+      <c r="I115" s="2">
+        <v>4.1384999999999998E-2</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0.165043</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1.185376</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.197578</v>
+      </c>
+      <c r="M115" s="2">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="N115" s="2">
+        <v>0.237903</v>
+      </c>
+      <c r="O115" s="2">
+        <v>0.38017899999999999</v>
+      </c>
+      <c r="P115" s="2">
+        <v>0.335731</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>0.188916</v>
+      </c>
+      <c r="R115" s="2">
+        <v>85.850143000000003</v>
+      </c>
+      <c r="S115" s="3">
+        <v>457.77109300000001</v>
+      </c>
+      <c r="T115" s="3">
+        <v>124.03380300000001</v>
+      </c>
+      <c r="U115" s="7">
+        <v>21</v>
+      </c>
+      <c r="V115" s="2">
+        <v>689.03352299999995</v>
+      </c>
+      <c r="W115" s="10"/>
+    </row>
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>1.686E-2</v>
+      </c>
+      <c r="B116" s="2">
+        <v>6.7562999999999998E-2</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2.61063</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.20586499999999999</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2.5857199999999998</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.188385</v>
+      </c>
+      <c r="G116" s="2">
+        <v>7.6843539999999999</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1.2134000000000001E-2</v>
+      </c>
+      <c r="I116" s="4">
+        <v>3.9050000000000001E-3</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0.175897</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1.019182</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0.39036599999999999</v>
+      </c>
+      <c r="M116" s="2">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0.22667599999999999</v>
+      </c>
+      <c r="O116" s="2">
+        <v>0.33322400000000002</v>
+      </c>
+      <c r="P116" s="2">
+        <v>0.32119900000000001</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>0.19082399999999999</v>
+      </c>
+      <c r="R116" s="2">
+        <v>83.967021000000003</v>
+      </c>
+      <c r="S116" s="3">
+        <v>437.41459400000002</v>
+      </c>
+      <c r="T116" s="3">
+        <v>124.185166</v>
+      </c>
+      <c r="U116" s="7">
+        <v>29</v>
+      </c>
+      <c r="V116" s="2">
+        <v>691.235726</v>
+      </c>
+      <c r="W116" s="10"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>5.4384000000000002E-2</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.18875400000000001</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2.4639869999999999</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1.342E-2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3.5564369999999998</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.19310099999999999</v>
+      </c>
+      <c r="G117" s="2">
+        <v>7.2187580000000002</v>
+      </c>
+      <c r="H117" s="2">
+        <v>8.1650000000000004E-3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1.1174E-2</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0.163464</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1.194555</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.23689199999999999</v>
+      </c>
+      <c r="M117" s="2">
+        <v>2.34E-4</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0.180703</v>
+      </c>
+      <c r="O117" s="2">
+        <v>0.51744699999999999</v>
+      </c>
+      <c r="P117" s="2">
+        <v>0.28996899999999998</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>0.127273</v>
+      </c>
+      <c r="R117" s="2">
+        <v>83.581281000000004</v>
+      </c>
+      <c r="S117" s="3">
+        <v>460.84214800000001</v>
+      </c>
+      <c r="T117" s="3">
+        <v>124.01664</v>
+      </c>
+      <c r="U117" s="7">
+        <v>24</v>
+      </c>
+      <c r="V117" s="2">
+        <v>690.45747800000004</v>
+      </c>
+      <c r="W117" s="10"/>
+    </row>
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>1.4704999999999999E-2</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4.7330999999999998E-2</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2.3700549999999998</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2.7613029999999998</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.138988</v>
+      </c>
+      <c r="G118" s="4">
+        <v>8.4731439999999996</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>8.0579999999999992E-3</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0.16889000000000001</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1.0798939999999999</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.397642</v>
+      </c>
+      <c r="M118" s="2">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="N118" s="2">
+        <v>0.205933</v>
+      </c>
+      <c r="O118" s="2">
+        <v>0.33846300000000001</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0.34552500000000003</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>0.100013</v>
+      </c>
+      <c r="R118" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S118" s="3">
+        <v>458.92913099999998</v>
+      </c>
+      <c r="T118" s="3">
+        <v>121.970361</v>
+      </c>
+      <c r="U118" s="7">
+        <v>31</v>
+      </c>
+      <c r="V118" s="2">
+        <v>688.22502799999995</v>
+      </c>
+      <c r="W118" s="10"/>
+    </row>
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>4.2824000000000001E-2</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5.2187999999999998E-2</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2.461306</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2.5935480000000002</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.19085299999999999</v>
+      </c>
+      <c r="G119" s="2">
+        <v>7.3036820000000002</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1.475E-3</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0.45014700000000002</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0.19451299999999999</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1.1018030000000001</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.119785</v>
+      </c>
+      <c r="M119" s="2">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="N119" s="2">
+        <v>0.223498</v>
+      </c>
+      <c r="O119" s="2">
+        <v>0.26908199999999999</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0.347335</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0.104782</v>
+      </c>
+      <c r="R119" s="2">
+        <v>84.543085000000005</v>
+      </c>
+      <c r="S119" s="3">
+        <v>472.23470700000001</v>
+      </c>
+      <c r="T119" s="9">
+        <v>106.740094</v>
+      </c>
+      <c r="U119" s="7">
+        <v>25</v>
+      </c>
+      <c r="V119" s="2">
+        <v>698.83713899999998</v>
+      </c>
+      <c r="W119" s="10"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>4.2702999999999998E-2</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2.5354290000000002</v>
+      </c>
+      <c r="D120" s="2">
+        <v>8.5240000000000003E-3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>2.5886650000000002</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.19378699999999999</v>
+      </c>
+      <c r="G120" s="2">
+        <v>7.6901089999999996</v>
+      </c>
+      <c r="H120" s="2">
+        <v>8.5400000000000005E-4</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1.1119E-2</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0.16200999999999999</v>
+      </c>
+      <c r="K120" s="4">
+        <v>2.0230730000000001</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.19478699999999999</v>
+      </c>
+      <c r="M120" s="2">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="N120" s="2">
+        <v>0.22705900000000001</v>
+      </c>
+      <c r="O120" s="2">
+        <v>0.32363700000000001</v>
+      </c>
+      <c r="P120" s="2">
+        <v>0.24582200000000001</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>0.10262400000000001</v>
+      </c>
+      <c r="R120" s="2">
+        <v>83.649760999999998</v>
+      </c>
+      <c r="S120" s="3">
+        <v>461.14435099999997</v>
+      </c>
+      <c r="T120" s="3">
+        <v>124.029076</v>
+      </c>
+      <c r="U120" s="7">
+        <v>24</v>
+      </c>
+      <c r="V120" s="2">
+        <v>701.67531299999996</v>
+      </c>
+      <c r="W120" s="10"/>
+    </row>
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>4.2805000000000003E-2</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3.4165000000000001E-2</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2.1571470000000001</v>
+      </c>
+      <c r="D121" s="2">
+        <v>7.9757999999999996E-2</v>
+      </c>
+      <c r="E121" s="2">
+        <v>2.5960239999999999</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.19653999999999999</v>
+      </c>
+      <c r="G121" s="2">
+        <v>7.1989869999999998</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>5.1009999999999996E-3</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.161581</v>
+      </c>
+      <c r="K121" s="4">
+        <v>0.19103300000000001</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.271366</v>
+      </c>
+      <c r="M121" s="2">
+        <v>4.0200000000000001E-4</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0.27565600000000001</v>
+      </c>
+      <c r="O121" s="2">
+        <v>0.29735499999999998</v>
+      </c>
+      <c r="P121" s="2">
+        <v>0.341474</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>0.15282499999999999</v>
+      </c>
+      <c r="R121" s="2">
+        <v>85.997782000000001</v>
+      </c>
+      <c r="S121" s="3">
+        <v>462.523507</v>
+      </c>
+      <c r="T121" s="3">
+        <v>124.083083</v>
+      </c>
+      <c r="U121" s="7">
+        <v>29</v>
+      </c>
+      <c r="V121" s="2">
+        <v>690.27765699999998</v>
+      </c>
+      <c r="W121" s="10"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>4.2854000000000003E-2</v>
+      </c>
+      <c r="B122" s="2">
+        <v>4.8208000000000001E-2</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2.461303</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.3369000000000001E-2</v>
+      </c>
+      <c r="E122" s="2">
+        <v>2.593947</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.194407</v>
+      </c>
+      <c r="G122" s="2">
+        <v>7.2059449999999998</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1.103E-3</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1.1478E-2</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0.16153999999999999</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1.1857200000000001</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0.45159700000000003</v>
+      </c>
+      <c r="M122" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="N122" s="2">
+        <v>0.28157100000000002</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0.30565900000000001</v>
+      </c>
+      <c r="P122" s="2">
+        <v>0.30462299999999998</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0.10095</v>
+      </c>
+      <c r="R122" s="2">
+        <v>84.635715000000005</v>
+      </c>
+      <c r="S122" s="3">
+        <v>460.15714500000001</v>
+      </c>
+      <c r="T122" s="3">
+        <v>124.031942</v>
+      </c>
+      <c r="U122" s="7">
+        <v>24</v>
+      </c>
+      <c r="V122" s="2">
+        <v>703.15596400000004</v>
+      </c>
+      <c r="W122" s="10"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>1.312E-3</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5.2281000000000001E-2</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2.3986480000000001</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2.2142999999999999E-2</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2.5970610000000001</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.19229299999999999</v>
+      </c>
+      <c r="G123" s="2">
+        <v>7.2419640000000003</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1.1912000000000001E-2</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0.18423</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1.165211</v>
+      </c>
+      <c r="L123" s="4">
+        <v>9.8379999999999995E-3</v>
+      </c>
+      <c r="M123" s="2">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="N123" s="2">
+        <v>0.22078600000000001</v>
+      </c>
+      <c r="O123" s="2">
+        <v>0.23612900000000001</v>
+      </c>
+      <c r="P123" s="2">
+        <v>0.32678000000000001</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>0.147864</v>
+      </c>
+      <c r="R123" s="2">
+        <v>85.191389000000001</v>
+      </c>
+      <c r="S123" s="3">
+        <v>456.32793400000003</v>
+      </c>
+      <c r="T123" s="3">
+        <v>124.955432</v>
+      </c>
+      <c r="U123" s="7">
+        <v>24</v>
+      </c>
+      <c r="V123" s="2">
+        <v>695.18758100000002</v>
+      </c>
+      <c r="W123" s="10"/>
+    </row>
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>4.2818000000000002E-2</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5.3751E-2</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2.6493129999999998</v>
+      </c>
+      <c r="D124" s="2">
+        <v>8.2100000000000003E-3</v>
+      </c>
+      <c r="E124" s="2">
+        <v>2.8881420000000002</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.19656999999999999</v>
+      </c>
+      <c r="G124" s="2">
+        <v>7.3102359999999997</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1.9483E-2</v>
+      </c>
+      <c r="I124" s="2">
+        <v>2.036E-3</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0.15345800000000001</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1.1912510000000001</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.102481</v>
+      </c>
+      <c r="M124" s="2">
+        <v>4.0700000000000003E-4</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0.111497</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0.282468</v>
+      </c>
+      <c r="P124" s="2">
+        <v>0.29768699999999998</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>0.103688</v>
+      </c>
+      <c r="R124" s="2">
+        <v>84.586501999999996</v>
+      </c>
+      <c r="S124" s="3">
+        <v>441.95282600000002</v>
+      </c>
+      <c r="T124" s="3">
+        <v>121.103533</v>
+      </c>
+      <c r="U124" s="7">
+        <v>30</v>
+      </c>
+      <c r="V124" s="2">
+        <v>692.02511500000003</v>
+      </c>
+      <c r="W124" s="10"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>4.2811000000000002E-2</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.22673099999999999</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2.4612069999999999</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.3056E-2</v>
+      </c>
+      <c r="E125" s="2">
+        <v>2.5920030000000001</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.194378</v>
+      </c>
+      <c r="G125" s="2">
+        <v>7.2042400000000004</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1.1204E-2</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0.16191700000000001</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1.184499</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0.25643199999999999</v>
+      </c>
+      <c r="M125" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="N125" s="2">
+        <v>0.223774</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0.55852100000000005</v>
+      </c>
+      <c r="P125" s="2">
+        <v>0.323384</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>0.10065300000000001</v>
+      </c>
+      <c r="R125" s="2">
+        <v>84.444062000000002</v>
+      </c>
+      <c r="S125" s="3">
+        <v>460.14888300000001</v>
+      </c>
+      <c r="T125" s="3">
+        <v>126.42891400000001</v>
+      </c>
+      <c r="U125" s="7">
+        <v>24</v>
+      </c>
+      <c r="V125" s="2">
+        <v>694.04420900000002</v>
+      </c>
+      <c r="W125" s="10"/>
+    </row>
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>4.1128999999999999E-2</v>
+      </c>
+      <c r="B126" s="2">
+        <v>4.8618000000000001E-2</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2.4872299999999998</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1.6482E-2</v>
+      </c>
+      <c r="E126" s="2">
+        <v>2.6143930000000002</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.121573</v>
+      </c>
+      <c r="G126" s="2">
+        <v>7.0253329999999998</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1.0805E-2</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0.16960500000000001</v>
+      </c>
+      <c r="K126" s="2">
+        <v>1.1505749999999999</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0.245447</v>
+      </c>
+      <c r="M126" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="N126" s="2">
+        <v>0.222245</v>
+      </c>
+      <c r="O126" s="2">
+        <v>0.27051999999999998</v>
+      </c>
+      <c r="P126" s="2">
+        <v>0.33850799999999998</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2">
+        <v>85.237515999999999</v>
+      </c>
+      <c r="S126" s="3">
+        <v>455.14151700000002</v>
+      </c>
+      <c r="T126" s="3">
+        <v>121.65600499999999</v>
+      </c>
+      <c r="U126" s="7">
+        <v>27</v>
+      </c>
+      <c r="V126" s="2">
+        <v>699.16439200000002</v>
+      </c>
+      <c r="W126" s="10"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>4.2802E-2</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5.4911000000000001E-2</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2.4616690000000001</v>
+      </c>
+      <c r="D127" s="2">
+        <v>7.2300000000000003E-3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2.591742</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.16233800000000001</v>
+      </c>
+      <c r="G127" s="2">
+        <v>7.2543480000000002</v>
+      </c>
+      <c r="H127" s="2">
+        <v>2.6559999999999999E-3</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1.1195999999999999E-2</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0.16232199999999999</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1.1878690000000001</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0.25634099999999999</v>
+      </c>
+      <c r="M127" s="2">
+        <v>5.0600000000000005E-4</v>
+      </c>
+      <c r="N127" s="2">
+        <v>0.21999299999999999</v>
+      </c>
+      <c r="O127" s="2">
+        <v>0.31185000000000002</v>
+      </c>
+      <c r="P127" s="2">
+        <v>0.30879699999999999</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>0.149479</v>
+      </c>
+      <c r="R127" s="2">
+        <v>84.813951000000003</v>
+      </c>
+      <c r="S127" s="9">
+        <v>412.47104300000001</v>
+      </c>
+      <c r="T127" s="3">
+        <v>124.02810700000001</v>
+      </c>
+      <c r="U127" s="7">
+        <v>24</v>
+      </c>
+      <c r="V127" s="2">
+        <v>702.86201900000003</v>
+      </c>
+      <c r="W127" s="10"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>4.2209999999999998E-2</v>
+      </c>
+      <c r="B128" s="2">
+        <v>5.0846000000000002E-2</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2.3897309999999998</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1.0873000000000001E-2</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2.5924619999999998</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0.19394900000000001</v>
+      </c>
+      <c r="G128" s="2">
+        <v>7.2092419999999997</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1.1507E-2</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0.22802500000000001</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1.2825709999999999</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0.25218800000000002</v>
+      </c>
+      <c r="M128" s="2">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="N128" s="2">
+        <v>0.20701600000000001</v>
+      </c>
+      <c r="O128" s="2">
+        <v>0.31562200000000001</v>
+      </c>
+      <c r="P128" s="2">
+        <v>0.32253900000000002</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>0.14355899999999999</v>
+      </c>
+      <c r="R128" s="2">
+        <v>84.747131999999993</v>
+      </c>
+      <c r="S128" s="9">
+        <v>479.371557</v>
+      </c>
+      <c r="T128" s="3">
+        <v>124.018924</v>
+      </c>
+      <c r="U128" s="7">
+        <v>24</v>
+      </c>
+      <c r="V128" s="2">
+        <v>691.95766100000003</v>
+      </c>
+      <c r="W128" s="10"/>
+    </row>
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>3.5118999999999997E-2</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5.2124999999999998E-2</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2.462542</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1.3158E-2</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2.5936180000000002</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.190862</v>
+      </c>
+      <c r="G129" s="2">
+        <v>7.272113</v>
+      </c>
+      <c r="H129" s="2">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="I129" s="2">
+        <v>9.9570000000000006E-3</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0.16284699999999999</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1.185308</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0.13583600000000001</v>
+      </c>
+      <c r="M129" s="2">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N129" s="2">
+        <v>0.22506999999999999</v>
+      </c>
+      <c r="O129" s="2">
+        <v>0.199929</v>
+      </c>
+      <c r="P129" s="2">
+        <v>0.34519</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>0.10156999999999999</v>
+      </c>
+      <c r="R129" s="2">
+        <v>85.014640999999997</v>
+      </c>
+      <c r="S129" s="3">
+        <v>445.65637500000003</v>
+      </c>
+      <c r="T129" s="9">
+        <v>150.836961</v>
+      </c>
+      <c r="U129" s="7">
+        <v>25</v>
+      </c>
+      <c r="V129" s="2">
+        <v>686.73972700000002</v>
+      </c>
+      <c r="W129" s="10"/>
+    </row>
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>5.4432000000000001E-2</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5.4677999999999997E-2</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2.464029</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1.3417999999999999E-2</v>
+      </c>
+      <c r="E130" s="2">
+        <v>2.5940099999999999</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.19309799999999999</v>
+      </c>
+      <c r="G130" s="2">
+        <v>7.2188249999999998</v>
+      </c>
+      <c r="H130" s="2">
+        <v>1.1556E-2</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1.1127E-2</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0.163468</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1.194591</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0.23688500000000001</v>
+      </c>
+      <c r="M130" s="2">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="N130" s="2">
+        <v>0.23538999999999999</v>
+      </c>
+      <c r="O130" s="2">
+        <v>0.47480499999999998</v>
+      </c>
+      <c r="P130" s="2">
+        <v>0.28984199999999999</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>0.12735099999999999</v>
+      </c>
+      <c r="R130" s="2">
+        <v>84.661786000000006</v>
+      </c>
+      <c r="S130" s="3">
+        <v>460.86551400000002</v>
+      </c>
+      <c r="T130" s="3">
+        <v>124.016727</v>
+      </c>
+      <c r="U130" s="8">
+        <v>37</v>
+      </c>
+      <c r="V130" s="2">
+        <v>707.53527999999994</v>
+      </c>
+      <c r="W130" s="10"/>
+    </row>
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>5.0756000000000003E-2</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5.6557000000000003E-2</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2.4502269999999999</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1.6886999999999999E-2</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2.5951369999999998</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0.19107199999999999</v>
+      </c>
+      <c r="G132" s="2">
+        <v>7.2651000000000003</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.117464</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1.6471E-2</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0.16663500000000001</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1.204196</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0.65805599999999997</v>
+      </c>
+      <c r="M132" s="2">
+        <v>7.9199999999999995E-4</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0.191714</v>
+      </c>
+      <c r="O132" s="2">
+        <v>0.26830300000000001</v>
+      </c>
+      <c r="P132" s="2">
+        <v>0.33980500000000002</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>6.6166000000000003E-2</v>
+      </c>
+      <c r="R132" s="2">
+        <v>84.344662999999997</v>
+      </c>
+      <c r="S132" s="3">
+        <v>460.90471400000001</v>
+      </c>
+      <c r="T132" s="3">
+        <v>124.14649199999999</v>
+      </c>
+      <c r="U132" s="7">
+        <v>24.039069999999999</v>
+      </c>
+      <c r="V132" s="4">
+        <v>717.42207399999995</v>
+      </c>
+      <c r="W132" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5.5612000000000002E-2</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2.4586489999999999</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1.6611000000000001E-2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2.5956800000000002</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.18520400000000001</v>
+      </c>
+      <c r="G133" s="2">
+        <v>7.4744599999999997</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.10477</v>
+      </c>
+      <c r="I133" s="2">
+        <v>8.9910000000000007E-3</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0.16736100000000001</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1.1556409999999999</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0.54935</v>
+      </c>
+      <c r="M133" s="2">
+        <v>1.639E-3</v>
+      </c>
+      <c r="N133" s="2">
+        <v>0.18743099999999999</v>
+      </c>
+      <c r="O133" s="2">
+        <v>0.340723</v>
+      </c>
+      <c r="P133" s="2">
+        <v>0.31937100000000002</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>7.7907000000000004E-2</v>
+      </c>
+      <c r="R133" s="2">
+        <v>84.300601999999998</v>
+      </c>
+      <c r="S133" s="3">
+        <v>463.65864399999998</v>
+      </c>
+      <c r="T133" s="3">
+        <v>123.798337</v>
+      </c>
+      <c r="U133" s="7">
+        <v>24.211196000000001</v>
+      </c>
+      <c r="V133" s="2">
+        <v>706.42767200000003</v>
+      </c>
+      <c r="W133" s="10"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>5.0710999999999999E-2</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2.469557</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2.7437</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0.191057</v>
+      </c>
+      <c r="G134" s="2">
+        <v>7.2747140000000003</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.120099</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1.8321E-2</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0.21712000000000001</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1.221706</v>
+      </c>
+      <c r="L134" s="2">
+        <v>0.62504400000000004</v>
+      </c>
+      <c r="M134" s="2">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="N134" s="2">
+        <v>0.238761</v>
+      </c>
+      <c r="O134" s="2">
+        <v>0.28704800000000003</v>
+      </c>
+      <c r="P134" s="2">
+        <v>0.32842500000000002</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>8.9514999999999997E-2</v>
+      </c>
+      <c r="R134" s="2">
+        <v>84.1233</v>
+      </c>
+      <c r="S134" s="3">
+        <v>462.30658599999998</v>
+      </c>
+      <c r="T134" s="3">
+        <v>124.14455</v>
+      </c>
+      <c r="U134" s="7">
+        <v>24.145605</v>
+      </c>
+      <c r="V134" s="2">
+        <v>706.55096900000001</v>
+      </c>
+      <c r="W134" s="10"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>5.0744999999999998E-2</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.28501900000000002</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2.4353859999999998</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1.6397999999999999E-2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2.6083319999999999</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0.19106500000000001</v>
+      </c>
+      <c r="G135" s="2">
+        <v>7.2663359999999999</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.118784</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1.6452000000000001E-2</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0.16906399999999999</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1.2061390000000001</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0.64040600000000003</v>
+      </c>
+      <c r="M135" s="2">
+        <v>1.4369999999999999E-3</v>
+      </c>
+      <c r="N135" s="2">
+        <v>0.193102</v>
+      </c>
+      <c r="O135" s="2">
+        <v>0.33475899999999997</v>
+      </c>
+      <c r="P135" s="2">
+        <v>0.30318200000000001</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>7.7733999999999998E-2</v>
+      </c>
+      <c r="R135" s="2">
+        <v>84.085659000000007</v>
+      </c>
+      <c r="S135" s="3">
+        <v>461.60192899999998</v>
+      </c>
+      <c r="T135" s="3">
+        <v>123.99754299999999</v>
+      </c>
+      <c r="U135" s="7">
+        <v>24.152652</v>
+      </c>
+      <c r="V135" s="2">
+        <v>690.36627599999997</v>
+      </c>
+      <c r="W135" s="10"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="B136" s="2">
+        <v>5.8362999999999998E-2</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.20083500000000001</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1.5774E-2</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2.5950549999999999</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0.19028300000000001</v>
+      </c>
+      <c r="G136" s="2">
+        <v>7.2807469999999999</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.117977</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1.5678000000000001E-2</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0.173624</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1.2065969999999999</v>
+      </c>
+      <c r="L136" s="2">
+        <v>0.60123599999999999</v>
+      </c>
+      <c r="M136" s="2">
+        <v>1.668E-3</v>
+      </c>
+      <c r="N136" s="2">
+        <v>0.147451</v>
+      </c>
+      <c r="O136" s="2">
+        <v>0.394735</v>
+      </c>
+      <c r="P136" s="2">
+        <v>0.35155500000000001</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>8.2444000000000003E-2</v>
+      </c>
+      <c r="R136" s="2">
+        <v>86.515178000000006</v>
+      </c>
+      <c r="S136" s="3">
+        <v>461.455353</v>
+      </c>
+      <c r="T136" s="3">
+        <v>124.08720700000001</v>
+      </c>
+      <c r="U136" s="7">
+        <v>24.193200999999998</v>
+      </c>
+      <c r="V136" s="2">
+        <v>692.54077199999995</v>
+      </c>
+      <c r="W136" s="10"/>
+    </row>
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>4.2917999999999998E-2</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4.7724000000000003E-2</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4.1843820000000003</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1.8813E-2</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2.474688</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0.14763399999999999</v>
+      </c>
+      <c r="G137" s="2">
+        <v>6.7201700000000004</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.111121</v>
+      </c>
+      <c r="I137" s="2">
+        <v>7.8320000000000004E-3</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0.162212</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1.0140499999999999</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0.67776999999999998</v>
+      </c>
+      <c r="M137" s="2">
+        <v>1.0139999999999999E-3</v>
+      </c>
+      <c r="N137" s="2">
+        <v>0.17554900000000001</v>
+      </c>
+      <c r="O137" s="2">
+        <v>0.27675499999999997</v>
+      </c>
+      <c r="P137" s="2">
+        <v>0.28157900000000002</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>0.105792</v>
+      </c>
+      <c r="R137" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S137" s="3">
+        <v>456.88914999999997</v>
+      </c>
+      <c r="T137" s="3">
+        <v>124.063157</v>
+      </c>
+      <c r="U137" s="7">
+        <v>25.788316999999999</v>
+      </c>
+      <c r="V137" s="2">
+        <v>685.19088099999999</v>
+      </c>
+      <c r="W137" s="10"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>5.0774E-2</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4.9328999999999998E-2</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.9540390000000001</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.2321</v>
+      </c>
+      <c r="E138" s="2">
+        <v>2.5967120000000001</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.191084</v>
+      </c>
+      <c r="G138" s="4">
+        <v>6.4678849999999999</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.117899</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1.3592999999999999E-2</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0.164294</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1.3474740000000001</v>
+      </c>
+      <c r="L138" s="2">
+        <v>0.65786599999999995</v>
+      </c>
+      <c r="M138" s="2">
+        <v>5.44E-4</v>
+      </c>
+      <c r="N138" s="2">
+        <v>0.235794</v>
+      </c>
+      <c r="O138" s="2">
+        <v>0.29639300000000002</v>
+      </c>
+      <c r="P138" s="2">
+        <v>0.27164899999999997</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>9.6513000000000002E-2</v>
+      </c>
+      <c r="R138" s="2">
+        <v>85.256057999999996</v>
+      </c>
+      <c r="S138" s="3">
+        <v>454.21217000000001</v>
+      </c>
+      <c r="T138" s="3">
+        <v>103.654534</v>
+      </c>
+      <c r="U138" s="7">
+        <v>24.39339</v>
+      </c>
+      <c r="V138" s="2">
+        <v>685.20957499999997</v>
+      </c>
+      <c r="W138" s="10"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>5.0512000000000001E-2</v>
+      </c>
+      <c r="B139" s="2">
+        <v>4.8559999999999999E-2</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2.5568179999999998</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1.5386E-2</v>
+      </c>
+      <c r="E139" s="4">
+        <v>3.2828330000000001</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.192441</v>
+      </c>
+      <c r="G139" s="2">
+        <v>7.2145210000000004</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.117413</v>
+      </c>
+      <c r="I139" s="2">
+        <v>3.3765999999999997E-2</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0.182839</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1.2118119999999999</v>
+      </c>
+      <c r="L139" s="2">
+        <v>0.73251999999999995</v>
+      </c>
+      <c r="M139" s="2">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="N139" s="2">
+        <v>0.103288</v>
+      </c>
+      <c r="O139" s="2">
+        <v>0.228965</v>
+      </c>
+      <c r="P139" s="2">
+        <v>0.414354</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>6.3728999999999994E-2</v>
+      </c>
+      <c r="R139" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S139" s="3">
+        <v>461.02364899999998</v>
+      </c>
+      <c r="T139" s="3">
+        <v>123.97285599999999</v>
+      </c>
+      <c r="U139" s="7">
+        <v>24.325581</v>
+      </c>
+      <c r="V139" s="2">
+        <v>708.16228000000001</v>
+      </c>
+      <c r="W139" s="10"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>5.0783000000000002E-2</v>
+      </c>
+      <c r="B140" s="2">
+        <v>5.5093000000000003E-2</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2.4631249999999998</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1.6798E-2</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1.7361120000000001</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.185701</v>
+      </c>
+      <c r="G140" s="2">
+        <v>7.4349189999999998</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.12105399999999999</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1.1102000000000001E-2</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0.16661300000000001</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1.158471</v>
+      </c>
+      <c r="L140" s="2">
+        <v>0.56462699999999999</v>
+      </c>
+      <c r="M140" s="2">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="N140" s="2">
+        <v>0.188113</v>
+      </c>
+      <c r="O140" s="2">
+        <v>0.33594299999999999</v>
+      </c>
+      <c r="P140" s="2">
+        <v>0.326208</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+      <c r="R140" s="2">
+        <v>85.111036999999996</v>
+      </c>
+      <c r="S140" s="3">
+        <v>463.388395</v>
+      </c>
+      <c r="T140" s="3">
+        <v>121.39113999999999</v>
+      </c>
+      <c r="U140" s="7">
+        <v>24.215304</v>
+      </c>
+      <c r="V140" s="2">
+        <v>687.22125100000005</v>
+      </c>
+      <c r="W140" s="10"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>5.0777000000000003E-2</v>
+      </c>
+      <c r="B141" s="2">
+        <v>5.484E-2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2.3871329999999999</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.7323000000000002E-2</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2.593896</v>
+      </c>
+      <c r="F141" s="4">
+        <v>8.4994E-2</v>
+      </c>
+      <c r="G141" s="2">
+        <v>7.3871570000000002</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.11963600000000001</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1.6472000000000001E-2</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0.16684599999999999</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1.6185419999999999</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0.50026000000000004</v>
+      </c>
+      <c r="M141" s="2">
+        <v>6.1399999999999996E-4</v>
+      </c>
+      <c r="N141" s="2">
+        <v>0.231318</v>
+      </c>
+      <c r="O141" s="2">
+        <v>0.18596699999999999</v>
+      </c>
+      <c r="P141" s="2">
+        <v>0.29563899999999999</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>6.8377999999999994E-2</v>
+      </c>
+      <c r="R141" s="2">
+        <v>84.220207000000002</v>
+      </c>
+      <c r="S141" s="3">
+        <v>468.52966400000003</v>
+      </c>
+      <c r="T141" s="3">
+        <v>124.116067</v>
+      </c>
+      <c r="U141" s="7">
+        <v>24.239619999999999</v>
+      </c>
+      <c r="V141" s="2">
+        <v>701.33605499999999</v>
+      </c>
+      <c r="W141" s="10"/>
+    </row>
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>4.9265000000000003E-2</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2.6803E-2</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1.9181330000000001</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2.8351000000000001E-2</v>
+      </c>
+      <c r="E142" s="2">
+        <v>2.5949369999999998</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0.19098899999999999</v>
+      </c>
+      <c r="G142" s="4">
+        <v>8.5761020000000006</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.11398999999999999</v>
+      </c>
+      <c r="I142" s="2">
+        <v>3.3168000000000003E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0.215923</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0.98871600000000004</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.72203099999999998</v>
+      </c>
+      <c r="M142" s="2">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="N142" s="2">
+        <v>0.19375500000000001</v>
+      </c>
+      <c r="O142" s="2">
+        <v>0.241896</v>
+      </c>
+      <c r="P142" s="2">
+        <v>0.28110800000000002</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>0.127832</v>
+      </c>
+      <c r="R142" s="2">
+        <v>83.696466000000001</v>
+      </c>
+      <c r="S142" s="3">
+        <v>463.28556500000002</v>
+      </c>
+      <c r="T142" s="3">
+        <v>111.579532</v>
+      </c>
+      <c r="U142" s="7">
+        <v>29.448872999999999</v>
+      </c>
+      <c r="V142" s="2">
+        <v>697.71505100000002</v>
+      </c>
+      <c r="W142" s="10"/>
+    </row>
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>5.0784000000000003E-2</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4.7176999999999997E-2</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2.461694</v>
+      </c>
+      <c r="D143" s="2">
+        <v>3.8122000000000003E-2</v>
+      </c>
+      <c r="E143" s="2">
+        <v>2.6628349999999998</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.185254</v>
+      </c>
+      <c r="G143" s="2">
+        <v>7.4500900000000003</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.12128800000000001</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0.16656699999999999</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1.1553119999999999</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.54789900000000002</v>
+      </c>
+      <c r="M143" s="2">
+        <v>1.673E-3</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0.187754</v>
+      </c>
+      <c r="O143" s="2">
+        <v>0.364338</v>
+      </c>
+      <c r="P143" s="2">
+        <v>0.32703500000000002</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>7.4129E-2</v>
+      </c>
+      <c r="R143" s="2">
+        <v>84.158050000000003</v>
+      </c>
+      <c r="S143" s="3">
+        <v>463.36236700000001</v>
+      </c>
+      <c r="T143" s="3">
+        <v>123.811207</v>
+      </c>
+      <c r="U143" s="7">
+        <v>24.971626000000001</v>
+      </c>
+      <c r="V143" s="2">
+        <v>709.60508600000003</v>
+      </c>
+      <c r="W143" s="10"/>
+    </row>
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>5.0188000000000003E-2</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5.3263999999999999E-2</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2.47167</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.16061300000000001</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2.6241669999999999</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.19162100000000001</v>
+      </c>
+      <c r="G144" s="2">
+        <v>7.2625310000000001</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.11593199999999999</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0.73083900000000002</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0.10900799999999999</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1.1969559999999999</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0.71270500000000003</v>
+      </c>
+      <c r="M144" s="2">
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="N144" s="2">
+        <v>0.19526099999999999</v>
+      </c>
+      <c r="O144" s="2">
+        <v>0.25123299999999998</v>
+      </c>
+      <c r="P144" s="2">
+        <v>0.26714700000000002</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>5.6258000000000002E-2</v>
+      </c>
+      <c r="R144" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S144" s="3">
+        <v>460.495386</v>
+      </c>
+      <c r="T144" s="3">
+        <v>120.468098</v>
+      </c>
+      <c r="U144" s="7">
+        <v>25.458302</v>
+      </c>
+      <c r="V144" s="2">
+        <v>685.03551800000002</v>
+      </c>
+      <c r="W144" s="10"/>
+    </row>
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>5.0756000000000003E-2</v>
+      </c>
+      <c r="B145" s="2">
+        <v>5.6321999999999997E-2</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2.4805459999999999</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1.7569999999999999E-2</v>
+      </c>
+      <c r="E145" s="2">
+        <v>2.5966</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.19109000000000001</v>
+      </c>
+      <c r="G145" s="2">
+        <v>7.2559370000000003</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.107076</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.113965</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0.165877</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.6472230000000001</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0.67910099999999995</v>
+      </c>
+      <c r="M145" s="2">
+        <v>8.8099999999999995E-4</v>
+      </c>
+      <c r="N145" s="2">
+        <v>0.195914</v>
+      </c>
+      <c r="O145" s="2">
+        <v>0.301811</v>
+      </c>
+      <c r="P145" s="2">
+        <v>0.32187199999999999</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>4.5931E-2</v>
+      </c>
+      <c r="R145" s="2">
+        <v>83.771525999999994</v>
+      </c>
+      <c r="S145" s="3">
+        <v>460.78202900000002</v>
+      </c>
+      <c r="T145" s="3">
+        <v>124.146327</v>
+      </c>
+      <c r="U145" s="7">
+        <v>25.579461999999999</v>
+      </c>
+      <c r="V145" s="2">
+        <v>707.81101899999999</v>
+      </c>
+      <c r="W145" s="10"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="B146" s="2">
+        <v>5.3449000000000003E-2</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3.0747249999999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>3.278378</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="G146" s="2">
+        <v>7.2090040000000002</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1.5987000000000001E-2</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0.17275199999999999</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.39893400000000001</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0.61119699999999999</v>
+      </c>
+      <c r="M146" s="2">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="N146" s="2">
+        <v>0.20853099999999999</v>
+      </c>
+      <c r="O146" s="2">
+        <v>0.29110900000000001</v>
+      </c>
+      <c r="P146" s="2">
+        <v>0.355263</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>4.8660000000000002E-2</v>
+      </c>
+      <c r="R146" s="2">
+        <v>83.962200999999993</v>
+      </c>
+      <c r="S146" s="3">
+        <v>458.17328800000001</v>
+      </c>
+      <c r="T146" s="3">
+        <v>124.123171</v>
+      </c>
+      <c r="U146" s="7">
+        <v>24.115478</v>
+      </c>
+      <c r="V146" s="2">
+        <v>687.01276399999995</v>
+      </c>
+      <c r="W146" s="10"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>5.0764999999999998E-2</v>
+      </c>
+      <c r="B147" s="2">
+        <v>5.2756999999999998E-2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2.250324</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1.7617000000000001E-2</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2.9207900000000002</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.191077</v>
+      </c>
+      <c r="G147" s="2">
+        <v>7.2494259999999997</v>
+      </c>
+      <c r="H147" s="2">
+        <v>9.0551999999999994E-2</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0.16689300000000001</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1.2012039999999999</v>
+      </c>
+      <c r="L147" s="4">
+        <v>1.007304</v>
+      </c>
+      <c r="M147" s="2">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="N147" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="O147" s="2">
+        <v>0.28514800000000001</v>
+      </c>
+      <c r="P147" s="2">
+        <v>0.31453799999999998</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>4.4428000000000002E-2</v>
+      </c>
+      <c r="R147" s="2">
+        <v>83.943977000000004</v>
+      </c>
+      <c r="S147" s="3">
+        <v>460.72810199999998</v>
+      </c>
+      <c r="T147" s="3">
+        <v>124.132503</v>
+      </c>
+      <c r="U147" s="7">
+        <v>24.229686999999998</v>
+      </c>
+      <c r="V147" s="2">
+        <v>704.946957</v>
+      </c>
+      <c r="W147" s="10"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>5.0775000000000001E-2</v>
+      </c>
+      <c r="B148" s="2">
+        <v>4.9807999999999998E-2</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2.1613660000000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>6.6888000000000003E-2</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2.529083</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.191085</v>
+      </c>
+      <c r="G148" s="2">
+        <v>7.2062099999999996</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.117396</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1.4711999999999999E-2</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0.186367</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1.279075</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0.307419</v>
+      </c>
+      <c r="M148" s="2">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="N148" s="2">
+        <v>0.19914799999999999</v>
+      </c>
+      <c r="O148" s="2">
+        <v>0.24900900000000001</v>
+      </c>
+      <c r="P148" s="2">
+        <v>0.30907800000000002</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>7.9501000000000002E-2</v>
+      </c>
+      <c r="R148" s="2">
+        <v>85.002510999999998</v>
+      </c>
+      <c r="S148" s="3">
+        <v>465.790569</v>
+      </c>
+      <c r="T148" s="3">
+        <v>123.892083</v>
+      </c>
+      <c r="U148" s="7">
+        <v>24.490214000000002</v>
+      </c>
+      <c r="V148" s="2">
+        <v>688.18216099999995</v>
+      </c>
+      <c r="W148" s="10"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>5.0373000000000001E-2</v>
+      </c>
+      <c r="B149" s="2">
+        <v>4.2863999999999999E-2</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2.4359519999999999</v>
+      </c>
+      <c r="D149" s="2">
+        <v>5.3165999999999998E-2</v>
+      </c>
+      <c r="E149" s="2">
+        <v>2.3729939999999998</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.18748000000000001</v>
+      </c>
+      <c r="G149" s="2">
+        <v>7.3220789999999996</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.117189</v>
+      </c>
+      <c r="I149" s="2">
+        <v>8.8388999999999995E-2</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0.17522699999999999</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1.030184</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.75380999999999998</v>
+      </c>
+      <c r="M149" s="2">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="N149" s="2">
+        <v>0.19591600000000001</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0.12939700000000001</v>
+      </c>
+      <c r="P149" s="2">
+        <v>0.30290899999999998</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>6.4282000000000006E-2</v>
+      </c>
+      <c r="R149" s="2">
+        <v>84.676987999999994</v>
+      </c>
+      <c r="S149" s="3">
+        <v>457.58325300000001</v>
+      </c>
+      <c r="T149" s="3">
+        <v>119.296381</v>
+      </c>
+      <c r="U149" s="7">
+        <v>24.176083999999999</v>
+      </c>
+      <c r="V149" s="2">
+        <v>685.21429599999999</v>
+      </c>
+      <c r="W149" s="10"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>4.0128999999999998E-2</v>
+      </c>
+      <c r="B150" s="2">
+        <v>5.7972000000000003E-2</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2.4387089999999998</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1.5879000000000001E-2</v>
+      </c>
+      <c r="E150" s="2">
+        <v>2.6800769999999998</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.19107499999999999</v>
+      </c>
+      <c r="G150" s="2">
+        <v>7.2539699999999998</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.11584</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1.6469999999999999E-2</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0.166271</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1.2130339999999999</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0.54210499999999995</v>
+      </c>
+      <c r="M150" s="2">
+        <v>1.593E-3</v>
+      </c>
+      <c r="N150" s="2">
+        <v>0.21859300000000001</v>
+      </c>
+      <c r="O150" s="2">
+        <v>0.332121</v>
+      </c>
+      <c r="P150" s="2">
+        <v>0.308979</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>8.4667000000000006E-2</v>
+      </c>
+      <c r="R150" s="2">
+        <v>84.322517000000005</v>
+      </c>
+      <c r="S150" s="9">
+        <v>411.99254100000002</v>
+      </c>
+      <c r="T150" s="3">
+        <v>124.131856</v>
+      </c>
+      <c r="U150" s="7">
+        <v>24.195929</v>
+      </c>
+      <c r="V150" s="2">
+        <v>712.38317900000004</v>
+      </c>
+      <c r="W150" s="10"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>5.0776000000000002E-2</v>
+      </c>
+      <c r="B151" s="2">
+        <v>5.0639000000000003E-2</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2.487698</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8.0338999999999994E-2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>2.9146269999999999</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.19108700000000001</v>
+      </c>
+      <c r="G151" s="2">
+        <v>7.1614690000000003</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.11672200000000001</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1.6459000000000001E-2</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0.220523</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1.1716880000000001</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0.69408700000000001</v>
+      </c>
+      <c r="M151" s="2">
+        <v>6.1399999999999996E-4</v>
+      </c>
+      <c r="N151" s="2">
+        <v>0.19645899999999999</v>
+      </c>
+      <c r="O151" s="2">
+        <v>0.30365999999999999</v>
+      </c>
+      <c r="P151" s="2">
+        <v>0.27244200000000002</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>5.2740000000000002E-2</v>
+      </c>
+      <c r="R151" s="2">
+        <v>84.017972999999998</v>
+      </c>
+      <c r="S151" s="9">
+        <v>483.76709399999999</v>
+      </c>
+      <c r="T151" s="3">
+        <v>124.123386</v>
+      </c>
+      <c r="U151" s="7">
+        <v>24.637094999999999</v>
+      </c>
+      <c r="V151" s="2">
+        <v>701.08125500000006</v>
+      </c>
+      <c r="W151" s="10"/>
+    </row>
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>5.0081000000000001E-2</v>
+      </c>
+      <c r="B152" s="2">
+        <v>5.3341E-2</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2.4759470000000001</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4.5180000000000003E-3</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2.595942</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.180372</v>
+      </c>
+      <c r="G152" s="2">
+        <v>7.2836689999999997</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.124143</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0.60192199999999996</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1.20916</v>
+      </c>
+      <c r="L152" s="2">
+        <v>0.67261499999999996</v>
+      </c>
+      <c r="M152" s="2">
+        <v>6.87E-4</v>
+      </c>
+      <c r="N152" s="2">
+        <v>0.177901</v>
+      </c>
+      <c r="O152" s="2">
+        <v>0.228322</v>
+      </c>
+      <c r="P152" s="2">
+        <v>0.28209600000000001</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>6.6165000000000002E-2</v>
+      </c>
+      <c r="R152" s="2">
+        <v>83.826217</v>
+      </c>
+      <c r="S152" s="3">
+        <v>459.52745900000002</v>
+      </c>
+      <c r="T152" s="9">
+        <v>96.098415000000003</v>
+      </c>
+      <c r="U152" s="7">
+        <v>26.683617000000002</v>
+      </c>
+      <c r="V152" s="2">
+        <v>692.45409700000005</v>
+      </c>
+      <c r="W152" s="10"/>
+    </row>
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2">
+        <v>5.2740000000000002E-2</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2.4863770000000001</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1.7587999999999999E-2</v>
+      </c>
+      <c r="E153" s="2">
+        <v>2.5968010000000001</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.19109100000000001</v>
+      </c>
+      <c r="G153" s="2">
+        <v>7.2519289999999996</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.115673</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0.166908</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1.2033529999999999</v>
+      </c>
+      <c r="L153" s="2">
+        <v>0.69691000000000003</v>
+      </c>
+      <c r="M153" s="2">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="N153" s="2">
+        <v>0.19617899999999999</v>
+      </c>
+      <c r="O153" s="2">
+        <v>0.251915</v>
+      </c>
+      <c r="P153" s="2">
+        <v>0.34261999999999998</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>4.6094000000000003E-2</v>
+      </c>
+      <c r="R153" s="2">
+        <v>84.383486000000005</v>
+      </c>
+      <c r="S153" s="3">
+        <v>434.22324300000002</v>
+      </c>
+      <c r="T153" s="3">
+        <v>124.133167</v>
+      </c>
+      <c r="U153" s="8">
+        <v>39.813609</v>
+      </c>
+      <c r="V153" s="2">
+        <v>700.20247900000004</v>
+      </c>
+      <c r="W153" s="10"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>5.0775000000000001E-2</v>
+      </c>
+      <c r="B154" s="2">
+        <v>5.2738E-2</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2.4846330000000001</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1.7575E-2</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2.6840419999999998</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.191084</v>
+      </c>
+      <c r="G154" s="2">
+        <v>7.2536829999999997</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.115674</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0.349412</v>
+      </c>
+      <c r="J154" s="2">
+        <v>0.16690099999999999</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1.2017709999999999</v>
+      </c>
+      <c r="L154" s="2">
+        <v>0.69641600000000004</v>
+      </c>
+      <c r="M154" s="2">
+        <v>4.95E-4</v>
+      </c>
+      <c r="N154" s="2">
+        <v>0.19619400000000001</v>
+      </c>
+      <c r="O154" s="2">
+        <v>0.29856700000000003</v>
+      </c>
+      <c r="P154" s="2">
+        <v>0.28985100000000003</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>8.1916000000000003E-2</v>
+      </c>
+      <c r="R154" s="2">
+        <v>83.868274999999997</v>
+      </c>
+      <c r="S154" s="3">
+        <v>460.72825599999999</v>
+      </c>
+      <c r="T154" s="3">
+        <v>124.137676</v>
+      </c>
+      <c r="U154" s="8">
+        <v>16.969563000000001</v>
+      </c>
+      <c r="V154" s="2">
+        <v>693.02019299999995</v>
+      </c>
+      <c r="W154" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A1:W154" xr:uid="{7185D57F-62ED-408D-92F1-147A3AFD3DEB}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="17.0"/>
+        <filter val="19.0"/>
+        <filter val="20.1"/>
+        <filter val="21.0"/>
+        <filter val="22.0"/>
+        <filter val="22.4"/>
+        <filter val="23.0"/>
+        <filter val="23.8"/>
+        <filter val="23.9"/>
+        <filter val="24.0"/>
+        <filter val="24.1"/>
+        <filter val="24.2"/>
+        <filter val="24.3"/>
+        <filter val="24.4"/>
+        <filter val="24.5"/>
+        <filter val="24.6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="9">
+    <mergeCell ref="W110:W130"/>
+    <mergeCell ref="W132:W154"/>
+    <mergeCell ref="W70:W87"/>
+    <mergeCell ref="W89:W108"/>
     <mergeCell ref="W12:W25"/>
     <mergeCell ref="W2:W5"/>
     <mergeCell ref="W7:W10"/>
     <mergeCell ref="W27:W49"/>
+    <mergeCell ref="W51:W68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3721,8 +10692,1706 @@
     <hyperlink ref="W7:W9" r:id="rId2" display="GA_UTS_AT12_1.0.csv" xr:uid="{36667FEC-805C-4642-A8EC-35B6064DD02D}"/>
     <hyperlink ref="W12:W21" r:id="rId3" display="GA_UTS_AT12_None.csv" xr:uid="{8D7F86DD-60E1-4FE0-BB48-88B218D77E61}"/>
     <hyperlink ref="W27:W49" r:id="rId4" display="GA_UTS_AT24_0.5.csv" xr:uid="{66E106FA-8CA5-4FC6-99B2-6D5AFD16A69A}"/>
+    <hyperlink ref="W51:W68" r:id="rId5" display="GA_UTS_AT24_1.0.csv" xr:uid="{5C5BD08C-9D70-463F-B570-91BCF848458E}"/>
+    <hyperlink ref="W70:W87" r:id="rId6" display="GA_UTS_AT24_None.csv" xr:uid="{6B262A53-2E72-41F1-BF5F-C9AA7AC3E482}"/>
+    <hyperlink ref="W89:W108" r:id="rId7" display="GA_UTS_AT48_0.5.csv" xr:uid="{6558F8AB-606D-4F36-B4E4-DFEFA40E92CE}"/>
+    <hyperlink ref="W110:W130" r:id="rId8" display="GA_UTS_AT48_1.0.csv" xr:uid="{66A3ACA1-47E9-45EA-A5F5-77BD1764D45A}"/>
+    <hyperlink ref="W132:W154" r:id="rId9" display="GA_UTS_AT48_None.csv" xr:uid="{63A46F2E-0BD4-47E1-9826-5767B8DEE0E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551BBA8A-A6CE-44A2-9B20-80695DB12B61}">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>5.2615000000000002E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.3041999999999999E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.4426589999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.2506E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5984440000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9.6754000000000007E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.708488</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.13874</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.158527</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.20898600000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.34980699999999998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.22137799999999999</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.13767699999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.32080199999999998</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.13578999999999999</v>
+      </c>
+      <c r="R2" s="2">
+        <v>85.362969000000007</v>
+      </c>
+      <c r="S2" s="3">
+        <v>460.65239000000003</v>
+      </c>
+      <c r="T2" s="3">
+        <v>123.728245</v>
+      </c>
+      <c r="U2" s="7">
+        <v>5.0885410000000002</v>
+      </c>
+      <c r="V2" s="4">
+        <v>690.70461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.1289999999999998E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.5369269999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5888399999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7690000000000002E-3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>7.8140739999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.115532</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9.8166000000000003E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.162553</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.19842</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6.8800000000000003E-4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.22331599999999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.404559</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5.6009999999999997E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.3714000000000003E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>83.926275000000004</v>
+      </c>
+      <c r="S3" s="3">
+        <v>461.762159</v>
+      </c>
+      <c r="T3" s="3">
+        <v>123.33713</v>
+      </c>
+      <c r="U3" s="7">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>686.10647400000005</v>
+      </c>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>5.2613E-2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0375999999999997E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.656868</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1322E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5985680000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.8285999999999998E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.7068919999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.143067</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.15614800000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.30766199999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.245782</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6.5499999999999998E-4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.228461</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.18918199999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.30032599999999998</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.106655</v>
+      </c>
+      <c r="R4" s="2">
+        <v>86.146767999999994</v>
+      </c>
+      <c r="S4" s="3">
+        <v>460.34462600000001</v>
+      </c>
+      <c r="T4" s="3">
+        <v>126.25635200000001</v>
+      </c>
+      <c r="U4" s="7">
+        <v>5.1830379999999998</v>
+      </c>
+      <c r="V4" s="2">
+        <v>686.49708099999998</v>
+      </c>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.02</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>84.66</v>
+      </c>
+      <c r="S5" s="1">
+        <v>462</v>
+      </c>
+      <c r="T5" s="1">
+        <v>125</v>
+      </c>
+      <c r="U5" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="V5" s="1">
+        <v>685.64</v>
+      </c>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5.2617999999999998E-2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.3093000000000001E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.453757</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.3032999999999999E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.1303239999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.6521999999999997E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.6902840000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.13938900000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.7060000000000001E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.157304</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.19667399999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.22331300000000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.23263300000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.182342</v>
+      </c>
+      <c r="R6" s="2">
+        <v>85.375029999999995</v>
+      </c>
+      <c r="S6" s="3">
+        <v>460.81598400000001</v>
+      </c>
+      <c r="T6" s="3">
+        <v>124.676423</v>
+      </c>
+      <c r="U6" s="7">
+        <v>5.1826230000000004</v>
+      </c>
+      <c r="V6" s="2">
+        <v>687.93378700000005</v>
+      </c>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5.2618999999999999E-2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.3108000000000002E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.4527199999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.1057000000000004E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.5985800000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.0572E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.13863300000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.936E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.157944</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.6453999999999999E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.40137600000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.4799999999999999E-4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.22117999999999999</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6.8287E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.28513699999999997</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.14428099999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>84.585667999999998</v>
+      </c>
+      <c r="S7" s="3">
+        <v>460.983496</v>
+      </c>
+      <c r="T7" s="3">
+        <v>124.055908</v>
+      </c>
+      <c r="U7" s="7">
+        <v>5.1833450000000001</v>
+      </c>
+      <c r="V7" s="2">
+        <v>687.69275900000002</v>
+      </c>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.2117999999999998E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.4879319999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5822219999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.1719999999999999E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.8182619999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.123124</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.57191599999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.16033</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.193282</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.55698000000000003</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.22558500000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.32250200000000001</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.20099900000000001</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>83.700885999999997</v>
+      </c>
+      <c r="S8" s="3">
+        <v>462.33689800000002</v>
+      </c>
+      <c r="T8" s="3">
+        <v>128.50753900000001</v>
+      </c>
+      <c r="U8" s="7">
+        <v>5</v>
+      </c>
+      <c r="V8" s="2">
+        <v>686.23226699999998</v>
+      </c>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.8433999999999998E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.5411229999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.95E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5887669999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.6679999999999998E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.0985580000000006</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.105959</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.8628999999999994E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.16083900000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.2170719999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.49102299999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.22777</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.30442000000000002</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>7.6980999999999994E-2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>84.034733000000003</v>
+      </c>
+      <c r="S9" s="3">
+        <v>460.22504099999998</v>
+      </c>
+      <c r="T9" s="3">
+        <v>123.158553</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="V9" s="2">
+        <v>686.09214199999997</v>
+      </c>
+      <c r="W9"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.0893000000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.515406</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.4095999999999999E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5909070000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.191967</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.3368409999999997</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.115259</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.6327000000000001E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.164468</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.2133480000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.83490900000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.214388</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.68472599999999995</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.10477400000000001</v>
+      </c>
+      <c r="R11" s="2">
+        <v>83.899406999999997</v>
+      </c>
+      <c r="S11" s="3">
+        <v>461.93663900000001</v>
+      </c>
+      <c r="T11" s="3">
+        <v>121.962226</v>
+      </c>
+      <c r="U11" s="7">
+        <v>24</v>
+      </c>
+      <c r="V11" s="4">
+        <v>717.41967799999998</v>
+      </c>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>5.0744999999999998E-2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.28501900000000002</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.4353859999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.6397999999999999E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.6083319999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.19106500000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.2663359999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.118784</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.6452000000000001E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.16906399999999999</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.2061390000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.64040600000000003</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.4369999999999999E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.193102</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.33475899999999997</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.30318200000000001</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>7.7733999999999998E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>84.085659000000007</v>
+      </c>
+      <c r="S12" s="3">
+        <v>461.60192899999998</v>
+      </c>
+      <c r="T12" s="3">
+        <v>123.99754299999999</v>
+      </c>
+      <c r="U12" s="7">
+        <v>24.152652</v>
+      </c>
+      <c r="V12" s="2">
+        <v>690.36627599999997</v>
+      </c>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.8362999999999998E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.20083500000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.5774E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5950549999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.19028300000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.2807469999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.117977</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.5678000000000001E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.173624</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.2065969999999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.60123599999999999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.668E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.147451</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.394735</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.35155500000000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8.2444000000000003E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>86.515178000000006</v>
+      </c>
+      <c r="S13" s="3">
+        <v>461.455353</v>
+      </c>
+      <c r="T13" s="3">
+        <v>124.08720700000001</v>
+      </c>
+      <c r="U13" s="7">
+        <v>24.193200999999998</v>
+      </c>
+      <c r="V13" s="2">
+        <v>692.54077199999995</v>
+      </c>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>5.4384000000000002E-2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.18875400000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.4639869999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.342E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.5564369999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.19310099999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.2187580000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8.1650000000000004E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.1174E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.163464</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.194555</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.23689199999999999</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.34E-4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.180703</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.51744699999999999</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.28996899999999998</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.127273</v>
+      </c>
+      <c r="R14" s="2">
+        <v>83.581281000000004</v>
+      </c>
+      <c r="S14" s="3">
+        <v>460.84214800000001</v>
+      </c>
+      <c r="T14" s="3">
+        <v>124.01664</v>
+      </c>
+      <c r="U14" s="7">
+        <v>24</v>
+      </c>
+      <c r="V14" s="2">
+        <v>690.45747800000004</v>
+      </c>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>5.0783000000000002E-2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.5093000000000003E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.4631249999999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.6798E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.7361120000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.185701</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7.4349189999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.12105399999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.1102000000000001E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.16661300000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.158471</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.56462699999999999</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.188113</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.33594299999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.326208</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>85.111036999999996</v>
+      </c>
+      <c r="S15" s="3">
+        <v>463.388395</v>
+      </c>
+      <c r="T15" s="3">
+        <v>121.39113999999999</v>
+      </c>
+      <c r="U15" s="7">
+        <v>24.215304</v>
+      </c>
+      <c r="V15" s="2">
+        <v>687.22125100000005</v>
+      </c>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.4583650000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2654E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.6584120000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.190355</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.4084579999999995</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.15059800000000001</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.39186799999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.15667500000000001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.122217</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.183476</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.168405</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.10581400000000001</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.110883</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.11984499999999999</v>
+      </c>
+      <c r="R16" s="2">
+        <v>83.710819000000001</v>
+      </c>
+      <c r="S16" s="12">
+        <v>431.99744500000003</v>
+      </c>
+      <c r="T16" s="3">
+        <v>127.65820600000001</v>
+      </c>
+      <c r="U16" s="7">
+        <v>23.944679000000001</v>
+      </c>
+      <c r="V16" s="2">
+        <v>702.36572799999999</v>
+      </c>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>5.0774E-2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.9328999999999998E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.9540390000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.2321</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5967120000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.191084</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6.4678849999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.117899</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.3592999999999999E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.164294</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.3474740000000001</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.65786599999999995</v>
+      </c>
+      <c r="M17" s="2">
+        <v>5.44E-4</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.235794</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.29639300000000002</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.27164899999999997</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>9.6513000000000002E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>85.256057999999996</v>
+      </c>
+      <c r="S17" s="3">
+        <v>454.21217000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>103.654534</v>
+      </c>
+      <c r="U17" s="7">
+        <v>24.39339</v>
+      </c>
+      <c r="V17" s="2">
+        <v>685.20957499999997</v>
+      </c>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4.2702999999999998E-2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.5354290000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.5240000000000003E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.5886650000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.19378699999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.6901089999999996</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.5400000000000005E-4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.1119E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.16200999999999999</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.0230730000000001</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.19478699999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.22705900000000001</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.32363700000000001</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.24582200000000001</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.10262400000000001</v>
+      </c>
+      <c r="R18" s="2">
+        <v>83.649760999999998</v>
+      </c>
+      <c r="S18" s="3">
+        <v>461.14435099999997</v>
+      </c>
+      <c r="T18" s="3">
+        <v>124.029076</v>
+      </c>
+      <c r="U18" s="7">
+        <v>24</v>
+      </c>
+      <c r="V18" s="2">
+        <v>701.67531299999996</v>
+      </c>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>5.1392E-2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.0819999999999997E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.5171999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5909819999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.18975700000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.2931660000000003</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.127331</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.5214999999999999E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6.8454000000000001E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.215317</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1.306146</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.9109999999999999E-3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.210976</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.64674200000000004</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2.1937999999999999E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7.8716999999999995E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>83.611896000000002</v>
+      </c>
+      <c r="S19" s="3">
+        <v>460.59688299999999</v>
+      </c>
+      <c r="T19" s="3">
+        <v>122.689764</v>
+      </c>
+      <c r="U19" s="7">
+        <v>24</v>
+      </c>
+      <c r="V19" s="2">
+        <v>690.00891100000001</v>
+      </c>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4.1648999999999999E-2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.7253999999999997E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.4569320000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.111205</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.3833839999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.182977</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.1789160000000001</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.14155400000000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.7113E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.17353499999999999</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.1755930000000001</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.16705100000000001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.107228</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.16352</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.16021099999999999</v>
+      </c>
+      <c r="R20" s="2">
+        <v>85.491533000000004</v>
+      </c>
+      <c r="S20" s="3">
+        <v>439.527288</v>
+      </c>
+      <c r="T20" s="9">
+        <v>101.479457</v>
+      </c>
+      <c r="U20" s="7">
+        <v>24</v>
+      </c>
+      <c r="V20" s="2">
+        <v>701.07653800000003</v>
+      </c>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>5.1062999999999997E-2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.3356000000000001E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.5374650000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.5899E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5957159999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.18986900000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.1218810000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.15557299999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.164849</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.158115</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.70306000000000002</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.20533999999999999</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2.0858000000000002E-2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.36618499999999998</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.52782700000000005</v>
+      </c>
+      <c r="R21" s="2">
+        <v>84.132823000000002</v>
+      </c>
+      <c r="S21" s="3">
+        <v>465.38189199999999</v>
+      </c>
+      <c r="T21" s="3">
+        <v>122.94636</v>
+      </c>
+      <c r="U21" s="13">
+        <v>21</v>
+      </c>
+      <c r="V21" s="2">
+        <v>699.68885699999998</v>
+      </c>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>5.0911999999999999E-2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.0401000000000001E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.3446699999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.374E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.562935</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.18991</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.1689410000000002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.13569000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.5576E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.17176</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.87099000000000004</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.94296199999999997</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.6949999999999999E-3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.19888500000000001</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.57572000000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.0414E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.1048</v>
+      </c>
+      <c r="R22" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S22" s="9">
+        <v>406.98765700000001</v>
+      </c>
+      <c r="T22" s="3">
+        <v>121.957863</v>
+      </c>
+      <c r="U22" s="7">
+        <v>24</v>
+      </c>
+      <c r="V22" s="2">
+        <v>706.401611</v>
+      </c>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>3.8925000000000001E-2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.3619E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.499565</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.9907999999999999E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5986020000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.19075600000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.5555110000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.13702500000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.4543E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.168296</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.1996640000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.63164900000000002</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.335E-3</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.18993399999999999</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.118691</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2.2398000000000001E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9.5465999999999995E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>84.464112999999998</v>
+      </c>
+      <c r="S23" s="9">
+        <v>490.45349599999997</v>
+      </c>
+      <c r="T23" s="3">
+        <v>126.444957</v>
+      </c>
+      <c r="U23" s="7">
+        <v>24</v>
+      </c>
+      <c r="V23" s="2">
+        <v>706.29663100000005</v>
+      </c>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>5.1498000000000002E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.0960999999999999E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.5179469999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.21063299999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5909469999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.19196099999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7.3401630000000004</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.13610700000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.5720999999999999E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.17411099999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.212812</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.88413200000000003</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.21445</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.629162</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.4494E-2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.142342</v>
+      </c>
+      <c r="R24" s="2">
+        <v>83.620598999999999</v>
+      </c>
+      <c r="S24" s="3">
+        <v>460.32694600000002</v>
+      </c>
+      <c r="T24" s="9">
+        <v>147.18702200000001</v>
+      </c>
+      <c r="U24" s="7">
+        <v>24</v>
+      </c>
+      <c r="V24" s="2">
+        <v>693.57818599999996</v>
+      </c>
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>5.0775000000000001E-2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5.2738E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.4846330000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.7575E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.6840419999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.191084</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7.2536829999999997</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.115674</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.349412</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.16690099999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.2017709999999999</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.69641600000000004</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4.95E-4</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.19619400000000001</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.29856700000000003</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.28985100000000003</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>8.1916000000000003E-2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>83.868274999999997</v>
+      </c>
+      <c r="S25" s="3">
+        <v>460.72825599999999</v>
+      </c>
+      <c r="T25" s="3">
+        <v>124.137676</v>
+      </c>
+      <c r="U25" s="8">
+        <v>16.969563000000001</v>
+      </c>
+      <c r="V25" s="2">
+        <v>693.02019299999995</v>
+      </c>
+      <c r="W25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W3" r:id="rId1" display="GA_UTS_AT12_0.5.csv" xr:uid="{0964D702-B9B5-4310-88C0-03C14D15F4D8}"/>
+    <hyperlink ref="W4:W5" r:id="rId2" display="GA_UTS_AT12_None.csv" xr:uid="{0BD64131-1645-42AF-86A8-014DEFA41351}"/>
+    <hyperlink ref="W6" r:id="rId3" display="GA_UTS_AT12_None.csv" xr:uid="{BC8B71E2-6AF3-42E0-96EB-9A0DF531405A}"/>
+    <hyperlink ref="W7" r:id="rId4" display="GA_UTS_AT12_None.csv" xr:uid="{0B505BC2-9B58-403B-8F1C-AF5707CFC1D9}"/>
+    <hyperlink ref="W8" r:id="rId5" display="GA_UTS_AT12_1.0.csv" xr:uid="{382114CA-D80D-4A74-9A90-F57B42893E10}"/>
+    <hyperlink ref="W9" r:id="rId6" display="GA_UTS_AT12_0.5.csv" xr:uid="{51E31B25-2488-43FE-B082-59ECB359E05D}"/>
+    <hyperlink ref="W11" r:id="rId7" display="GA_UTS_AT24_0.5.csv" xr:uid="{193A60F2-310B-476D-86C4-F3BBB28AEA87}"/>
+    <hyperlink ref="W12" r:id="rId8" display="GA_UTS_AT48_None.csv" xr:uid="{62E9CAC5-E252-4A38-8A2C-14BF67D834C6}"/>
+    <hyperlink ref="W13" r:id="rId9" display="GA_UTS_AT48_None.csv" xr:uid="{B3A7E1D5-08FC-4891-97C9-9E3E1BE9A083}"/>
+    <hyperlink ref="W14" r:id="rId10" display="GA_UTS_AT48_1.0.csv" xr:uid="{C54E3F7C-6B98-4806-A8B4-28CA199F0ED4}"/>
+    <hyperlink ref="W15" r:id="rId11" display="GA_UTS_AT48_None.csv" xr:uid="{FC3FDF9B-3753-459D-B776-44653E0A2A23}"/>
+    <hyperlink ref="W16" r:id="rId12" display="GA_UTS_AT24_None.csv" xr:uid="{A658E2DE-81D6-498A-B57A-2D79B9F573E0}"/>
+    <hyperlink ref="W17" r:id="rId13" display="GA_UTS_AT48_None.csv" xr:uid="{0E9F67BC-080E-4440-A527-C5C8EDDABDBD}"/>
+    <hyperlink ref="W18" r:id="rId14" display="GA_UTS_AT48_1.0.csv" xr:uid="{7B114B21-3301-4540-91FE-D5AF99DDDA6C}"/>
+    <hyperlink ref="W19" r:id="rId15" display="GA_UTS_AT24_0.5.csv" xr:uid="{7DB0FFDA-A7AB-4A07-9A00-47164AE38256}"/>
+    <hyperlink ref="W20" r:id="rId16" display="GA_UTS_AT24_None.csv" xr:uid="{4991DBFC-3438-4856-A365-1AC7D5A79397}"/>
+    <hyperlink ref="W21" r:id="rId17" display="GA_UTS_AT48_0.5.csv" xr:uid="{1EC0C6F3-ABBF-4F86-89C7-C77BF9646442}"/>
+    <hyperlink ref="W22" r:id="rId18" display="GA_UTS_AT24_0.5.csv" xr:uid="{8E10C4AD-795F-4E26-B054-B37B968588DE}"/>
+    <hyperlink ref="W23" r:id="rId19" display="GA_UTS_AT24_1.0.csv" xr:uid="{F7B65F3D-4783-47AD-8061-204FAE085CFD}"/>
+    <hyperlink ref="W24" r:id="rId20" display="GA_UTS_AT24_0.5.csv" xr:uid="{1AAC0D06-8E6B-4BD0-8F5E-FC5508CFEC1F}"/>
+    <hyperlink ref="W25" r:id="rId21" display="GA_UTS_AT48_None.csv" xr:uid="{9107E8B9-F126-4774-AF69-08958484AB24}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignSearch/GA-UTS-XGB/Design.xlsx
+++ b/DesignSearch/GA-UTS-XGB/Design.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLandAl\TheFinal\DesignSearch\GA-UTS-XGB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\DesignSearch\GA-UTS-XGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7955D-DA2A-465A-9FC9-8834349CF123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529A9F3-DE40-40A9-92FB-9E4FE7D62C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32040" yWindow="1395" windowWidth="22290" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="粗筛" sheetId="1" r:id="rId1"/>
+    <sheet name="精筛" sheetId="2" r:id="rId2"/>
+    <sheet name="实验" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">粗筛!$A$1:$W$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">实验!$U$17:$U$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Si</t>
   </si>
@@ -127,13 +129,78 @@
   <si>
     <t>GA_UTS_AT48_None.csv</t>
   </si>
+  <si>
+    <t>Exp-SS Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp-A Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按生成文件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1挑选UTS最高的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2挑选每种元素的最大值和最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3挑选各工艺参数的最大值和最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按时效时间分类筛选（12、24、36、48）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1挑选各元素的最大值与0值（0值只出现一次，若没有0值则选取最小值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2挑选各工艺参数的最大值与最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.拟定实际实验工艺参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1按固溶温度分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2按时效温度升序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3按时效时间升序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.加工流程：熔炼→均质化→成形→固溶处理→时效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +236,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +347,43 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,26 +666,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W154"/>
+  <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="7.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="3"/>
-    <col min="20" max="20" width="12.75" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="1"/>
+    <col min="1" max="18" width="7.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="12.77734375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="1"/>
     <col min="23" max="23" width="22" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.875" style="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6.0000000000000002E-6</v>
       </c>
@@ -669,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>9.0000000000000002E-6</v>
       </c>
@@ -738,7 +895,7 @@
       </c>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -807,7 +964,7 @@
       </c>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -876,7 +1033,7 @@
       </c>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -900,7 +1057,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4.1999999999999998E-5</v>
       </c>
@@ -971,7 +1128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1040,7 +1197,7 @@
       </c>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1109,7 +1266,7 @@
       </c>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1178,8 +1335,8 @@
       </c>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.2615000000000002E-2</v>
       </c>
@@ -1250,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5.2617999999999998E-2</v>
       </c>
@@ -1319,7 +1476,7 @@
       </c>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5.2613E-2</v>
       </c>
@@ -1388,7 +1545,7 @@
       </c>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.05</v>
       </c>
@@ -1457,7 +1614,7 @@
       </c>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.05</v>
       </c>
@@ -1526,7 +1683,7 @@
       </c>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5.2621000000000001E-2</v>
       </c>
@@ -1595,7 +1752,7 @@
       </c>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5.2618999999999999E-2</v>
       </c>
@@ -1664,7 +1821,7 @@
       </c>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5.2617999999999998E-2</v>
       </c>
@@ -1733,7 +1890,7 @@
       </c>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.05</v>
       </c>
@@ -1802,7 +1959,7 @@
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.05</v>
       </c>
@@ -1871,7 +2028,7 @@
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.05</v>
       </c>
@@ -1940,7 +2097,7 @@
       </c>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.05</v>
       </c>
@@ -2009,7 +2166,7 @@
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.05</v>
       </c>
@@ -2078,7 +2235,7 @@
       </c>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.05</v>
       </c>
@@ -2147,8 +2304,8 @@
       </c>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5.1479999999999998E-2</v>
       </c>
@@ -2219,7 +2376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -2288,7 +2445,7 @@
       </c>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>5.0388000000000002E-2</v>
       </c>
@@ -2357,7 +2514,7 @@
       </c>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>5.1241000000000002E-2</v>
       </c>
@@ -2426,7 +2583,7 @@
       </c>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5.0911999999999999E-2</v>
       </c>
@@ -2495,7 +2652,7 @@
       </c>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5.1499999999999997E-2</v>
       </c>
@@ -2564,7 +2721,7 @@
       </c>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4.4500999999999999E-2</v>
       </c>
@@ -2633,7 +2790,7 @@
       </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5.1312000000000003E-2</v>
       </c>
@@ -2702,7 +2859,7 @@
       </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5.0408000000000001E-2</v>
       </c>
@@ -2771,7 +2928,7 @@
       </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>5.0972000000000003E-2</v>
       </c>
@@ -2840,7 +2997,7 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5.1408000000000002E-2</v>
       </c>
@@ -2909,7 +3066,7 @@
       </c>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4.9584999999999997E-2</v>
       </c>
@@ -2978,7 +3135,7 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>5.0374000000000002E-2</v>
       </c>
@@ -3047,7 +3204,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5.1207000000000003E-2</v>
       </c>
@@ -3116,7 +3273,7 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5.1392E-2</v>
       </c>
@@ -3185,7 +3342,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5.1175999999999999E-2</v>
       </c>
@@ -3254,7 +3411,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5.1457000000000003E-2</v>
       </c>
@@ -3323,7 +3480,7 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>5.1421000000000001E-2</v>
       </c>
@@ -3392,7 +3549,7 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>3.2703999999999997E-2</v>
       </c>
@@ -3461,7 +3618,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>5.1480999999999999E-2</v>
       </c>
@@ -3530,7 +3687,7 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>5.0911999999999999E-2</v>
       </c>
@@ -3599,7 +3756,7 @@
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>5.1498000000000002E-2</v>
       </c>
@@ -3668,7 +3825,7 @@
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>5.1480999999999999E-2</v>
       </c>
@@ -3737,8 +3894,7 @@
       </c>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4.1500000000000002E-2</v>
       </c>
@@ -3809,7 +3965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -3878,7 +4034,7 @@
       </c>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>3.6766E-2</v>
       </c>
@@ -3947,7 +4103,7 @@
       </c>
       <c r="W53" s="10"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -4016,7 +4172,7 @@
       </c>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>3.9828000000000002E-2</v>
       </c>
@@ -4085,7 +4241,7 @@
       </c>
       <c r="W55" s="10"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4.1589000000000001E-2</v>
       </c>
@@ -4154,7 +4310,7 @@
       </c>
       <c r="W56" s="10"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4.0716000000000002E-2</v>
       </c>
@@ -4223,7 +4379,7 @@
       </c>
       <c r="W57" s="10"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>8.3359999999999997E-3</v>
       </c>
@@ -4292,7 +4448,7 @@
       </c>
       <c r="W58" s="10"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>7.7939999999999997E-3</v>
       </c>
@@ -4361,7 +4517,7 @@
       </c>
       <c r="W59" s="10"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4.1596000000000001E-2</v>
       </c>
@@ -4430,7 +4586,7 @@
       </c>
       <c r="W60" s="10"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -4499,7 +4655,7 @@
       </c>
       <c r="W61" s="10"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4.1660999999999997E-2</v>
       </c>
@@ -4568,7 +4724,7 @@
       </c>
       <c r="W62" s="10"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>4.129E-2</v>
       </c>
@@ -4637,7 +4793,7 @@
       </c>
       <c r="W63" s="10"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -4706,7 +4862,7 @@
       </c>
       <c r="W64" s="10"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>3.8925000000000001E-2</v>
       </c>
@@ -4775,7 +4931,7 @@
       </c>
       <c r="W65" s="10"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>4.0598000000000002E-2</v>
       </c>
@@ -4844,7 +5000,7 @@
       </c>
       <c r="W66" s="10"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1.1827000000000001E-2</v>
       </c>
@@ -4913,7 +5069,7 @@
       </c>
       <c r="W67" s="10"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -4982,8 +5138,7 @@
       </c>
       <c r="W68" s="10"/>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -5054,7 +5209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -5123,7 +5278,7 @@
       </c>
       <c r="W71" s="10"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -5192,7 +5347,7 @@
       </c>
       <c r="W72" s="10"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -5261,7 +5416,7 @@
       </c>
       <c r="W73" s="10"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>4.4232E-2</v>
       </c>
@@ -5330,7 +5485,7 @@
       </c>
       <c r="W74" s="10"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>4.0743000000000001E-2</v>
       </c>
@@ -5399,7 +5554,7 @@
       </c>
       <c r="W75" s="10"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -5468,7 +5623,7 @@
       </c>
       <c r="W76" s="10"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -5537,7 +5692,7 @@
       </c>
       <c r="W77" s="10"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -5606,7 +5761,7 @@
       </c>
       <c r="W78" s="10"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>4.9534000000000002E-2</v>
       </c>
@@ -5675,7 +5830,7 @@
       </c>
       <c r="W79" s="10"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>3.9503999999999997E-2</v>
       </c>
@@ -5744,7 +5899,7 @@
       </c>
       <c r="W80" s="10"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>4.9522999999999998E-2</v>
       </c>
@@ -5813,7 +5968,7 @@
       </c>
       <c r="W81" s="10"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>4.9949E-2</v>
       </c>
@@ -5882,7 +6037,7 @@
       </c>
       <c r="W82" s="10"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>4.7293000000000002E-2</v>
       </c>
@@ -5951,7 +6106,7 @@
       </c>
       <c r="W83" s="10"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -6020,7 +6175,7 @@
       </c>
       <c r="W84" s="10"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -6089,7 +6244,7 @@
       </c>
       <c r="W85" s="10"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -6158,7 +6313,7 @@
       </c>
       <c r="W86" s="10"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>4.1648999999999999E-2</v>
       </c>
@@ -6227,8 +6382,7 @@
       </c>
       <c r="W87" s="10"/>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5.1276000000000002E-2</v>
       </c>
@@ -6299,7 +6453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>0</v>
       </c>
@@ -6368,7 +6522,7 @@
       </c>
       <c r="W90" s="10"/>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5.1213000000000002E-2</v>
       </c>
@@ -6437,7 +6591,7 @@
       </c>
       <c r="W91" s="10"/>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>4.3701999999999998E-2</v>
       </c>
@@ -6506,7 +6660,7 @@
       </c>
       <c r="W92" s="10"/>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5.0992000000000003E-2</v>
       </c>
@@ -6575,7 +6729,7 @@
       </c>
       <c r="W93" s="10"/>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>4.9015999999999997E-2</v>
       </c>
@@ -6644,7 +6798,7 @@
       </c>
       <c r="W94" s="10"/>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5.1111999999999998E-2</v>
       </c>
@@ -6713,7 +6867,7 @@
       </c>
       <c r="W95" s="10"/>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5.1229999999999998E-2</v>
       </c>
@@ -6782,7 +6936,7 @@
       </c>
       <c r="W96" s="10"/>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>4.8773999999999998E-2</v>
       </c>
@@ -6851,7 +7005,7 @@
       </c>
       <c r="W97" s="10"/>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5.1171000000000001E-2</v>
       </c>
@@ -6920,7 +7074,7 @@
       </c>
       <c r="W98" s="10"/>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5.1026000000000002E-2</v>
       </c>
@@ -6989,7 +7143,7 @@
       </c>
       <c r="W99" s="10"/>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5.0056000000000003E-2</v>
       </c>
@@ -7058,7 +7212,7 @@
       </c>
       <c r="W100" s="10"/>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5.1652999999999998E-2</v>
       </c>
@@ -7127,7 +7281,7 @@
       </c>
       <c r="W101" s="10"/>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>4.5727999999999998E-2</v>
       </c>
@@ -7196,7 +7350,7 @@
       </c>
       <c r="W102" s="10"/>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5.0286999999999998E-2</v>
       </c>
@@ -7265,7 +7419,7 @@
       </c>
       <c r="W103" s="10"/>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>5.1721000000000003E-2</v>
       </c>
@@ -7334,7 +7488,7 @@
       </c>
       <c r="W104" s="10"/>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>5.1180999999999997E-2</v>
       </c>
@@ -7403,7 +7557,7 @@
       </c>
       <c r="W105" s="10"/>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>5.1399E-2</v>
       </c>
@@ -7472,7 +7626,7 @@
       </c>
       <c r="W106" s="10"/>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>5.0344E-2</v>
       </c>
@@ -7541,7 +7695,7 @@
       </c>
       <c r="W107" s="10"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>5.1062999999999997E-2</v>
       </c>
@@ -7610,8 +7764,7 @@
       </c>
       <c r="W108" s="10"/>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>5.4432000000000001E-2</v>
       </c>
@@ -7682,7 +7835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>0</v>
       </c>
@@ -7751,7 +7904,7 @@
       </c>
       <c r="W111" s="10"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>3.7766000000000001E-2</v>
       </c>
@@ -7820,7 +7973,7 @@
       </c>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>4.2618000000000003E-2</v>
       </c>
@@ -7889,7 +8042,7 @@
       </c>
       <c r="W113" s="10"/>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>4.052E-2</v>
       </c>
@@ -7958,7 +8111,7 @@
       </c>
       <c r="W114" s="10"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>3.3050000000000002E-3</v>
       </c>
@@ -8027,7 +8180,7 @@
       </c>
       <c r="W115" s="10"/>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1.686E-2</v>
       </c>
@@ -8096,7 +8249,7 @@
       </c>
       <c r="W116" s="10"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>5.4384000000000002E-2</v>
       </c>
@@ -8165,7 +8318,7 @@
       </c>
       <c r="W117" s="10"/>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>1.4704999999999999E-2</v>
       </c>
@@ -8234,7 +8387,7 @@
       </c>
       <c r="W118" s="10"/>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>4.2824000000000001E-2</v>
       </c>
@@ -8303,7 +8456,7 @@
       </c>
       <c r="W119" s="10"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>4.2702999999999998E-2</v>
       </c>
@@ -8372,7 +8525,7 @@
       </c>
       <c r="W120" s="10"/>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>4.2805000000000003E-2</v>
       </c>
@@ -8441,7 +8594,7 @@
       </c>
       <c r="W121" s="10"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>4.2854000000000003E-2</v>
       </c>
@@ -8510,7 +8663,7 @@
       </c>
       <c r="W122" s="10"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1.312E-3</v>
       </c>
@@ -8579,7 +8732,7 @@
       </c>
       <c r="W123" s="10"/>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>4.2818000000000002E-2</v>
       </c>
@@ -8648,7 +8801,7 @@
       </c>
       <c r="W124" s="10"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>4.2811000000000002E-2</v>
       </c>
@@ -8717,7 +8870,7 @@
       </c>
       <c r="W125" s="10"/>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>4.1128999999999999E-2</v>
       </c>
@@ -8786,7 +8939,7 @@
       </c>
       <c r="W126" s="10"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>4.2802E-2</v>
       </c>
@@ -8855,7 +9008,7 @@
       </c>
       <c r="W127" s="10"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>4.2209999999999998E-2</v>
       </c>
@@ -8924,7 +9077,7 @@
       </c>
       <c r="W128" s="10"/>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>3.5118999999999997E-2</v>
       </c>
@@ -8993,7 +9146,7 @@
       </c>
       <c r="W129" s="10"/>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>5.4432000000000001E-2</v>
       </c>
@@ -9062,8 +9215,7 @@
       </c>
       <c r="W130" s="10"/>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>5.0756000000000003E-2</v>
       </c>
@@ -9134,7 +9286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>0</v>
       </c>
@@ -9203,7 +9355,7 @@
       </c>
       <c r="W133" s="10"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>5.0710999999999999E-2</v>
       </c>
@@ -9272,7 +9424,7 @@
       </c>
       <c r="W134" s="10"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>5.0744999999999998E-2</v>
       </c>
@@ -9341,7 +9493,7 @@
       </c>
       <c r="W135" s="10"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -9410,7 +9562,7 @@
       </c>
       <c r="W136" s="10"/>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>4.2917999999999998E-2</v>
       </c>
@@ -9479,7 +9631,7 @@
       </c>
       <c r="W137" s="10"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>5.0774E-2</v>
       </c>
@@ -9548,7 +9700,7 @@
       </c>
       <c r="W138" s="10"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>5.0512000000000001E-2</v>
       </c>
@@ -9617,7 +9769,7 @@
       </c>
       <c r="W139" s="10"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>5.0783000000000002E-2</v>
       </c>
@@ -9686,7 +9838,7 @@
       </c>
       <c r="W140" s="10"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>5.0777000000000003E-2</v>
       </c>
@@ -9755,7 +9907,7 @@
       </c>
       <c r="W141" s="10"/>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>4.9265000000000003E-2</v>
       </c>
@@ -9824,7 +9976,7 @@
       </c>
       <c r="W142" s="10"/>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>5.0784000000000003E-2</v>
       </c>
@@ -9893,7 +10045,7 @@
       </c>
       <c r="W143" s="10"/>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>5.0188000000000003E-2</v>
       </c>
@@ -9962,7 +10114,7 @@
       </c>
       <c r="W144" s="10"/>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>5.0756000000000003E-2</v>
       </c>
@@ -10031,7 +10183,7 @@
       </c>
       <c r="W145" s="10"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>3.1229999999999999E-3</v>
       </c>
@@ -10100,7 +10252,7 @@
       </c>
       <c r="W146" s="10"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>5.0764999999999998E-2</v>
       </c>
@@ -10169,7 +10321,7 @@
       </c>
       <c r="W147" s="10"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>5.0775000000000001E-2</v>
       </c>
@@ -10238,7 +10390,7 @@
       </c>
       <c r="W148" s="10"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>5.0373000000000001E-2</v>
       </c>
@@ -10307,7 +10459,7 @@
       </c>
       <c r="W149" s="10"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>4.0128999999999998E-2</v>
       </c>
@@ -10376,7 +10528,7 @@
       </c>
       <c r="W150" s="10"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>5.0776000000000002E-2</v>
       </c>
@@ -10445,7 +10597,7 @@
       </c>
       <c r="W151" s="10"/>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>5.0081000000000001E-2</v>
       </c>
@@ -10514,7 +10666,7 @@
       </c>
       <c r="W152" s="10"/>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -10583,7 +10735,7 @@
       </c>
       <c r="W153" s="10"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>5.0775000000000001E-2</v>
       </c>
@@ -10652,39 +10804,129 @@
       </c>
       <c r="W154" s="10"/>
     </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
+      <c r="P156" s="25"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25"/>
+      <c r="W156" s="25"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="25"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+      <c r="W157" s="25"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="25"/>
+      <c r="W158" s="25"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
+      <c r="P159" s="25"/>
+      <c r="Q159" s="25"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="25"/>
+      <c r="W159" s="25"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W154" xr:uid="{7185D57F-62ED-408D-92F1-147A3AFD3DEB}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="17.0"/>
-        <filter val="19.0"/>
-        <filter val="20.1"/>
-        <filter val="21.0"/>
-        <filter val="22.0"/>
-        <filter val="22.4"/>
-        <filter val="23.0"/>
-        <filter val="23.8"/>
-        <filter val="23.9"/>
-        <filter val="24.0"/>
-        <filter val="24.1"/>
-        <filter val="24.2"/>
-        <filter val="24.3"/>
-        <filter val="24.4"/>
-        <filter val="24.5"/>
-        <filter val="24.6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A157:W157"/>
+    <mergeCell ref="A158:W158"/>
+    <mergeCell ref="A159:W159"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="W27:W49"/>
+    <mergeCell ref="W51:W68"/>
+    <mergeCell ref="A156:W156"/>
     <mergeCell ref="W110:W130"/>
     <mergeCell ref="W132:W154"/>
     <mergeCell ref="W70:W87"/>
     <mergeCell ref="W89:W108"/>
     <mergeCell ref="W12:W25"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="W7:W10"/>
-    <mergeCell ref="W27:W49"/>
-    <mergeCell ref="W51:W68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10705,15 +10947,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551BBA8A-A6CE-44A2-9B20-80695DB12B61}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="7.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10772,16 +11024,22 @@
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5.2615000000000002E-2</v>
       </c>
@@ -10848,8 +11106,15 @@
       <c r="V2" s="4">
         <v>690.70461</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="20">
+        <v>460</v>
+      </c>
+      <c r="X2" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>9.0000000000000002E-6</v>
       </c>
@@ -10868,7 +11133,7 @@
       <c r="F3" s="4">
         <v>2.7690000000000002E-3</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="2">
         <v>7.8140739999999997</v>
       </c>
       <c r="H3" s="2">
@@ -10916,9 +11181,15 @@
       <c r="V3" s="2">
         <v>686.10647400000005</v>
       </c>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="20">
+        <v>460</v>
+      </c>
+      <c r="X3" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.2613E-2</v>
       </c>
@@ -10985,9 +11256,15 @@
       <c r="V4" s="2">
         <v>686.49708099999998</v>
       </c>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="20">
+        <v>460</v>
+      </c>
+      <c r="X4" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.05</v>
       </c>
@@ -11054,9 +11331,15 @@
       <c r="V5" s="1">
         <v>685.64</v>
       </c>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W5" s="20">
+        <v>460</v>
+      </c>
+      <c r="X5" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5.2617999999999998E-2</v>
       </c>
@@ -11123,9 +11406,15 @@
       <c r="V6" s="2">
         <v>687.93378700000005</v>
       </c>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="20">
+        <v>460</v>
+      </c>
+      <c r="X6" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y6" s="15"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5.2618999999999999E-2</v>
       </c>
@@ -11192,9 +11481,15 @@
       <c r="V7" s="2">
         <v>687.69275900000002</v>
       </c>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="20">
+        <v>460</v>
+      </c>
+      <c r="X7" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -11261,9 +11556,15 @@
       <c r="V8" s="2">
         <v>686.23226699999998</v>
       </c>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="20">
+        <v>460</v>
+      </c>
+      <c r="X8" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -11330,9 +11631,18 @@
       <c r="V9" s="2">
         <v>686.09214199999997</v>
       </c>
-      <c r="W9"/>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W9" s="20">
+        <v>460</v>
+      </c>
+      <c r="X9" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5.1479999999999998E-2</v>
       </c>
@@ -11378,7 +11688,7 @@
       <c r="O11" s="4">
         <v>0.68472599999999995</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
       <c r="Q11" s="2">
@@ -11399,9 +11709,15 @@
       <c r="V11" s="4">
         <v>717.41967799999998</v>
       </c>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W11" s="20">
+        <v>460</v>
+      </c>
+      <c r="X11" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.0744999999999998E-2</v>
       </c>
@@ -11468,9 +11784,15 @@
       <c r="V12" s="2">
         <v>690.36627599999997</v>
       </c>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="20">
+        <v>460</v>
+      </c>
+      <c r="X12" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -11537,9 +11859,15 @@
       <c r="V13" s="2">
         <v>692.54077199999995</v>
       </c>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="20">
+        <v>460</v>
+      </c>
+      <c r="X13" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5.4384000000000002E-2</v>
       </c>
@@ -11606,9 +11934,15 @@
       <c r="V14" s="2">
         <v>690.45747800000004</v>
       </c>
-      <c r="W14"/>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="20">
+        <v>460</v>
+      </c>
+      <c r="X14" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5.0783000000000002E-2</v>
       </c>
@@ -11675,9 +12009,15 @@
       <c r="V15" s="2">
         <v>687.22125100000005</v>
       </c>
-      <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="20">
+        <v>460</v>
+      </c>
+      <c r="X15" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5.0545E-2</v>
       </c>
@@ -11732,7 +12072,7 @@
       <c r="R16" s="2">
         <v>83.710819000000001</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="3">
         <v>431.99744500000003</v>
       </c>
       <c r="T16" s="3">
@@ -11744,9 +12084,15 @@
       <c r="V16" s="2">
         <v>702.36572799999999</v>
       </c>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="18">
+        <v>436</v>
+      </c>
+      <c r="X16" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y16" s="15"/>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5.0774E-2</v>
       </c>
@@ -11813,9 +12159,15 @@
       <c r="V17" s="2">
         <v>685.20957499999997</v>
       </c>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="16">
+        <v>450</v>
+      </c>
+      <c r="X17" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="15"/>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4.2702999999999998E-2</v>
       </c>
@@ -11882,9 +12234,15 @@
       <c r="V18" s="2">
         <v>701.67531299999996</v>
       </c>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W18" s="20">
+        <v>460</v>
+      </c>
+      <c r="X18" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y18" s="15"/>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5.1392E-2</v>
       </c>
@@ -11951,9 +12309,15 @@
       <c r="V19" s="2">
         <v>690.00891100000001</v>
       </c>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W19" s="20">
+        <v>460</v>
+      </c>
+      <c r="X19" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4.1648999999999999E-2</v>
       </c>
@@ -12020,9 +12384,15 @@
       <c r="V20" s="2">
         <v>701.07653800000003</v>
       </c>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="18">
+        <v>436</v>
+      </c>
+      <c r="X20" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="15"/>
+    </row>
+    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5.1062999999999997E-2</v>
       </c>
@@ -12083,15 +12453,21 @@
       <c r="T21" s="3">
         <v>122.94636</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="7">
         <v>21</v>
       </c>
       <c r="V21" s="2">
         <v>699.68885699999998</v>
       </c>
-      <c r="W21"/>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W21" s="20">
+        <v>460</v>
+      </c>
+      <c r="X21" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5.0911999999999999E-2</v>
       </c>
@@ -12158,9 +12534,15 @@
       <c r="V22" s="2">
         <v>706.401611</v>
       </c>
-      <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W22" s="17">
+        <v>410</v>
+      </c>
+      <c r="X22" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y22" s="15"/>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3.8925000000000001E-2</v>
       </c>
@@ -12227,9 +12609,15 @@
       <c r="V23" s="2">
         <v>706.29663100000005</v>
       </c>
-      <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W23" s="19">
+        <v>490</v>
+      </c>
+      <c r="X23" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y23" s="15"/>
+    </row>
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5.1498000000000002E-2</v>
       </c>
@@ -12296,9 +12684,15 @@
       <c r="V24" s="2">
         <v>693.57818599999996</v>
       </c>
-      <c r="W24"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W24" s="20">
+        <v>460</v>
+      </c>
+      <c r="X24" s="24">
+        <v>147</v>
+      </c>
+      <c r="Y24" s="15"/>
+    </row>
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5.0775000000000001E-2</v>
       </c>
@@ -12365,33 +12759,4128 @@
       <c r="V25" s="2">
         <v>693.02019299999995</v>
       </c>
-      <c r="W25"/>
+      <c r="W25" s="20">
+        <v>460</v>
+      </c>
+      <c r="X25" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y25" s="15"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y26" s="15"/>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5.1213000000000002E-2</v>
+      </c>
+      <c r="B27" s="11">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.5442170000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.6879999999999999E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5912890000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.19053899999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7.1762069999999998</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.14583499999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.7801999999999998E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.16505900000000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.192399</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.71694999999999998</v>
+      </c>
+      <c r="M27" s="2">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.23555499999999999</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2.1082E-2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.28231800000000001</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.53389799999999998</v>
+      </c>
+      <c r="R27" s="2">
+        <v>84.117998</v>
+      </c>
+      <c r="S27" s="3">
+        <v>461.74449800000002</v>
+      </c>
+      <c r="T27" s="3">
+        <v>125.48419800000001</v>
+      </c>
+      <c r="U27" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="V27" s="4">
+        <v>714.15695700000003</v>
+      </c>
+      <c r="W27" s="20">
+        <v>460</v>
+      </c>
+      <c r="X27" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y27" s="15"/>
+    </row>
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4.3701999999999998E-2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.30712099999999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.4734280000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.635621</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.18545700000000001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7.29976</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.131134</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.165904</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.1325590000000001</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.42721599999999998</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.20336599999999999</v>
+      </c>
+      <c r="O28" s="2">
+        <v>8.9677999999999994E-2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.27906799999999998</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.51225100000000001</v>
+      </c>
+      <c r="R28" s="2">
+        <v>84.097327000000007</v>
+      </c>
+      <c r="S28" s="3">
+        <v>453.95763799999997</v>
+      </c>
+      <c r="T28" s="3">
+        <v>123.64386399999999</v>
+      </c>
+      <c r="U28" s="7">
+        <v>29</v>
+      </c>
+      <c r="V28" s="2">
+        <v>689.08734900000002</v>
+      </c>
+      <c r="W28" s="16">
+        <v>450</v>
+      </c>
+      <c r="X28" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y28" s="15"/>
+    </row>
+    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4.052E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5.0422000000000002E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.4163790000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.257E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.457068</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.181536</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6.8892740000000003</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.6840000000000002E-3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.0553999999999999E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.15439900000000001</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.1265989999999999</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.155333</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.21657999999999999</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.329156</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.30647099999999999</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.10030600000000001</v>
+      </c>
+      <c r="R29" s="2">
+        <v>83.55</v>
+      </c>
+      <c r="S29" s="3">
+        <v>449.23547600000001</v>
+      </c>
+      <c r="T29" s="3">
+        <v>124.120529</v>
+      </c>
+      <c r="U29" s="7">
+        <v>25</v>
+      </c>
+      <c r="V29" s="2">
+        <v>689.32975399999998</v>
+      </c>
+      <c r="W29" s="16">
+        <v>450</v>
+      </c>
+      <c r="X29" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y29" s="15"/>
+    </row>
+    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1.686E-2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6.7562999999999998E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.61063</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.20586499999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.5857199999999998</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.188385</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7.6843539999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.2134000000000001E-2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3.9050000000000001E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.175897</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.019182</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.39036599999999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.22667599999999999</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.33322400000000002</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.32119900000000001</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.19082399999999999</v>
+      </c>
+      <c r="R30" s="2">
+        <v>83.967021000000003</v>
+      </c>
+      <c r="S30" s="3">
+        <v>437.41459400000002</v>
+      </c>
+      <c r="T30" s="3">
+        <v>124.185166</v>
+      </c>
+      <c r="U30" s="7">
+        <v>29</v>
+      </c>
+      <c r="V30" s="2">
+        <v>691.235726</v>
+      </c>
+      <c r="W30" s="18">
+        <v>436</v>
+      </c>
+      <c r="X30" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y30" s="15"/>
+    </row>
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>5.1229999999999998E-2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.5129999999999998E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.5542720000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.4484E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.1092900000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.190772</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6.957192</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.146205</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1.5414000000000001E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.16608899999999999</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1.1136779999999999</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.720947</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="N31" s="11">
+        <v>9.1282000000000002E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.18045</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.26166899999999998</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R31" s="2">
+        <v>83.821541999999994</v>
+      </c>
+      <c r="S31" s="3">
+        <v>462.37165599999997</v>
+      </c>
+      <c r="T31" s="3">
+        <v>125.578777</v>
+      </c>
+      <c r="U31" s="7">
+        <v>28</v>
+      </c>
+      <c r="V31" s="2">
+        <v>708.05992200000003</v>
+      </c>
+      <c r="W31" s="20">
+        <v>460</v>
+      </c>
+      <c r="X31" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y31" s="15"/>
+    </row>
+    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>5.1171000000000001E-2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.8884999999999998E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.4932370000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.3815000000000002E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.6205569999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.191911</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5.8952239999999998</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.14221800000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.6499E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.182057</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1.179967</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.72300399999999998</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.234241</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4.9119000000000003E-2</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.27655600000000002</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.53894900000000001</v>
+      </c>
+      <c r="R32" s="2">
+        <v>85.302256</v>
+      </c>
+      <c r="S32" s="3">
+        <v>461.82053500000001</v>
+      </c>
+      <c r="T32" s="3">
+        <v>125.12032600000001</v>
+      </c>
+      <c r="U32" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="V32" s="2">
+        <v>685.64190900000006</v>
+      </c>
+      <c r="W32" s="20">
+        <v>460</v>
+      </c>
+      <c r="X32" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y32" s="15"/>
+    </row>
+    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4.9265000000000003E-2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.6803E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.9181330000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.8351000000000001E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.5949369999999998</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.19098899999999999</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8.5761020000000006</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.11398999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.3168000000000003E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.215923</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.98871600000000004</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.72203099999999998</v>
+      </c>
+      <c r="M33" s="2">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.19375500000000001</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.241896</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.28110800000000002</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.127832</v>
+      </c>
+      <c r="R33" s="2">
+        <v>83.696466000000001</v>
+      </c>
+      <c r="S33" s="3">
+        <v>463.28556500000002</v>
+      </c>
+      <c r="T33" s="3">
+        <v>111.579532</v>
+      </c>
+      <c r="U33" s="7">
+        <v>29.448872999999999</v>
+      </c>
+      <c r="V33" s="2">
+        <v>697.71505100000002</v>
+      </c>
+      <c r="W33" s="20">
+        <v>460</v>
+      </c>
+      <c r="X33" s="22">
+        <v>110</v>
+      </c>
+      <c r="Y33" s="15"/>
+    </row>
+    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5.1026000000000002E-2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.5183000000000003E-2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.6068249999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.4370000000000001E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.5888270000000002</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.19076499999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6.6712689999999997</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.14200299999999999</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.69037099999999996</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.14766099999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.0444549999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.64118699999999995</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.23377100000000001</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.14147999999999999</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.22900100000000001</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.48214600000000002</v>
+      </c>
+      <c r="R34" s="2">
+        <v>85.069299999999998</v>
+      </c>
+      <c r="S34" s="3">
+        <v>462.04677700000002</v>
+      </c>
+      <c r="T34" s="3">
+        <v>126.349783</v>
+      </c>
+      <c r="U34" s="7">
+        <v>28</v>
+      </c>
+      <c r="V34" s="2">
+        <v>692.58531300000004</v>
+      </c>
+      <c r="W34" s="20">
+        <v>460</v>
+      </c>
+      <c r="X34" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y34" s="15"/>
+    </row>
+    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>5.0756000000000003E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5.6321999999999997E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.4805459999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.7569999999999999E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.5966</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.19109000000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7.2559370000000003</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.107076</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.113965</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.165877</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.6472230000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.67910099999999995</v>
+      </c>
+      <c r="M35" s="2">
+        <v>8.8099999999999995E-4</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.195914</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.301811</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.32187199999999999</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4.5931E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>83.771525999999994</v>
+      </c>
+      <c r="S35" s="3">
+        <v>460.78202900000002</v>
+      </c>
+      <c r="T35" s="3">
+        <v>124.146327</v>
+      </c>
+      <c r="U35" s="7">
+        <v>25.579461999999999</v>
+      </c>
+      <c r="V35" s="2">
+        <v>707.81101899999999</v>
+      </c>
+      <c r="W35" s="20">
+        <v>460</v>
+      </c>
+      <c r="X35" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y35" s="15"/>
+    </row>
+    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4.5727999999999998E-2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5.2840999999999999E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.5259239999999998</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.2606999999999996E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.6036049999999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.192576</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6.8625410000000002</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.14589299999999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2.8115000000000001E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.164576</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.2048369999999999</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1.1879770000000001</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.12615599999999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>6.4426999999999998E-2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.284827</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.45476</v>
+      </c>
+      <c r="R36" s="2">
+        <v>83.992536999999999</v>
+      </c>
+      <c r="S36" s="3">
+        <v>461.838908</v>
+      </c>
+      <c r="T36" s="3">
+        <v>108.56358899999999</v>
+      </c>
+      <c r="U36" s="7">
+        <v>26</v>
+      </c>
+      <c r="V36" s="2">
+        <v>700.43237599999998</v>
+      </c>
+      <c r="W36" s="20">
+        <v>460</v>
+      </c>
+      <c r="X36" s="22">
+        <v>110</v>
+      </c>
+      <c r="Y36" s="15"/>
+    </row>
+    <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5.1721000000000003E-2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4.2678000000000001E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.4722979999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.5894999999999999E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.8793570000000002</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.18645200000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.2013290000000003</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.130909</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.6435000000000003E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.16888700000000001</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1.19486</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.78736600000000001</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.23158100000000001</v>
+      </c>
+      <c r="O37" s="2">
+        <v>9.5017000000000004E-2</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.28742800000000002</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.52298</v>
+      </c>
+      <c r="R37" s="2">
+        <v>83.654793999999995</v>
+      </c>
+      <c r="S37" s="9">
+        <v>416.37919900000003</v>
+      </c>
+      <c r="T37" s="3">
+        <v>124.162879</v>
+      </c>
+      <c r="U37" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="V37" s="2">
+        <v>711.33997999999997</v>
+      </c>
+      <c r="W37" s="17">
+        <v>410</v>
+      </c>
+      <c r="X37" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>5.1180999999999997E-2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5.4460000000000001E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.5491790000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.6043999999999999E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.5909499999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.19062100000000001</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6.9751950000000003</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.14685400000000001</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.7340000000000001E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.16491600000000001</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.1914210000000001</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.73921000000000003</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.23411399999999999</v>
+      </c>
+      <c r="O38" s="2">
+        <v>4.5039999999999997E-2</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.29297899999999999</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.49794300000000002</v>
+      </c>
+      <c r="R38" s="2">
+        <v>84.242553000000001</v>
+      </c>
+      <c r="S38" s="9">
+        <v>496.35436299999998</v>
+      </c>
+      <c r="T38" s="3">
+        <v>124.62549199999999</v>
+      </c>
+      <c r="U38" s="7">
+        <v>28</v>
+      </c>
+      <c r="V38" s="2">
+        <v>699.340013</v>
+      </c>
+      <c r="W38" s="19">
+        <v>490</v>
+      </c>
+      <c r="X38" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y38" s="15"/>
+    </row>
+    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5.0081000000000001E-2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5.3341E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.4759470000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.5180000000000003E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.595942</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.180372</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7.2836689999999997</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.124143</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.60192199999999996</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.20916</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.67261499999999996</v>
+      </c>
+      <c r="M39" s="2">
+        <v>6.87E-4</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.177901</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.228322</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.28209600000000001</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6.6165000000000002E-2</v>
+      </c>
+      <c r="R39" s="2">
+        <v>83.826217</v>
+      </c>
+      <c r="S39" s="3">
+        <v>459.52745900000002</v>
+      </c>
+      <c r="T39" s="9">
+        <v>96.098415000000003</v>
+      </c>
+      <c r="U39" s="7">
+        <v>26.683617000000002</v>
+      </c>
+      <c r="V39" s="2">
+        <v>692.45409700000005</v>
+      </c>
+      <c r="W39" s="20">
+        <v>460</v>
+      </c>
+      <c r="X39" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="40" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>0</v>
+      </c>
+      <c r="B40" s="11">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2.5374379999999999</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2.5809310000000001</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.19006899999999999</v>
+      </c>
+      <c r="G40" s="11">
+        <v>7.1703669999999997</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.14674100000000001</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.406808</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.16465299999999999</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.184391</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.88123300000000004</v>
+      </c>
+      <c r="M40" s="11">
+        <v>4.08E-4</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0.23308599999999999</v>
+      </c>
+      <c r="O40" s="11">
+        <v>8.7327000000000002E-2</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0.27551300000000001</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0.53673599999999999</v>
+      </c>
+      <c r="R40" s="11">
+        <v>83.55</v>
+      </c>
+      <c r="S40" s="12">
+        <v>452.24628899999999</v>
+      </c>
+      <c r="T40" s="12">
+        <v>125.420175</v>
+      </c>
+      <c r="U40" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="V40" s="11">
+        <v>705.59442899999999</v>
+      </c>
+      <c r="W40" s="16">
+        <v>450</v>
+      </c>
+      <c r="X40" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y40" s="15"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="15"/>
+    </row>
+    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>5.0344E-2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5.8252999999999999E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.847944</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5.0354999999999997E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.5998130000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.19065099999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>7.1901619999999999</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.6885000000000001E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.16483200000000001</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.1920820000000001</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.67293700000000001</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.23120099999999999</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.29034300000000002</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.50664200000000004</v>
+      </c>
+      <c r="R42" s="2">
+        <v>83.779270999999994</v>
+      </c>
+      <c r="S42" s="3">
+        <v>449.97610100000003</v>
+      </c>
+      <c r="T42" s="3">
+        <v>123.098641</v>
+      </c>
+      <c r="U42" s="8">
+        <v>40</v>
+      </c>
+      <c r="V42" s="2">
+        <v>702.34760200000005</v>
+      </c>
+      <c r="W42" s="16">
+        <v>450</v>
+      </c>
+      <c r="X42" s="23">
+        <v>125</v>
+      </c>
+      <c r="Y42" s="15"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A45:X45"/>
+    <mergeCell ref="A46:X46"/>
+    <mergeCell ref="A47:X47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="W3" r:id="rId1" display="GA_UTS_AT12_0.5.csv" xr:uid="{0964D702-B9B5-4310-88C0-03C14D15F4D8}"/>
-    <hyperlink ref="W4:W5" r:id="rId2" display="GA_UTS_AT12_None.csv" xr:uid="{0BD64131-1645-42AF-86A8-014DEFA41351}"/>
-    <hyperlink ref="W6" r:id="rId3" display="GA_UTS_AT12_None.csv" xr:uid="{BC8B71E2-6AF3-42E0-96EB-9A0DF531405A}"/>
-    <hyperlink ref="W7" r:id="rId4" display="GA_UTS_AT12_None.csv" xr:uid="{0B505BC2-9B58-403B-8F1C-AF5707CFC1D9}"/>
-    <hyperlink ref="W8" r:id="rId5" display="GA_UTS_AT12_1.0.csv" xr:uid="{382114CA-D80D-4A74-9A90-F57B42893E10}"/>
-    <hyperlink ref="W9" r:id="rId6" display="GA_UTS_AT12_0.5.csv" xr:uid="{51E31B25-2488-43FE-B082-59ECB359E05D}"/>
-    <hyperlink ref="W11" r:id="rId7" display="GA_UTS_AT24_0.5.csv" xr:uid="{193A60F2-310B-476D-86C4-F3BBB28AEA87}"/>
-    <hyperlink ref="W12" r:id="rId8" display="GA_UTS_AT48_None.csv" xr:uid="{62E9CAC5-E252-4A38-8A2C-14BF67D834C6}"/>
-    <hyperlink ref="W13" r:id="rId9" display="GA_UTS_AT48_None.csv" xr:uid="{B3A7E1D5-08FC-4891-97C9-9E3E1BE9A083}"/>
-    <hyperlink ref="W14" r:id="rId10" display="GA_UTS_AT48_1.0.csv" xr:uid="{C54E3F7C-6B98-4806-A8B4-28CA199F0ED4}"/>
-    <hyperlink ref="W15" r:id="rId11" display="GA_UTS_AT48_None.csv" xr:uid="{FC3FDF9B-3753-459D-B776-44653E0A2A23}"/>
-    <hyperlink ref="W16" r:id="rId12" display="GA_UTS_AT24_None.csv" xr:uid="{A658E2DE-81D6-498A-B57A-2D79B9F573E0}"/>
-    <hyperlink ref="W17" r:id="rId13" display="GA_UTS_AT48_None.csv" xr:uid="{0E9F67BC-080E-4440-A527-C5C8EDDABDBD}"/>
-    <hyperlink ref="W18" r:id="rId14" display="GA_UTS_AT48_1.0.csv" xr:uid="{7B114B21-3301-4540-91FE-D5AF99DDDA6C}"/>
-    <hyperlink ref="W19" r:id="rId15" display="GA_UTS_AT24_0.5.csv" xr:uid="{7DB0FFDA-A7AB-4A07-9A00-47164AE38256}"/>
-    <hyperlink ref="W20" r:id="rId16" display="GA_UTS_AT24_None.csv" xr:uid="{4991DBFC-3438-4856-A365-1AC7D5A79397}"/>
-    <hyperlink ref="W21" r:id="rId17" display="GA_UTS_AT48_0.5.csv" xr:uid="{1EC0C6F3-ABBF-4F86-89C7-C77BF9646442}"/>
-    <hyperlink ref="W22" r:id="rId18" display="GA_UTS_AT24_0.5.csv" xr:uid="{8E10C4AD-795F-4E26-B054-B37B968588DE}"/>
-    <hyperlink ref="W23" r:id="rId19" display="GA_UTS_AT24_1.0.csv" xr:uid="{F7B65F3D-4783-47AD-8061-204FAE085CFD}"/>
-    <hyperlink ref="W24" r:id="rId20" display="GA_UTS_AT24_0.5.csv" xr:uid="{1AAC0D06-8E6B-4BD0-8F5E-FC5508CFEC1F}"/>
-    <hyperlink ref="W25" r:id="rId21" display="GA_UTS_AT48_None.csv" xr:uid="{9107E8B9-F126-4774-AF69-08958484AB24}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61F9FC5-A348-478D-B83B-39A374A7E879}">
+  <dimension ref="A1:V48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:V48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>5.0911999999999999E-2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>5.0401000000000001E-2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.3446699999999998</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.374E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2.562935</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.18991</v>
+      </c>
+      <c r="G2" s="11">
+        <v>7.1689410000000002</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.13569000000000001</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1.5576E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.17176</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.87099000000000004</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.94296199999999997</v>
+      </c>
+      <c r="M2" s="11">
+        <v>1.6949999999999999E-3</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.19888500000000001</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.57572000000000001</v>
+      </c>
+      <c r="P2" s="11">
+        <v>5.0414E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.1048</v>
+      </c>
+      <c r="R2" s="11">
+        <v>83.55</v>
+      </c>
+      <c r="S2" s="17">
+        <v>410</v>
+      </c>
+      <c r="T2" s="23">
+        <v>125</v>
+      </c>
+      <c r="U2" s="13">
+        <v>24</v>
+      </c>
+      <c r="V2" s="11">
+        <v>706.401611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>5.1721000000000003E-2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4.2678000000000001E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2.4722979999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.5894999999999999E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.8793570000000002</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.18645200000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>7.2013290000000003</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.130909</v>
+      </c>
+      <c r="I3" s="11">
+        <v>7.6435000000000003E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.16888700000000001</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1.19486</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.78736600000000001</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.23158100000000001</v>
+      </c>
+      <c r="O3" s="11">
+        <v>9.5017000000000004E-2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.28742800000000002</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.52298</v>
+      </c>
+      <c r="R3" s="11">
+        <v>83.654793999999995</v>
+      </c>
+      <c r="S3" s="17">
+        <v>410</v>
+      </c>
+      <c r="T3" s="23">
+        <v>125</v>
+      </c>
+      <c r="U3" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="V3" s="11">
+        <v>711.33997999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4.1648999999999999E-2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4.7253999999999997E-2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.4569320000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.111205</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.3833839999999999</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.182977</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7.1789160000000001</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.14155400000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.7113E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.17353499999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.1755930000000001</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.16705100000000001</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.107228</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.16352</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.16021099999999999</v>
+      </c>
+      <c r="R5" s="11">
+        <v>85.491533000000004</v>
+      </c>
+      <c r="S5" s="18">
+        <v>436</v>
+      </c>
+      <c r="T5" s="21">
+        <v>100</v>
+      </c>
+      <c r="U5" s="13">
+        <v>24</v>
+      </c>
+      <c r="V5" s="11">
+        <v>701.07653800000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2.4583650000000001</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.2654E-2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2.6584120000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.190355</v>
+      </c>
+      <c r="G6" s="11">
+        <v>8.4084579999999995</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.15059800000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.39186799999999999</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.15667500000000001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1.122217</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.183476</v>
+      </c>
+      <c r="M6" s="11">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.168405</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.10581400000000001</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.110883</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.11984499999999999</v>
+      </c>
+      <c r="R6" s="11">
+        <v>83.710819000000001</v>
+      </c>
+      <c r="S6" s="18">
+        <v>436</v>
+      </c>
+      <c r="T6" s="23">
+        <v>125</v>
+      </c>
+      <c r="U6" s="13">
+        <v>23.944679000000001</v>
+      </c>
+      <c r="V6" s="11">
+        <v>702.36572799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1.686E-2</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6.7562999999999998E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2.61063</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.20586499999999999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.5857199999999998</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.188385</v>
+      </c>
+      <c r="G7" s="11">
+        <v>7.6843539999999999</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.2134000000000001E-2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3.9050000000000001E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.175897</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1.019182</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.39036599999999999</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.22667599999999999</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.33322400000000002</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.32119900000000001</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.19082399999999999</v>
+      </c>
+      <c r="R7" s="11">
+        <v>83.967021000000003</v>
+      </c>
+      <c r="S7" s="18">
+        <v>436</v>
+      </c>
+      <c r="T7" s="23">
+        <v>125</v>
+      </c>
+      <c r="U7" s="13">
+        <v>29</v>
+      </c>
+      <c r="V7" s="11">
+        <v>691.235726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5.0774E-2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4.9328999999999998E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1.9540390000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.2321</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.5967120000000001</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.191084</v>
+      </c>
+      <c r="G9" s="11">
+        <v>6.4678849999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.117899</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.3592999999999999E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.164294</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1.3474740000000001</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.65786599999999995</v>
+      </c>
+      <c r="M9" s="11">
+        <v>5.44E-4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.235794</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.29639300000000002</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.27164899999999997</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>9.6513000000000002E-2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>85.256057999999996</v>
+      </c>
+      <c r="S9" s="16">
+        <v>450</v>
+      </c>
+      <c r="T9" s="21">
+        <v>100</v>
+      </c>
+      <c r="U9" s="13">
+        <v>24.39339</v>
+      </c>
+      <c r="V9" s="11">
+        <v>685.20957499999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>4.052E-2</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.0422000000000002E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4.4163790000000001</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.257E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2.457068</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.181536</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6.8892740000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.6840000000000002E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.0553999999999999E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.15439900000000001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.1265989999999999</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.155333</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.21657999999999999</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.329156</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.30647099999999999</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.10030600000000001</v>
+      </c>
+      <c r="R10" s="11">
+        <v>83.55</v>
+      </c>
+      <c r="S10" s="16">
+        <v>450</v>
+      </c>
+      <c r="T10" s="23">
+        <v>125</v>
+      </c>
+      <c r="U10" s="13">
+        <v>25</v>
+      </c>
+      <c r="V10" s="11">
+        <v>689.32975399999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>4.3701999999999998E-2</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.30712099999999998</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2.4734280000000002</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.635621</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.18545700000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7.29976</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.131134</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.165904</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.1325590000000001</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.42721599999999998</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.20336599999999999</v>
+      </c>
+      <c r="O11" s="11">
+        <v>8.9677999999999994E-2</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.27906799999999998</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.51225100000000001</v>
+      </c>
+      <c r="R11" s="11">
+        <v>84.097327000000007</v>
+      </c>
+      <c r="S11" s="16">
+        <v>450</v>
+      </c>
+      <c r="T11" s="23">
+        <v>125</v>
+      </c>
+      <c r="U11" s="13">
+        <v>29</v>
+      </c>
+      <c r="V11" s="11">
+        <v>689.08734900000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.5374379999999999</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2.5809310000000001</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.19006899999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.1703669999999997</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.14674100000000001</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.406808</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.16465299999999999</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.184391</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.88123300000000004</v>
+      </c>
+      <c r="M12" s="11">
+        <v>4.08E-4</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.23308599999999999</v>
+      </c>
+      <c r="O12" s="11">
+        <v>8.7327000000000002E-2</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.27551300000000001</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.53673599999999999</v>
+      </c>
+      <c r="R12" s="11">
+        <v>83.55</v>
+      </c>
+      <c r="S12" s="16">
+        <v>450</v>
+      </c>
+      <c r="T12" s="23">
+        <v>125</v>
+      </c>
+      <c r="U12" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="V12" s="11">
+        <v>705.59442899999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>5.0344E-2</v>
+      </c>
+      <c r="B13" s="11">
+        <v>5.8252999999999999E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.847944</v>
+      </c>
+      <c r="D13" s="11">
+        <v>5.0354999999999997E-2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.5998130000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.19065099999999999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7.1901619999999999</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.158</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1.6885000000000001E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.16483200000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.1920820000000001</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.67293700000000001</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.23120099999999999</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.29034300000000002</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.50664200000000004</v>
+      </c>
+      <c r="R13" s="11">
+        <v>83.779270999999994</v>
+      </c>
+      <c r="S13" s="16">
+        <v>450</v>
+      </c>
+      <c r="T13" s="23">
+        <v>125</v>
+      </c>
+      <c r="U13" s="13">
+        <v>40</v>
+      </c>
+      <c r="V13" s="11">
+        <v>702.34760200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>5.0081000000000001E-2</v>
+      </c>
+      <c r="B15" s="11">
+        <v>5.3341E-2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.4759470000000001</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4.5180000000000003E-3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.595942</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.180372</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7.2836689999999997</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.124143</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.60192199999999996</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.20916</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.67261499999999996</v>
+      </c>
+      <c r="M15" s="11">
+        <v>6.87E-4</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.177901</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.228322</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.28209600000000001</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>6.6165000000000002E-2</v>
+      </c>
+      <c r="R15" s="11">
+        <v>83.826217</v>
+      </c>
+      <c r="S15" s="20">
+        <v>460</v>
+      </c>
+      <c r="T15" s="21">
+        <v>100</v>
+      </c>
+      <c r="U15" s="13">
+        <v>26.683617000000002</v>
+      </c>
+      <c r="V15" s="11">
+        <v>692.45409700000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>4.5727999999999998E-2</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5.2840999999999999E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2.5259239999999998</v>
+      </c>
+      <c r="D16" s="11">
+        <v>6.2606999999999996E-2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2.6036049999999999</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.192576</v>
+      </c>
+      <c r="G16" s="11">
+        <v>6.8625410000000002</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.14589299999999999</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2.8115000000000001E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.164576</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.2048369999999999</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1.1879770000000001</v>
+      </c>
+      <c r="M16" s="11">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.12615599999999999</v>
+      </c>
+      <c r="O16" s="11">
+        <v>6.4426999999999998E-2</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.284827</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.45476</v>
+      </c>
+      <c r="R16" s="11">
+        <v>83.992536999999999</v>
+      </c>
+      <c r="S16" s="20">
+        <v>460</v>
+      </c>
+      <c r="T16" s="22">
+        <v>110</v>
+      </c>
+      <c r="U16" s="13">
+        <v>26</v>
+      </c>
+      <c r="V16" s="11">
+        <v>700.43237599999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>4.9265000000000003E-2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2.6803E-2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.9181330000000001</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2.8351000000000001E-2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.5949369999999998</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.19098899999999999</v>
+      </c>
+      <c r="G17" s="11">
+        <v>8.5761020000000006</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.11398999999999999</v>
+      </c>
+      <c r="I17" s="11">
+        <v>3.3168000000000003E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.215923</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.98871600000000004</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.72203099999999998</v>
+      </c>
+      <c r="M17" s="11">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.19375500000000001</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.241896</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0.28110800000000002</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.127832</v>
+      </c>
+      <c r="R17" s="11">
+        <v>83.696466000000001</v>
+      </c>
+      <c r="S17" s="20">
+        <v>460</v>
+      </c>
+      <c r="T17" s="22">
+        <v>110</v>
+      </c>
+      <c r="U17" s="13">
+        <v>29.448872999999999</v>
+      </c>
+      <c r="V17" s="11">
+        <v>697.71505100000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3.1289999999999998E-3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.5369269999999999</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2.5888399999999998</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2.7690000000000002E-3</v>
+      </c>
+      <c r="G18" s="11">
+        <v>7.8140739999999997</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.115532</v>
+      </c>
+      <c r="I18" s="11">
+        <v>9.8166000000000003E-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.162553</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.19842</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="M18" s="11">
+        <v>6.8800000000000003E-4</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.22331599999999999</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.404559</v>
+      </c>
+      <c r="P18" s="11">
+        <v>5.6009999999999997E-2</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>4.3714000000000003E-2</v>
+      </c>
+      <c r="R18" s="11">
+        <v>83.926275000000004</v>
+      </c>
+      <c r="S18" s="20">
+        <v>460</v>
+      </c>
+      <c r="T18" s="23">
+        <v>125</v>
+      </c>
+      <c r="U18" s="13">
+        <v>5</v>
+      </c>
+      <c r="V18" s="11">
+        <v>686.10647400000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11">
+        <v>5.2117999999999998E-2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2.4879319999999998</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.5822219999999998</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.1719999999999999E-3</v>
+      </c>
+      <c r="G19" s="11">
+        <v>7.8182619999999998</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.123124</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.57191599999999998</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.16033</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.193282</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.55698000000000003</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.22558500000000001</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0.32250200000000001</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0.20099900000000001</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="R19" s="11">
+        <v>83.700885999999997</v>
+      </c>
+      <c r="S19" s="20">
+        <v>460</v>
+      </c>
+      <c r="T19" s="23">
+        <v>125</v>
+      </c>
+      <c r="U19" s="13">
+        <v>5</v>
+      </c>
+      <c r="V19" s="11">
+        <v>686.23226699999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>5.2615000000000002E-2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>5.3041999999999999E-2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.4426589999999999</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.2506E-2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2.5984440000000002</v>
+      </c>
+      <c r="F20" s="11">
+        <v>9.6754000000000007E-2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>7.708488</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.13874</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.158527</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.20898600000000001</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.34980699999999998</v>
+      </c>
+      <c r="M20" s="11">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.22137799999999999</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0.13767699999999999</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0.32080199999999998</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0.13578999999999999</v>
+      </c>
+      <c r="R20" s="11">
+        <v>85.362969000000007</v>
+      </c>
+      <c r="S20" s="20">
+        <v>460</v>
+      </c>
+      <c r="T20" s="23">
+        <v>125</v>
+      </c>
+      <c r="U20" s="13">
+        <v>5.0885410000000002</v>
+      </c>
+      <c r="V20" s="11">
+        <v>690.70461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3.02</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="R21" s="14">
+        <v>84.66</v>
+      </c>
+      <c r="S21" s="20">
+        <v>460</v>
+      </c>
+      <c r="T21" s="23">
+        <v>125</v>
+      </c>
+      <c r="U21" s="13">
+        <v>5.18</v>
+      </c>
+      <c r="V21" s="14">
+        <v>685.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>5.2617999999999998E-2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>5.3093000000000001E-2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.453757</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.3032999999999999E-2</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3.1303239999999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>9.6521999999999997E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>7.6902840000000001</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.13938900000000001</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2.7060000000000001E-3</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.157304</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.19667399999999999</v>
+      </c>
+      <c r="M22" s="11">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.22331300000000001</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0.23263300000000001</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0.182342</v>
+      </c>
+      <c r="R22" s="11">
+        <v>85.375029999999995</v>
+      </c>
+      <c r="S22" s="20">
+        <v>460</v>
+      </c>
+      <c r="T22" s="23">
+        <v>125</v>
+      </c>
+      <c r="U22" s="13">
+        <v>5.1826230000000004</v>
+      </c>
+      <c r="V22" s="11">
+        <v>687.93378700000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>5.2613E-2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5.0375999999999997E-2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1.656868</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1.1322E-2</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.5985680000000002</v>
+      </c>
+      <c r="F23" s="11">
+        <v>9.8285999999999998E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>7.7068919999999999</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.143067</v>
+      </c>
+      <c r="I23" s="11">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.15614800000000001</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.30766199999999999</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.245782</v>
+      </c>
+      <c r="M23" s="11">
+        <v>6.5499999999999998E-4</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.228461</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.18918199999999999</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.30032599999999998</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0.106655</v>
+      </c>
+      <c r="R23" s="11">
+        <v>86.146767999999994</v>
+      </c>
+      <c r="S23" s="20">
+        <v>460</v>
+      </c>
+      <c r="T23" s="23">
+        <v>125</v>
+      </c>
+      <c r="U23" s="13">
+        <v>5.1830379999999998</v>
+      </c>
+      <c r="V23" s="11">
+        <v>686.49708099999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>5.2618999999999999E-2</v>
+      </c>
+      <c r="B24" s="11">
+        <v>5.3108000000000002E-2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2.4527199999999998</v>
+      </c>
+      <c r="D24" s="11">
+        <v>8.1057000000000004E-2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2.5985800000000001</v>
+      </c>
+      <c r="F24" s="11">
+        <v>9.0572E-2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.13863300000000001</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1.936E-3</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.157944</v>
+      </c>
+      <c r="K24" s="11">
+        <v>6.6453999999999999E-2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.40137600000000001</v>
+      </c>
+      <c r="M24" s="11">
+        <v>4.4799999999999999E-4</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.22117999999999999</v>
+      </c>
+      <c r="O24" s="11">
+        <v>6.8287E-2</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0.28513699999999997</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0.14428099999999999</v>
+      </c>
+      <c r="R24" s="11">
+        <v>84.585667999999998</v>
+      </c>
+      <c r="S24" s="20">
+        <v>460</v>
+      </c>
+      <c r="T24" s="23">
+        <v>125</v>
+      </c>
+      <c r="U24" s="13">
+        <v>5.1833450000000001</v>
+      </c>
+      <c r="V24" s="11">
+        <v>687.69275900000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4.8433999999999998E-2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2.5411229999999998</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1.95E-4</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.5887669999999998</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2.6679999999999998E-3</v>
+      </c>
+      <c r="G25" s="11">
+        <v>8.0985580000000006</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.105959</v>
+      </c>
+      <c r="I25" s="11">
+        <v>9.8628999999999994E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.16083900000000001</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.2170719999999999</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.49102299999999999</v>
+      </c>
+      <c r="M25" s="11">
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.22777</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0.30442000000000002</v>
+      </c>
+      <c r="P25" s="11">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>7.6980999999999994E-2</v>
+      </c>
+      <c r="R25" s="11">
+        <v>84.034733000000003</v>
+      </c>
+      <c r="S25" s="20">
+        <v>460</v>
+      </c>
+      <c r="T25" s="23">
+        <v>125</v>
+      </c>
+      <c r="U25" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="V25" s="11">
+        <v>686.09214199999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>5.0775000000000001E-2</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5.2738E-2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.4846330000000001</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.7575E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.6840419999999998</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.191084</v>
+      </c>
+      <c r="G26" s="11">
+        <v>7.2536829999999997</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.115674</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.349412</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.16690099999999999</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.2017709999999999</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.69641600000000004</v>
+      </c>
+      <c r="M26" s="11">
+        <v>4.95E-4</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.19619400000000001</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0.29856700000000003</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0.28985100000000003</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>8.1916000000000003E-2</v>
+      </c>
+      <c r="R26" s="11">
+        <v>83.868274999999997</v>
+      </c>
+      <c r="S26" s="20">
+        <v>460</v>
+      </c>
+      <c r="T26" s="23">
+        <v>125</v>
+      </c>
+      <c r="U26" s="13">
+        <v>16.969563000000001</v>
+      </c>
+      <c r="V26" s="11">
+        <v>693.02019299999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>5.1062999999999997E-2</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5.3356000000000001E-2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2.5374650000000001</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1.5899E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.5957159999999999</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.18986900000000001</v>
+      </c>
+      <c r="G27" s="11">
+        <v>7.1218810000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.15557299999999999</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.164849</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1.158115</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.70306000000000002</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.20533999999999999</v>
+      </c>
+      <c r="O27" s="11">
+        <v>2.0858000000000002E-2</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0.36618499999999998</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0.52782700000000005</v>
+      </c>
+      <c r="R27" s="11">
+        <v>84.132823000000002</v>
+      </c>
+      <c r="S27" s="20">
+        <v>460</v>
+      </c>
+      <c r="T27" s="23">
+        <v>125</v>
+      </c>
+      <c r="U27" s="13">
+        <v>21</v>
+      </c>
+      <c r="V27" s="11">
+        <v>699.68885699999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>5.0893000000000001E-2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2.515406</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.4095999999999999E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2.5909070000000001</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.191967</v>
+      </c>
+      <c r="G28" s="11">
+        <v>7.3368409999999997</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.115259</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.6327000000000001E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.164468</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.2133480000000001</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.83490900000000001</v>
+      </c>
+      <c r="M28" s="11">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.214388</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0.68472599999999995</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.10477400000000001</v>
+      </c>
+      <c r="R28" s="11">
+        <v>83.899406999999997</v>
+      </c>
+      <c r="S28" s="20">
+        <v>460</v>
+      </c>
+      <c r="T28" s="23">
+        <v>125</v>
+      </c>
+      <c r="U28" s="13">
+        <v>24</v>
+      </c>
+      <c r="V28" s="11">
+        <v>717.41967799999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>5.4384000000000002E-2</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.18875400000000001</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2.4639869999999999</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.342E-2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3.5564369999999998</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.19310099999999999</v>
+      </c>
+      <c r="G29" s="11">
+        <v>7.2187580000000002</v>
+      </c>
+      <c r="H29" s="11">
+        <v>8.1650000000000004E-3</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1.1174E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.163464</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.194555</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.23689199999999999</v>
+      </c>
+      <c r="M29" s="11">
+        <v>2.34E-4</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.180703</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0.51744699999999999</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0.28996899999999998</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0.127273</v>
+      </c>
+      <c r="R29" s="11">
+        <v>83.581281000000004</v>
+      </c>
+      <c r="S29" s="20">
+        <v>460</v>
+      </c>
+      <c r="T29" s="23">
+        <v>125</v>
+      </c>
+      <c r="U29" s="13">
+        <v>24</v>
+      </c>
+      <c r="V29" s="11">
+        <v>690.45747800000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>4.2702999999999998E-2</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2.5354290000000002</v>
+      </c>
+      <c r="D30" s="11">
+        <v>8.5240000000000003E-3</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2.5886650000000002</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.19378699999999999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>7.6901089999999996</v>
+      </c>
+      <c r="H30" s="11">
+        <v>8.5400000000000005E-4</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1.1119E-2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.16200999999999999</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2.0230730000000001</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.19478699999999999</v>
+      </c>
+      <c r="M30" s="11">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.22705900000000001</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0.32363700000000001</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0.24582200000000001</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0.10262400000000001</v>
+      </c>
+      <c r="R30" s="11">
+        <v>83.649760999999998</v>
+      </c>
+      <c r="S30" s="20">
+        <v>460</v>
+      </c>
+      <c r="T30" s="23">
+        <v>125</v>
+      </c>
+      <c r="U30" s="13">
+        <v>24</v>
+      </c>
+      <c r="V30" s="11">
+        <v>701.67531299999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>5.1392E-2</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5.0819999999999997E-2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2.5171999999999999</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2.5909819999999999</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.18975700000000001</v>
+      </c>
+      <c r="G31" s="11">
+        <v>7.2931660000000003</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.127331</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1.5214999999999999E-2</v>
+      </c>
+      <c r="J31" s="11">
+        <v>6.8454000000000001E-2</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.215317</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1.306146</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1.9109999999999999E-3</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0.210976</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0.64674200000000004</v>
+      </c>
+      <c r="P31" s="11">
+        <v>2.1937999999999999E-2</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>7.8716999999999995E-2</v>
+      </c>
+      <c r="R31" s="11">
+        <v>83.611896000000002</v>
+      </c>
+      <c r="S31" s="20">
+        <v>460</v>
+      </c>
+      <c r="T31" s="23">
+        <v>125</v>
+      </c>
+      <c r="U31" s="13">
+        <v>24</v>
+      </c>
+      <c r="V31" s="11">
+        <v>690.00891100000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>5.0744999999999998E-2</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.28501900000000002</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2.4353859999999998</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1.6397999999999999E-2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2.6083319999999999</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.19106500000000001</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7.2663359999999999</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.118784</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1.6452000000000001E-2</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.16906399999999999</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2061390000000001</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.64040600000000003</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1.4369999999999999E-3</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.193102</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0.33475899999999997</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0.30318200000000001</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>7.7733999999999998E-2</v>
+      </c>
+      <c r="R32" s="11">
+        <v>84.085659000000007</v>
+      </c>
+      <c r="S32" s="20">
+        <v>460</v>
+      </c>
+      <c r="T32" s="23">
+        <v>125</v>
+      </c>
+      <c r="U32" s="13">
+        <v>24.152652</v>
+      </c>
+      <c r="V32" s="11">
+        <v>690.36627599999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5.8362999999999998E-2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.20083500000000001</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1.5774E-2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2.5950549999999999</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.19028300000000001</v>
+      </c>
+      <c r="G33" s="11">
+        <v>7.2807469999999999</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.117977</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1.5678000000000001E-2</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.173624</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.2065969999999999</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.60123599999999999</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1.668E-3</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.147451</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0.394735</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0.35155500000000001</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>8.2444000000000003E-2</v>
+      </c>
+      <c r="R33" s="11">
+        <v>86.515178000000006</v>
+      </c>
+      <c r="S33" s="20">
+        <v>460</v>
+      </c>
+      <c r="T33" s="23">
+        <v>125</v>
+      </c>
+      <c r="U33" s="13">
+        <v>24.193200999999998</v>
+      </c>
+      <c r="V33" s="11">
+        <v>692.54077199999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>5.0783000000000002E-2</v>
+      </c>
+      <c r="B34" s="11">
+        <v>5.5093000000000003E-2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2.4631249999999998</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1.6798E-2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1.7361120000000001</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.185701</v>
+      </c>
+      <c r="G34" s="11">
+        <v>7.4349189999999998</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.12105399999999999</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1.1102000000000001E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.16661300000000001</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.158471</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.56462699999999999</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.188113</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0.33594299999999999</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.326208</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>7.3037000000000005E-2</v>
+      </c>
+      <c r="R34" s="11">
+        <v>85.111036999999996</v>
+      </c>
+      <c r="S34" s="20">
+        <v>460</v>
+      </c>
+      <c r="T34" s="23">
+        <v>125</v>
+      </c>
+      <c r="U34" s="13">
+        <v>24.215304</v>
+      </c>
+      <c r="V34" s="11">
+        <v>687.22125100000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>5.0756000000000003E-2</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5.6321999999999997E-2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2.4805459999999999</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.7569999999999999E-2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2.5966</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.19109000000000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>7.2559370000000003</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.107076</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.113965</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.165877</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.6472230000000001</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.67910099999999995</v>
+      </c>
+      <c r="M35" s="11">
+        <v>8.8099999999999995E-4</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.195914</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0.301811</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0.32187199999999999</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>4.5931E-2</v>
+      </c>
+      <c r="R35" s="11">
+        <v>83.771525999999994</v>
+      </c>
+      <c r="S35" s="20">
+        <v>460</v>
+      </c>
+      <c r="T35" s="23">
+        <v>125</v>
+      </c>
+      <c r="U35" s="13">
+        <v>25.579461999999999</v>
+      </c>
+      <c r="V35" s="11">
+        <v>707.81101899999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>5.1213000000000002E-2</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2.5442170000000002</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1.6879999999999999E-2</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2.5912890000000002</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.19053899999999999</v>
+      </c>
+      <c r="G36" s="11">
+        <v>7.1762069999999998</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.14583499999999999</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1.7801999999999998E-2</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.16505900000000001</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.192399</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.71694999999999998</v>
+      </c>
+      <c r="M36" s="11">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0.23555499999999999</v>
+      </c>
+      <c r="O36" s="11">
+        <v>2.1082E-2</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0.28231800000000001</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0.53389799999999998</v>
+      </c>
+      <c r="R36" s="11">
+        <v>84.117998</v>
+      </c>
+      <c r="S36" s="20">
+        <v>460</v>
+      </c>
+      <c r="T36" s="23">
+        <v>125</v>
+      </c>
+      <c r="U36" s="13">
+        <v>27.5</v>
+      </c>
+      <c r="V36" s="11">
+        <v>714.15695700000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>5.1229999999999998E-2</v>
+      </c>
+      <c r="B37" s="11">
+        <v>5.5129999999999998E-2</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2.5542720000000001</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1.4484E-2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>3.1092900000000001</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.190772</v>
+      </c>
+      <c r="G37" s="11">
+        <v>6.957192</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.146205</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1.5414000000000001E-2</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.16608899999999999</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.1136779999999999</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.720947</v>
+      </c>
+      <c r="M37" s="11">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="N37" s="11">
+        <v>9.1282000000000002E-2</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0.18045</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0.26166899999999998</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R37" s="11">
+        <v>83.821541999999994</v>
+      </c>
+      <c r="S37" s="20">
+        <v>460</v>
+      </c>
+      <c r="T37" s="23">
+        <v>125</v>
+      </c>
+      <c r="U37" s="13">
+        <v>28</v>
+      </c>
+      <c r="V37" s="11">
+        <v>708.05992200000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>5.1026000000000002E-2</v>
+      </c>
+      <c r="B38" s="11">
+        <v>5.5183000000000003E-2</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1.6068249999999999</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1.4370000000000001E-2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2.5888270000000002</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.19076499999999999</v>
+      </c>
+      <c r="G38" s="11">
+        <v>6.6712689999999997</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.14200299999999999</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.69037099999999996</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.14766099999999999</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.0444549999999999</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.64118699999999995</v>
+      </c>
+      <c r="M38" s="11">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0.23377100000000001</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0.14147999999999999</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0.22900100000000001</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0.48214600000000002</v>
+      </c>
+      <c r="R38" s="11">
+        <v>85.069299999999998</v>
+      </c>
+      <c r="S38" s="20">
+        <v>460</v>
+      </c>
+      <c r="T38" s="23">
+        <v>125</v>
+      </c>
+      <c r="U38" s="13">
+        <v>28</v>
+      </c>
+      <c r="V38" s="11">
+        <v>692.58531300000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>5.1171000000000001E-2</v>
+      </c>
+      <c r="B39" s="11">
+        <v>4.8884999999999998E-2</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2.4932370000000001</v>
+      </c>
+      <c r="D39" s="11">
+        <v>5.3815000000000002E-2</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2.6205569999999998</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.191911</v>
+      </c>
+      <c r="G39" s="11">
+        <v>5.8952239999999998</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.14221800000000001</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1.6499E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.182057</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.179967</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.72300399999999998</v>
+      </c>
+      <c r="M39" s="11">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.234241</v>
+      </c>
+      <c r="O39" s="11">
+        <v>4.9119000000000003E-2</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0.27655600000000002</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0.53894900000000001</v>
+      </c>
+      <c r="R39" s="11">
+        <v>85.302256</v>
+      </c>
+      <c r="S39" s="20">
+        <v>460</v>
+      </c>
+      <c r="T39" s="23">
+        <v>125</v>
+      </c>
+      <c r="U39" s="13">
+        <v>31.5</v>
+      </c>
+      <c r="V39" s="11">
+        <v>685.64190900000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>5.1498000000000002E-2</v>
+      </c>
+      <c r="B40" s="11">
+        <v>5.0960999999999999E-2</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2.5179469999999999</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.21063299999999999</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2.5909469999999999</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.19196099999999999</v>
+      </c>
+      <c r="G40" s="11">
+        <v>7.3401630000000004</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.13610700000000001</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1.5720999999999999E-2</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.17411099999999999</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.212812</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.88413200000000003</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0.21445</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0.629162</v>
+      </c>
+      <c r="P40" s="11">
+        <v>1.4494E-2</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0.142342</v>
+      </c>
+      <c r="R40" s="11">
+        <v>83.620598999999999</v>
+      </c>
+      <c r="S40" s="20">
+        <v>460</v>
+      </c>
+      <c r="T40" s="24">
+        <v>147</v>
+      </c>
+      <c r="U40" s="13">
+        <v>24</v>
+      </c>
+      <c r="V40" s="11">
+        <v>693.57818599999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>3.8925000000000001E-2</v>
+      </c>
+      <c r="B42" s="11">
+        <v>5.3619E-2</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2.499565</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1.9907999999999999E-2</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2.5986020000000001</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.19075600000000001</v>
+      </c>
+      <c r="G42" s="11">
+        <v>7.5555110000000001</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.13702500000000001</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1.4543E-2</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.168296</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.1996640000000001</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0.63164900000000002</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1.335E-3</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0.18993399999999999</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0.118691</v>
+      </c>
+      <c r="P42" s="11">
+        <v>2.2398000000000001E-2</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>9.5465999999999995E-2</v>
+      </c>
+      <c r="R42" s="11">
+        <v>84.464112999999998</v>
+      </c>
+      <c r="S42" s="19">
+        <v>490</v>
+      </c>
+      <c r="T42" s="23">
+        <v>125</v>
+      </c>
+      <c r="U42" s="13">
+        <v>24</v>
+      </c>
+      <c r="V42" s="11">
+        <v>706.29663100000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>5.1180999999999997E-2</v>
+      </c>
+      <c r="B43" s="11">
+        <v>5.4460000000000001E-2</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2.5491790000000001</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1.6043999999999999E-2</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2.5909499999999999</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.19062100000000001</v>
+      </c>
+      <c r="G43" s="11">
+        <v>6.9751950000000003</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.14685400000000001</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1.7340000000000001E-2</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.16491600000000001</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.1914210000000001</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.73921000000000003</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.23411399999999999</v>
+      </c>
+      <c r="O43" s="11">
+        <v>4.5039999999999997E-2</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0.29297899999999999</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>0.49794300000000002</v>
+      </c>
+      <c r="R43" s="11">
+        <v>84.242553000000001</v>
+      </c>
+      <c r="S43" s="19">
+        <v>490</v>
+      </c>
+      <c r="T43" s="23">
+        <v>125</v>
+      </c>
+      <c r="U43" s="13">
+        <v>28</v>
+      </c>
+      <c r="V43" s="11">
+        <v>699.340013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>